--- a/hydrofia/hydrofia_ph_template.xlsx
+++ b/hydrofia/hydrofia_ph_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20410"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mw\git\hydrofia\hydrofia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A684B9-B5D8-4818-AC30-58F982B63796}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8DFA64-359E-46E0-A340-1851B7DF9A91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="165" windowWidth="15600" windowHeight="11610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2963,11 +2963,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2993,11 +2993,11 @@
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4528,7 +4528,7 @@
   <dimension ref="A1:EK112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5486,4843 +5486,1577 @@
       <c r="L11" s="37"/>
       <c r="M11" s="48"/>
     </row>
-    <row r="12" spans="1:141" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="str">
-        <f>IF(Rådata!C1="","",Rådata!C1)</f>
-        <v/>
-      </c>
-      <c r="B12" s="53" t="str">
-        <f>IF(Rådata!B1="","",LEFT(Rådata!B1, 2))</f>
-        <v/>
-      </c>
-      <c r="C12" s="53" t="str">
-        <f>IF(Rådata!E1="","",Rådata!E1)</f>
-        <v/>
-      </c>
-      <c r="D12" s="54" t="str">
-        <f>IF(Rådata!F1="","",Rådata!F1)</f>
-        <v/>
-      </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="53" t="str">
-        <f>IF(Rådata!G1="","",Rådata!G1)</f>
-        <v/>
-      </c>
-      <c r="G12" s="53" t="str">
-        <f>IF(Rådata!H1="","",Rådata!H1)</f>
-        <v/>
-      </c>
-      <c r="H12" s="53" t="str">
-        <f>IF(Rådata!I1="","",Rådata!I1)</f>
-        <v/>
-      </c>
-      <c r="I12" s="53" t="str">
-        <f>IF(Rådata!J1="","",Rådata!J1)</f>
-        <v/>
-      </c>
-      <c r="J12" s="53" t="str">
-        <f>IF(Rådata!K1="","",Rådata!K1)</f>
-        <v/>
-      </c>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53" t="str">
-        <f>IF(Rådata!M1="","",Rådata!M1)</f>
-        <v/>
-      </c>
-      <c r="M12" s="53" t="str">
-        <f>IF(Rådata!N1="","",Rådata!N1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:141" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="str">
-        <f>IF(Rådata!C2="","",Rådata!C2)</f>
-        <v/>
-      </c>
-      <c r="B13" s="53" t="str">
-        <f>IF(Rådata!B2="","",LEFT(Rådata!B2, 2))</f>
-        <v/>
-      </c>
-      <c r="C13" s="53" t="str">
-        <f>IF(Rådata!E2="","",Rådata!E2)</f>
-        <v/>
-      </c>
-      <c r="D13" s="54" t="str">
-        <f>IF(Rådata!F2="","",Rådata!F2)</f>
-        <v/>
-      </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="53" t="str">
-        <f>IF(Rådata!G2="","",Rådata!G2)</f>
-        <v/>
-      </c>
-      <c r="G13" s="53" t="str">
-        <f>IF(Rådata!H2="","",Rådata!H2)</f>
-        <v/>
-      </c>
-      <c r="H13" s="53" t="str">
-        <f>IF(Rådata!I2="","",Rådata!I2)</f>
-        <v/>
-      </c>
-      <c r="I13" s="53" t="str">
-        <f>IF(Rådata!J2="","",Rådata!J2)</f>
-        <v/>
-      </c>
-      <c r="J13" s="53" t="str">
-        <f>IF(Rådata!K2="","",Rådata!K2)</f>
-        <v/>
-      </c>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53" t="str">
-        <f>IF(Rådata!M2="","",Rådata!M2)</f>
-        <v/>
-      </c>
-      <c r="M13" s="53" t="str">
-        <f>IF(Rådata!N2="","",Rådata!N2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:141" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53" t="str">
-        <f>IF(Rådata!C3="","",Rådata!C3)</f>
-        <v/>
-      </c>
-      <c r="B14" s="53" t="str">
-        <f>IF(Rådata!B3="","",LEFT(Rådata!B3, 2))</f>
-        <v/>
-      </c>
-      <c r="C14" s="53" t="str">
-        <f>IF(Rådata!E3="","",Rådata!E3)</f>
-        <v/>
-      </c>
-      <c r="D14" s="54" t="str">
-        <f>IF(Rådata!F3="","",Rådata!F3)</f>
-        <v/>
-      </c>
-      <c r="E14" s="54"/>
-      <c r="F14" s="53" t="str">
-        <f>IF(Rådata!G3="","",Rådata!G3)</f>
-        <v/>
-      </c>
-      <c r="G14" s="53" t="str">
-        <f>IF(Rådata!H3="","",Rådata!H3)</f>
-        <v/>
-      </c>
-      <c r="H14" s="53" t="str">
-        <f>IF(Rådata!I3="","",Rådata!I3)</f>
-        <v/>
-      </c>
-      <c r="I14" s="53" t="str">
-        <f>IF(Rådata!J3="","",Rådata!J3)</f>
-        <v/>
-      </c>
-      <c r="J14" s="53" t="str">
-        <f>IF(Rådata!K3="","",Rådata!K3)</f>
-        <v/>
-      </c>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53" t="str">
-        <f>IF(Rådata!M3="","",Rådata!M3)</f>
-        <v/>
-      </c>
-      <c r="M14" s="53" t="str">
-        <f>IF(Rådata!N3="","",Rådata!N3)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:141" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="str">
-        <f>IF(Rådata!C4="","",Rådata!C4)</f>
-        <v/>
-      </c>
-      <c r="B15" s="53" t="str">
-        <f>IF(Rådata!B4="","",LEFT(Rådata!B4, 2))</f>
-        <v/>
-      </c>
-      <c r="C15" s="53" t="str">
-        <f>IF(Rådata!E4="","",Rådata!E4)</f>
-        <v/>
-      </c>
-      <c r="D15" s="54" t="str">
-        <f>IF(Rådata!F4="","",Rådata!F4)</f>
-        <v/>
-      </c>
-      <c r="E15" s="54"/>
-      <c r="F15" s="53" t="str">
-        <f>IF(Rådata!G4="","",Rådata!G4)</f>
-        <v/>
-      </c>
-      <c r="G15" s="53" t="str">
-        <f>IF(Rådata!H4="","",Rådata!H4)</f>
-        <v/>
-      </c>
-      <c r="H15" s="53" t="str">
-        <f>IF(Rådata!I4="","",Rådata!I4)</f>
-        <v/>
-      </c>
-      <c r="I15" s="53" t="str">
-        <f>IF(Rådata!J4="","",Rådata!J4)</f>
-        <v/>
-      </c>
-      <c r="J15" s="53" t="str">
-        <f>IF(Rådata!K4="","",Rådata!K4)</f>
-        <v/>
-      </c>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53" t="str">
-        <f>IF(Rådata!M4="","",Rådata!M4)</f>
-        <v/>
-      </c>
-      <c r="M15" s="53" t="str">
-        <f>IF(Rådata!N4="","",Rådata!N4)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:141" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="str">
-        <f>IF(Rådata!C5="","",Rådata!C5)</f>
-        <v/>
-      </c>
-      <c r="B16" s="53" t="str">
-        <f>IF(Rådata!B5="","",LEFT(Rådata!B5, 2))</f>
-        <v/>
-      </c>
-      <c r="C16" s="53" t="str">
-        <f>IF(Rådata!E5="","",Rådata!E5)</f>
-        <v/>
-      </c>
-      <c r="D16" s="54" t="str">
-        <f>IF(Rådata!F5="","",Rådata!F5)</f>
-        <v/>
-      </c>
-      <c r="E16" s="54"/>
-      <c r="F16" s="53" t="str">
-        <f>IF(Rådata!G5="","",Rådata!G5)</f>
-        <v/>
-      </c>
-      <c r="G16" s="53" t="str">
-        <f>IF(Rådata!H5="","",Rådata!H5)</f>
-        <v/>
-      </c>
-      <c r="H16" s="53" t="str">
-        <f>IF(Rådata!I5="","",Rådata!I5)</f>
-        <v/>
-      </c>
-      <c r="I16" s="53" t="str">
-        <f>IF(Rådata!J5="","",Rådata!J5)</f>
-        <v/>
-      </c>
-      <c r="J16" s="53" t="str">
-        <f>IF(Rådata!K5="","",Rådata!K5)</f>
-        <v/>
-      </c>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53" t="str">
-        <f>IF(Rådata!M5="","",Rådata!M5)</f>
-        <v/>
-      </c>
-      <c r="M16" s="53" t="str">
-        <f>IF(Rådata!N5="","",Rådata!N5)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="str">
-        <f>IF(Rådata!C6="","",Rådata!C6)</f>
-        <v/>
-      </c>
-      <c r="B17" s="53" t="str">
-        <f>IF(Rådata!B6="","",LEFT(Rådata!B6, 2))</f>
-        <v/>
-      </c>
-      <c r="C17" s="53" t="str">
-        <f>IF(Rådata!E6="","",Rådata!E6)</f>
-        <v/>
-      </c>
-      <c r="D17" s="54" t="str">
-        <f>IF(Rådata!F6="","",Rådata!F6)</f>
-        <v/>
-      </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="53" t="str">
-        <f>IF(Rådata!G6="","",Rådata!G6)</f>
-        <v/>
-      </c>
-      <c r="G17" s="53" t="str">
-        <f>IF(Rådata!H6="","",Rådata!H6)</f>
-        <v/>
-      </c>
-      <c r="H17" s="53" t="str">
-        <f>IF(Rådata!I6="","",Rådata!I6)</f>
-        <v/>
-      </c>
-      <c r="I17" s="53" t="str">
-        <f>IF(Rådata!J6="","",Rådata!J6)</f>
-        <v/>
-      </c>
-      <c r="J17" s="53" t="str">
-        <f>IF(Rådata!K6="","",Rådata!K6)</f>
-        <v/>
-      </c>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53" t="str">
-        <f>IF(Rådata!M6="","",Rådata!M6)</f>
-        <v/>
-      </c>
-      <c r="M17" s="53" t="str">
-        <f>IF(Rådata!N6="","",Rådata!N6)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53" t="str">
-        <f>IF(Rådata!C7="","",Rådata!C7)</f>
-        <v/>
-      </c>
-      <c r="B18" s="53" t="str">
-        <f>IF(Rådata!B7="","",LEFT(Rådata!B7, 2))</f>
-        <v/>
-      </c>
-      <c r="C18" s="53" t="str">
-        <f>IF(Rådata!E7="","",Rådata!E7)</f>
-        <v/>
-      </c>
-      <c r="D18" s="54" t="str">
-        <f>IF(Rådata!F7="","",Rådata!F7)</f>
-        <v/>
-      </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="53" t="str">
-        <f>IF(Rådata!G7="","",Rådata!G7)</f>
-        <v/>
-      </c>
-      <c r="G18" s="53" t="str">
-        <f>IF(Rådata!H7="","",Rådata!H7)</f>
-        <v/>
-      </c>
-      <c r="H18" s="53" t="str">
-        <f>IF(Rådata!I7="","",Rådata!I7)</f>
-        <v/>
-      </c>
-      <c r="I18" s="53" t="str">
-        <f>IF(Rådata!J7="","",Rådata!J7)</f>
-        <v/>
-      </c>
-      <c r="J18" s="53" t="str">
-        <f>IF(Rådata!K7="","",Rådata!K7)</f>
-        <v/>
-      </c>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53" t="str">
-        <f>IF(Rådata!M7="","",Rådata!M7)</f>
-        <v/>
-      </c>
-      <c r="M18" s="53" t="str">
-        <f>IF(Rådata!N7="","",Rådata!N7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53" t="str">
-        <f>IF(Rådata!C8="","",Rådata!C8)</f>
-        <v/>
-      </c>
-      <c r="B19" s="53" t="str">
-        <f>IF(Rådata!B8="","",LEFT(Rådata!B8, 2))</f>
-        <v/>
-      </c>
-      <c r="C19" s="53" t="str">
-        <f>IF(Rådata!E8="","",Rådata!E8)</f>
-        <v/>
-      </c>
-      <c r="D19" s="54" t="str">
-        <f>IF(Rådata!F8="","",Rådata!F8)</f>
-        <v/>
-      </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="53" t="str">
-        <f>IF(Rådata!G8="","",Rådata!G8)</f>
-        <v/>
-      </c>
-      <c r="G19" s="53" t="str">
-        <f>IF(Rådata!H8="","",Rådata!H8)</f>
-        <v/>
-      </c>
-      <c r="H19" s="53" t="str">
-        <f>IF(Rådata!I8="","",Rådata!I8)</f>
-        <v/>
-      </c>
-      <c r="I19" s="53" t="str">
-        <f>IF(Rådata!J8="","",Rådata!J8)</f>
-        <v/>
-      </c>
-      <c r="J19" s="53" t="str">
-        <f>IF(Rådata!K8="","",Rådata!K8)</f>
-        <v/>
-      </c>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53" t="str">
-        <f>IF(Rådata!M8="","",Rådata!M8)</f>
-        <v/>
-      </c>
-      <c r="M19" s="53" t="str">
-        <f>IF(Rådata!N8="","",Rådata!N8)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="53" t="str">
-        <f>IF(Rådata!C9="","",Rådata!C9)</f>
-        <v/>
-      </c>
-      <c r="B20" s="53" t="str">
-        <f>IF(Rådata!B9="","",LEFT(Rådata!B9, 2))</f>
-        <v/>
-      </c>
-      <c r="C20" s="53" t="str">
-        <f>IF(Rådata!E9="","",Rådata!E9)</f>
-        <v/>
-      </c>
-      <c r="D20" s="54" t="str">
-        <f>IF(Rådata!F9="","",Rådata!F9)</f>
-        <v/>
-      </c>
-      <c r="E20" s="54"/>
-      <c r="F20" s="53" t="str">
-        <f>IF(Rådata!G9="","",Rådata!G9)</f>
-        <v/>
-      </c>
-      <c r="G20" s="53" t="str">
-        <f>IF(Rådata!H9="","",Rådata!H9)</f>
-        <v/>
-      </c>
-      <c r="H20" s="53" t="str">
-        <f>IF(Rådata!I9="","",Rådata!I9)</f>
-        <v/>
-      </c>
-      <c r="I20" s="53" t="str">
-        <f>IF(Rådata!J9="","",Rådata!J9)</f>
-        <v/>
-      </c>
-      <c r="J20" s="53" t="str">
-        <f>IF(Rådata!K9="","",Rådata!K9)</f>
-        <v/>
-      </c>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53" t="str">
-        <f>IF(Rådata!M9="","",Rådata!M9)</f>
-        <v/>
-      </c>
-      <c r="M20" s="53" t="str">
-        <f>IF(Rådata!N9="","",Rådata!N9)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53" t="str">
-        <f>IF(Rådata!C10="","",Rådata!C10)</f>
-        <v/>
-      </c>
-      <c r="B21" s="53" t="str">
-        <f>IF(Rådata!B10="","",LEFT(Rådata!B10, 2))</f>
-        <v/>
-      </c>
-      <c r="C21" s="53" t="str">
-        <f>IF(Rådata!E10="","",Rådata!E10)</f>
-        <v/>
-      </c>
-      <c r="D21" s="54" t="str">
-        <f>IF(Rådata!F10="","",Rådata!F10)</f>
-        <v/>
-      </c>
-      <c r="E21" s="54"/>
-      <c r="F21" s="53" t="str">
-        <f>IF(Rådata!G10="","",Rådata!G10)</f>
-        <v/>
-      </c>
-      <c r="G21" s="53" t="str">
-        <f>IF(Rådata!H10="","",Rådata!H10)</f>
-        <v/>
-      </c>
-      <c r="H21" s="53" t="str">
-        <f>IF(Rådata!I10="","",Rådata!I10)</f>
-        <v/>
-      </c>
-      <c r="I21" s="53" t="str">
-        <f>IF(Rådata!J10="","",Rådata!J10)</f>
-        <v/>
-      </c>
-      <c r="J21" s="53" t="str">
-        <f>IF(Rådata!K10="","",Rådata!K10)</f>
-        <v/>
-      </c>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53" t="str">
-        <f>IF(Rådata!M10="","",Rådata!M10)</f>
-        <v/>
-      </c>
-      <c r="M21" s="53" t="str">
-        <f>IF(Rådata!N10="","",Rådata!N10)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="53" t="str">
-        <f>IF(Rådata!C11="","",Rådata!C11)</f>
-        <v/>
-      </c>
-      <c r="B22" s="53" t="str">
-        <f>IF(Rådata!B11="","",LEFT(Rådata!B11, 2))</f>
-        <v/>
-      </c>
-      <c r="C22" s="53" t="str">
-        <f>IF(Rådata!E11="","",Rådata!E11)</f>
-        <v/>
-      </c>
-      <c r="D22" s="54" t="str">
-        <f>IF(Rådata!F11="","",Rådata!F11)</f>
-        <v/>
-      </c>
-      <c r="E22" s="54"/>
-      <c r="F22" s="53" t="str">
-        <f>IF(Rådata!G11="","",Rådata!G11)</f>
-        <v/>
-      </c>
-      <c r="G22" s="53" t="str">
-        <f>IF(Rådata!H11="","",Rådata!H11)</f>
-        <v/>
-      </c>
-      <c r="H22" s="53" t="str">
-        <f>IF(Rådata!I11="","",Rådata!I11)</f>
-        <v/>
-      </c>
-      <c r="I22" s="53" t="str">
-        <f>IF(Rådata!J11="","",Rådata!J11)</f>
-        <v/>
-      </c>
-      <c r="J22" s="53" t="str">
-        <f>IF(Rådata!K11="","",Rådata!K11)</f>
-        <v/>
-      </c>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53" t="str">
-        <f>IF(Rådata!M11="","",Rådata!M11)</f>
-        <v/>
-      </c>
-      <c r="M22" s="53" t="str">
-        <f>IF(Rådata!N11="","",Rådata!N11)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53" t="str">
-        <f>IF(Rådata!C12="","",Rådata!C12)</f>
-        <v/>
-      </c>
-      <c r="B23" s="53" t="str">
-        <f>IF(Rådata!B12="","",LEFT(Rådata!B12, 2))</f>
-        <v/>
-      </c>
-      <c r="C23" s="53" t="str">
-        <f>IF(Rådata!E12="","",Rådata!E12)</f>
-        <v/>
-      </c>
-      <c r="D23" s="54" t="str">
-        <f>IF(Rådata!F12="","",Rådata!F12)</f>
-        <v/>
-      </c>
-      <c r="E23" s="54"/>
-      <c r="F23" s="53" t="str">
-        <f>IF(Rådata!G12="","",Rådata!G12)</f>
-        <v/>
-      </c>
-      <c r="G23" s="53" t="str">
-        <f>IF(Rådata!H12="","",Rådata!H12)</f>
-        <v/>
-      </c>
-      <c r="H23" s="53" t="str">
-        <f>IF(Rådata!I12="","",Rådata!I12)</f>
-        <v/>
-      </c>
-      <c r="I23" s="53" t="str">
-        <f>IF(Rådata!J12="","",Rådata!J12)</f>
-        <v/>
-      </c>
-      <c r="J23" s="53" t="str">
-        <f>IF(Rådata!K12="","",Rådata!K12)</f>
-        <v/>
-      </c>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53" t="str">
-        <f>IF(Rådata!M12="","",Rådata!M12)</f>
-        <v/>
-      </c>
-      <c r="M23" s="53" t="str">
-        <f>IF(Rådata!N12="","",Rådata!N12)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="53" t="str">
-        <f>IF(Rådata!C13="","",Rådata!C13)</f>
-        <v/>
-      </c>
-      <c r="B24" s="53" t="str">
-        <f>IF(Rådata!B13="","",LEFT(Rådata!B13, 2))</f>
-        <v/>
-      </c>
-      <c r="C24" s="53" t="str">
-        <f>IF(Rådata!E13="","",Rådata!E13)</f>
-        <v/>
-      </c>
-      <c r="D24" s="54" t="str">
-        <f>IF(Rådata!F13="","",Rådata!F13)</f>
-        <v/>
-      </c>
-      <c r="E24" s="54"/>
-      <c r="F24" s="53" t="str">
-        <f>IF(Rådata!G13="","",Rådata!G13)</f>
-        <v/>
-      </c>
-      <c r="G24" s="53" t="str">
-        <f>IF(Rådata!H13="","",Rådata!H13)</f>
-        <v/>
-      </c>
-      <c r="H24" s="53" t="str">
-        <f>IF(Rådata!I13="","",Rådata!I13)</f>
-        <v/>
-      </c>
-      <c r="I24" s="53" t="str">
-        <f>IF(Rådata!J13="","",Rådata!J13)</f>
-        <v/>
-      </c>
-      <c r="J24" s="53" t="str">
-        <f>IF(Rådata!K13="","",Rådata!K13)</f>
-        <v/>
-      </c>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53" t="str">
-        <f>IF(Rådata!M13="","",Rådata!M13)</f>
-        <v/>
-      </c>
-      <c r="M24" s="53" t="str">
-        <f>IF(Rådata!N13="","",Rådata!N13)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="53" t="str">
-        <f>IF(Rådata!C14="","",Rådata!C14)</f>
-        <v/>
-      </c>
-      <c r="B25" s="53" t="str">
-        <f>IF(Rådata!B14="","",LEFT(Rådata!B14, 2))</f>
-        <v/>
-      </c>
-      <c r="C25" s="53" t="str">
-        <f>IF(Rådata!E14="","",Rådata!E14)</f>
-        <v/>
-      </c>
-      <c r="D25" s="54" t="str">
-        <f>IF(Rådata!F14="","",Rådata!F14)</f>
-        <v/>
-      </c>
-      <c r="E25" s="54"/>
-      <c r="F25" s="53" t="str">
-        <f>IF(Rådata!G14="","",Rådata!G14)</f>
-        <v/>
-      </c>
-      <c r="G25" s="53" t="str">
-        <f>IF(Rådata!H14="","",Rådata!H14)</f>
-        <v/>
-      </c>
-      <c r="H25" s="53" t="str">
-        <f>IF(Rådata!I14="","",Rådata!I14)</f>
-        <v/>
-      </c>
-      <c r="I25" s="53" t="str">
-        <f>IF(Rådata!J14="","",Rådata!J14)</f>
-        <v/>
-      </c>
-      <c r="J25" s="53" t="str">
-        <f>IF(Rådata!K14="","",Rådata!K14)</f>
-        <v/>
-      </c>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53" t="str">
-        <f>IF(Rådata!M14="","",Rådata!M14)</f>
-        <v/>
-      </c>
-      <c r="M25" s="53" t="str">
-        <f>IF(Rådata!N14="","",Rådata!N14)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="53" t="str">
-        <f>IF(Rådata!C15="","",Rådata!C15)</f>
-        <v/>
-      </c>
-      <c r="B26" s="53" t="str">
-        <f>IF(Rådata!B15="","",LEFT(Rådata!B15, 2))</f>
-        <v/>
-      </c>
-      <c r="C26" s="53" t="str">
-        <f>IF(Rådata!E15="","",Rådata!E15)</f>
-        <v/>
-      </c>
-      <c r="D26" s="54" t="str">
-        <f>IF(Rådata!F15="","",Rådata!F15)</f>
-        <v/>
-      </c>
-      <c r="E26" s="54"/>
-      <c r="F26" s="53" t="str">
-        <f>IF(Rådata!G15="","",Rådata!G15)</f>
-        <v/>
-      </c>
-      <c r="G26" s="53" t="str">
-        <f>IF(Rådata!H15="","",Rådata!H15)</f>
-        <v/>
-      </c>
-      <c r="H26" s="53" t="str">
-        <f>IF(Rådata!I15="","",Rådata!I15)</f>
-        <v/>
-      </c>
-      <c r="I26" s="53" t="str">
-        <f>IF(Rådata!J15="","",Rådata!J15)</f>
-        <v/>
-      </c>
-      <c r="J26" s="53" t="str">
-        <f>IF(Rådata!K15="","",Rådata!K15)</f>
-        <v/>
-      </c>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53" t="str">
-        <f>IF(Rådata!M15="","",Rådata!M15)</f>
-        <v/>
-      </c>
-      <c r="M26" s="53" t="str">
-        <f>IF(Rådata!N15="","",Rådata!N15)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="53" t="str">
-        <f>IF(Rådata!C16="","",Rådata!C16)</f>
-        <v/>
-      </c>
-      <c r="B27" s="53" t="str">
-        <f>IF(Rådata!B16="","",LEFT(Rådata!B16, 2))</f>
-        <v/>
-      </c>
-      <c r="C27" s="53" t="str">
-        <f>IF(Rådata!E16="","",Rådata!E16)</f>
-        <v/>
-      </c>
-      <c r="D27" s="54" t="str">
-        <f>IF(Rådata!F16="","",Rådata!F16)</f>
-        <v/>
-      </c>
-      <c r="E27" s="54"/>
-      <c r="F27" s="53" t="str">
-        <f>IF(Rådata!G16="","",Rådata!G16)</f>
-        <v/>
-      </c>
-      <c r="G27" s="53" t="str">
-        <f>IF(Rådata!H16="","",Rådata!H16)</f>
-        <v/>
-      </c>
-      <c r="H27" s="53" t="str">
-        <f>IF(Rådata!I16="","",Rådata!I16)</f>
-        <v/>
-      </c>
-      <c r="I27" s="53" t="str">
-        <f>IF(Rådata!J16="","",Rådata!J16)</f>
-        <v/>
-      </c>
-      <c r="J27" s="53" t="str">
-        <f>IF(Rådata!K16="","",Rådata!K16)</f>
-        <v/>
-      </c>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53" t="str">
-        <f>IF(Rådata!M16="","",Rådata!M16)</f>
-        <v/>
-      </c>
-      <c r="M27" s="53" t="str">
-        <f>IF(Rådata!N16="","",Rådata!N16)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="53" t="str">
-        <f>IF(Rådata!C17="","",Rådata!C17)</f>
-        <v/>
-      </c>
-      <c r="B28" s="53" t="str">
-        <f>IF(Rådata!B17="","",LEFT(Rådata!B17, 2))</f>
-        <v/>
-      </c>
-      <c r="C28" s="53" t="str">
-        <f>IF(Rådata!E17="","",Rådata!E17)</f>
-        <v/>
-      </c>
-      <c r="D28" s="54" t="str">
-        <f>IF(Rådata!F17="","",Rådata!F17)</f>
-        <v/>
-      </c>
-      <c r="E28" s="54"/>
-      <c r="F28" s="53" t="str">
-        <f>IF(Rådata!G17="","",Rådata!G17)</f>
-        <v/>
-      </c>
-      <c r="G28" s="53" t="str">
-        <f>IF(Rådata!H17="","",Rådata!H17)</f>
-        <v/>
-      </c>
-      <c r="H28" s="53" t="str">
-        <f>IF(Rådata!I17="","",Rådata!I17)</f>
-        <v/>
-      </c>
-      <c r="I28" s="53" t="str">
-        <f>IF(Rådata!J17="","",Rådata!J17)</f>
-        <v/>
-      </c>
-      <c r="J28" s="53" t="str">
-        <f>IF(Rådata!K17="","",Rådata!K17)</f>
-        <v/>
-      </c>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53" t="str">
-        <f>IF(Rådata!M17="","",Rådata!M17)</f>
-        <v/>
-      </c>
-      <c r="M28" s="53" t="str">
-        <f>IF(Rådata!N17="","",Rådata!N17)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="53" t="str">
-        <f>IF(Rådata!C18="","",Rådata!C18)</f>
-        <v/>
-      </c>
-      <c r="B29" s="53" t="str">
-        <f>IF(Rådata!B18="","",LEFT(Rådata!B18, 2))</f>
-        <v/>
-      </c>
-      <c r="C29" s="53" t="str">
-        <f>IF(Rådata!E18="","",Rådata!E18)</f>
-        <v/>
-      </c>
-      <c r="D29" s="54" t="str">
-        <f>IF(Rådata!F18="","",Rådata!F18)</f>
-        <v/>
-      </c>
-      <c r="E29" s="54"/>
-      <c r="F29" s="53" t="str">
-        <f>IF(Rådata!G18="","",Rådata!G18)</f>
-        <v/>
-      </c>
-      <c r="G29" s="53" t="str">
-        <f>IF(Rådata!H18="","",Rådata!H18)</f>
-        <v/>
-      </c>
-      <c r="H29" s="53" t="str">
-        <f>IF(Rådata!I18="","",Rådata!I18)</f>
-        <v/>
-      </c>
-      <c r="I29" s="53" t="str">
-        <f>IF(Rådata!J18="","",Rådata!J18)</f>
-        <v/>
-      </c>
-      <c r="J29" s="53" t="str">
-        <f>IF(Rådata!K18="","",Rådata!K18)</f>
-        <v/>
-      </c>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53" t="str">
-        <f>IF(Rådata!M18="","",Rådata!M18)</f>
-        <v/>
-      </c>
-      <c r="M29" s="53" t="str">
-        <f>IF(Rådata!N18="","",Rådata!N18)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="53" t="str">
-        <f>IF(Rådata!C19="","",Rådata!C19)</f>
-        <v/>
-      </c>
-      <c r="B30" s="53" t="str">
-        <f>IF(Rådata!B19="","",LEFT(Rådata!B19, 2))</f>
-        <v/>
-      </c>
-      <c r="C30" s="53" t="str">
-        <f>IF(Rådata!E19="","",Rådata!E19)</f>
-        <v/>
-      </c>
-      <c r="D30" s="54" t="str">
-        <f>IF(Rådata!F19="","",Rådata!F19)</f>
-        <v/>
-      </c>
-      <c r="E30" s="54"/>
-      <c r="F30" s="53" t="str">
-        <f>IF(Rådata!G19="","",Rådata!G19)</f>
-        <v/>
-      </c>
-      <c r="G30" s="53" t="str">
-        <f>IF(Rådata!H19="","",Rådata!H19)</f>
-        <v/>
-      </c>
-      <c r="H30" s="53" t="str">
-        <f>IF(Rådata!I19="","",Rådata!I19)</f>
-        <v/>
-      </c>
-      <c r="I30" s="53" t="str">
-        <f>IF(Rådata!J19="","",Rådata!J19)</f>
-        <v/>
-      </c>
-      <c r="J30" s="53" t="str">
-        <f>IF(Rådata!K19="","",Rådata!K19)</f>
-        <v/>
-      </c>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53" t="str">
-        <f>IF(Rådata!M19="","",Rådata!M19)</f>
-        <v/>
-      </c>
-      <c r="M30" s="53" t="str">
-        <f>IF(Rådata!N19="","",Rådata!N19)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="53" t="str">
-        <f>IF(Rådata!C20="","",Rådata!C20)</f>
-        <v/>
-      </c>
-      <c r="B31" s="53" t="str">
-        <f>IF(Rådata!B20="","",LEFT(Rådata!B20, 2))</f>
-        <v/>
-      </c>
-      <c r="C31" s="53" t="str">
-        <f>IF(Rådata!E20="","",Rådata!E20)</f>
-        <v/>
-      </c>
-      <c r="D31" s="54" t="str">
-        <f>IF(Rådata!F20="","",Rådata!F20)</f>
-        <v/>
-      </c>
-      <c r="E31" s="54"/>
-      <c r="F31" s="53" t="str">
-        <f>IF(Rådata!G20="","",Rådata!G20)</f>
-        <v/>
-      </c>
-      <c r="G31" s="53" t="str">
-        <f>IF(Rådata!H20="","",Rådata!H20)</f>
-        <v/>
-      </c>
-      <c r="H31" s="53" t="str">
-        <f>IF(Rådata!I20="","",Rådata!I20)</f>
-        <v/>
-      </c>
-      <c r="I31" s="53" t="str">
-        <f>IF(Rådata!J20="","",Rådata!J20)</f>
-        <v/>
-      </c>
-      <c r="J31" s="53" t="str">
-        <f>IF(Rådata!K20="","",Rådata!K20)</f>
-        <v/>
-      </c>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53" t="str">
-        <f>IF(Rådata!M20="","",Rådata!M20)</f>
-        <v/>
-      </c>
-      <c r="M31" s="53" t="str">
-        <f>IF(Rådata!N20="","",Rådata!N20)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="53" t="str">
-        <f>IF(Rådata!C21="","",Rådata!C21)</f>
-        <v/>
-      </c>
-      <c r="B32" s="53" t="str">
-        <f>IF(Rådata!B21="","",LEFT(Rådata!B21, 2))</f>
-        <v/>
-      </c>
-      <c r="C32" s="53" t="str">
-        <f>IF(Rådata!E21="","",Rådata!E21)</f>
-        <v/>
-      </c>
-      <c r="D32" s="54" t="str">
-        <f>IF(Rådata!F21="","",Rådata!F21)</f>
-        <v/>
-      </c>
-      <c r="E32" s="54"/>
-      <c r="F32" s="53" t="str">
-        <f>IF(Rådata!G21="","",Rådata!G21)</f>
-        <v/>
-      </c>
-      <c r="G32" s="53" t="str">
-        <f>IF(Rådata!H21="","",Rådata!H21)</f>
-        <v/>
-      </c>
-      <c r="H32" s="53" t="str">
-        <f>IF(Rådata!I21="","",Rådata!I21)</f>
-        <v/>
-      </c>
-      <c r="I32" s="53" t="str">
-        <f>IF(Rådata!J21="","",Rådata!J21)</f>
-        <v/>
-      </c>
-      <c r="J32" s="53" t="str">
-        <f>IF(Rådata!K21="","",Rådata!K21)</f>
-        <v/>
-      </c>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53" t="str">
-        <f>IF(Rådata!M21="","",Rådata!M21)</f>
-        <v/>
-      </c>
-      <c r="M32" s="53" t="str">
-        <f>IF(Rådata!N21="","",Rådata!N21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="53" t="str">
-        <f>IF(Rådata!C22="","",Rådata!C22)</f>
-        <v/>
-      </c>
-      <c r="B33" s="53" t="str">
-        <f>IF(Rådata!B22="","",LEFT(Rådata!B22, 2))</f>
-        <v/>
-      </c>
-      <c r="C33" s="53" t="str">
-        <f>IF(Rådata!E22="","",Rådata!E22)</f>
-        <v/>
-      </c>
-      <c r="D33" s="54" t="str">
-        <f>IF(Rådata!F22="","",Rådata!F22)</f>
-        <v/>
-      </c>
-      <c r="E33" s="54"/>
-      <c r="F33" s="53" t="str">
-        <f>IF(Rådata!G22="","",Rådata!G22)</f>
-        <v/>
-      </c>
-      <c r="G33" s="53" t="str">
-        <f>IF(Rådata!H22="","",Rådata!H22)</f>
-        <v/>
-      </c>
-      <c r="H33" s="53" t="str">
-        <f>IF(Rådata!I22="","",Rådata!I22)</f>
-        <v/>
-      </c>
-      <c r="I33" s="53" t="str">
-        <f>IF(Rådata!J22="","",Rådata!J22)</f>
-        <v/>
-      </c>
-      <c r="J33" s="53" t="str">
-        <f>IF(Rådata!K22="","",Rådata!K22)</f>
-        <v/>
-      </c>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53" t="str">
-        <f>IF(Rådata!M22="","",Rådata!M22)</f>
-        <v/>
-      </c>
-      <c r="M33" s="53" t="str">
-        <f>IF(Rådata!N22="","",Rådata!N22)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="53" t="str">
-        <f>IF(Rådata!C23="","",Rådata!C23)</f>
-        <v/>
-      </c>
-      <c r="B34" s="53" t="str">
-        <f>IF(Rådata!B23="","",LEFT(Rådata!B23, 2))</f>
-        <v/>
-      </c>
-      <c r="C34" s="53" t="str">
-        <f>IF(Rådata!E23="","",Rådata!E23)</f>
-        <v/>
-      </c>
-      <c r="D34" s="54" t="str">
-        <f>IF(Rådata!F23="","",Rådata!F23)</f>
-        <v/>
-      </c>
-      <c r="E34" s="54"/>
-      <c r="F34" s="53" t="str">
-        <f>IF(Rådata!G23="","",Rådata!G23)</f>
-        <v/>
-      </c>
-      <c r="G34" s="53" t="str">
-        <f>IF(Rådata!H23="","",Rådata!H23)</f>
-        <v/>
-      </c>
-      <c r="H34" s="53" t="str">
-        <f>IF(Rådata!I23="","",Rådata!I23)</f>
-        <v/>
-      </c>
-      <c r="I34" s="53" t="str">
-        <f>IF(Rådata!J23="","",Rådata!J23)</f>
-        <v/>
-      </c>
-      <c r="J34" s="53" t="str">
-        <f>IF(Rådata!K23="","",Rådata!K23)</f>
-        <v/>
-      </c>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53" t="str">
-        <f>IF(Rådata!M23="","",Rådata!M23)</f>
-        <v/>
-      </c>
-      <c r="M34" s="53" t="str">
-        <f>IF(Rådata!N23="","",Rådata!N23)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="53" t="str">
-        <f>IF(Rådata!C24="","",Rådata!C24)</f>
-        <v/>
-      </c>
-      <c r="B35" s="53" t="str">
-        <f>IF(Rådata!B24="","",LEFT(Rådata!B24, 2))</f>
-        <v/>
-      </c>
-      <c r="C35" s="53" t="str">
-        <f>IF(Rådata!E24="","",Rådata!E24)</f>
-        <v/>
-      </c>
-      <c r="D35" s="54" t="str">
-        <f>IF(Rådata!F24="","",Rådata!F24)</f>
-        <v/>
-      </c>
-      <c r="E35" s="54"/>
-      <c r="F35" s="53" t="str">
-        <f>IF(Rådata!G24="","",Rådata!G24)</f>
-        <v/>
-      </c>
-      <c r="G35" s="53" t="str">
-        <f>IF(Rådata!H24="","",Rådata!H24)</f>
-        <v/>
-      </c>
-      <c r="H35" s="53" t="str">
-        <f>IF(Rådata!I24="","",Rådata!I24)</f>
-        <v/>
-      </c>
-      <c r="I35" s="53" t="str">
-        <f>IF(Rådata!J24="","",Rådata!J24)</f>
-        <v/>
-      </c>
-      <c r="J35" s="53" t="str">
-        <f>IF(Rådata!K24="","",Rådata!K24)</f>
-        <v/>
-      </c>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53" t="str">
-        <f>IF(Rådata!M24="","",Rådata!M24)</f>
-        <v/>
-      </c>
-      <c r="M35" s="53" t="str">
-        <f>IF(Rådata!N24="","",Rådata!N24)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="53" t="str">
-        <f>IF(Rådata!C25="","",Rådata!C25)</f>
-        <v/>
-      </c>
-      <c r="B36" s="53" t="str">
-        <f>IF(Rådata!B25="","",LEFT(Rådata!B25, 2))</f>
-        <v/>
-      </c>
-      <c r="C36" s="53" t="str">
-        <f>IF(Rådata!E25="","",Rådata!E25)</f>
-        <v/>
-      </c>
-      <c r="D36" s="54" t="str">
-        <f>IF(Rådata!F25="","",Rådata!F25)</f>
-        <v/>
-      </c>
-      <c r="E36" s="54"/>
-      <c r="F36" s="53" t="str">
-        <f>IF(Rådata!G25="","",Rådata!G25)</f>
-        <v/>
-      </c>
-      <c r="G36" s="53" t="str">
-        <f>IF(Rådata!H25="","",Rådata!H25)</f>
-        <v/>
-      </c>
-      <c r="H36" s="53" t="str">
-        <f>IF(Rådata!I25="","",Rådata!I25)</f>
-        <v/>
-      </c>
-      <c r="I36" s="53" t="str">
-        <f>IF(Rådata!J25="","",Rådata!J25)</f>
-        <v/>
-      </c>
-      <c r="J36" s="53" t="str">
-        <f>IF(Rådata!K25="","",Rådata!K25)</f>
-        <v/>
-      </c>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53" t="str">
-        <f>IF(Rådata!M25="","",Rådata!M25)</f>
-        <v/>
-      </c>
-      <c r="M36" s="53" t="str">
-        <f>IF(Rådata!N25="","",Rådata!N25)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="53" t="str">
-        <f>IF(Rådata!C26="","",Rådata!C26)</f>
-        <v/>
-      </c>
-      <c r="B37" s="53" t="str">
-        <f>IF(Rådata!B26="","",LEFT(Rådata!B26, 2))</f>
-        <v/>
-      </c>
-      <c r="C37" s="53" t="str">
-        <f>IF(Rådata!E26="","",Rådata!E26)</f>
-        <v/>
-      </c>
-      <c r="D37" s="54" t="str">
-        <f>IF(Rådata!F26="","",Rådata!F26)</f>
-        <v/>
-      </c>
-      <c r="E37" s="54"/>
-      <c r="F37" s="53" t="str">
-        <f>IF(Rådata!G26="","",Rådata!G26)</f>
-        <v/>
-      </c>
-      <c r="G37" s="53" t="str">
-        <f>IF(Rådata!H26="","",Rådata!H26)</f>
-        <v/>
-      </c>
-      <c r="H37" s="53" t="str">
-        <f>IF(Rådata!I26="","",Rådata!I26)</f>
-        <v/>
-      </c>
-      <c r="I37" s="53" t="str">
-        <f>IF(Rådata!J26="","",Rådata!J26)</f>
-        <v/>
-      </c>
-      <c r="J37" s="53" t="str">
-        <f>IF(Rådata!K26="","",Rådata!K26)</f>
-        <v/>
-      </c>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53" t="str">
-        <f>IF(Rådata!M26="","",Rådata!M26)</f>
-        <v/>
-      </c>
-      <c r="M37" s="53" t="str">
-        <f>IF(Rådata!N26="","",Rådata!N26)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="53" t="str">
-        <f>IF(Rådata!C27="","",Rådata!C27)</f>
-        <v/>
-      </c>
-      <c r="B38" s="53" t="str">
-        <f>IF(Rådata!B27="","",LEFT(Rådata!B27, 2))</f>
-        <v/>
-      </c>
-      <c r="C38" s="53" t="str">
-        <f>IF(Rådata!E27="","",Rådata!E27)</f>
-        <v/>
-      </c>
-      <c r="D38" s="54" t="str">
-        <f>IF(Rådata!F27="","",Rådata!F27)</f>
-        <v/>
-      </c>
-      <c r="E38" s="54"/>
-      <c r="F38" s="53" t="str">
-        <f>IF(Rådata!G27="","",Rådata!G27)</f>
-        <v/>
-      </c>
-      <c r="G38" s="53" t="str">
-        <f>IF(Rådata!H27="","",Rådata!H27)</f>
-        <v/>
-      </c>
-      <c r="H38" s="53" t="str">
-        <f>IF(Rådata!I27="","",Rådata!I27)</f>
-        <v/>
-      </c>
-      <c r="I38" s="53" t="str">
-        <f>IF(Rådata!J27="","",Rådata!J27)</f>
-        <v/>
-      </c>
-      <c r="J38" s="53" t="str">
-        <f>IF(Rådata!K27="","",Rådata!K27)</f>
-        <v/>
-      </c>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53" t="str">
-        <f>IF(Rådata!M27="","",Rådata!M27)</f>
-        <v/>
-      </c>
-      <c r="M38" s="53" t="str">
-        <f>IF(Rådata!N27="","",Rådata!N27)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="53" t="str">
-        <f>IF(Rådata!C28="","",Rådata!C28)</f>
-        <v/>
-      </c>
-      <c r="B39" s="53" t="str">
-        <f>IF(Rådata!B28="","",LEFT(Rådata!B28, 2))</f>
-        <v/>
-      </c>
-      <c r="C39" s="53" t="str">
-        <f>IF(Rådata!E28="","",Rådata!E28)</f>
-        <v/>
-      </c>
-      <c r="D39" s="54" t="str">
-        <f>IF(Rådata!F28="","",Rådata!F28)</f>
-        <v/>
-      </c>
-      <c r="E39" s="54"/>
-      <c r="F39" s="53" t="str">
-        <f>IF(Rådata!G28="","",Rådata!G28)</f>
-        <v/>
-      </c>
-      <c r="G39" s="53" t="str">
-        <f>IF(Rådata!H28="","",Rådata!H28)</f>
-        <v/>
-      </c>
-      <c r="H39" s="53" t="str">
-        <f>IF(Rådata!I28="","",Rådata!I28)</f>
-        <v/>
-      </c>
-      <c r="I39" s="53" t="str">
-        <f>IF(Rådata!J28="","",Rådata!J28)</f>
-        <v/>
-      </c>
-      <c r="J39" s="53" t="str">
-        <f>IF(Rådata!K28="","",Rådata!K28)</f>
-        <v/>
-      </c>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53" t="str">
-        <f>IF(Rådata!M28="","",Rådata!M28)</f>
-        <v/>
-      </c>
-      <c r="M39" s="53" t="str">
-        <f>IF(Rådata!N28="","",Rådata!N28)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="53" t="str">
-        <f>IF(Rådata!C29="","",Rådata!C29)</f>
-        <v/>
-      </c>
-      <c r="B40" s="53" t="str">
-        <f>IF(Rådata!B29="","",LEFT(Rådata!B29, 2))</f>
-        <v/>
-      </c>
-      <c r="C40" s="53" t="str">
-        <f>IF(Rådata!E29="","",Rådata!E29)</f>
-        <v/>
-      </c>
-      <c r="D40" s="54" t="str">
-        <f>IF(Rådata!F29="","",Rådata!F29)</f>
-        <v/>
-      </c>
-      <c r="E40" s="54"/>
-      <c r="F40" s="53" t="str">
-        <f>IF(Rådata!G29="","",Rådata!G29)</f>
-        <v/>
-      </c>
-      <c r="G40" s="53" t="str">
-        <f>IF(Rådata!H29="","",Rådata!H29)</f>
-        <v/>
-      </c>
-      <c r="H40" s="53" t="str">
-        <f>IF(Rådata!I29="","",Rådata!I29)</f>
-        <v/>
-      </c>
-      <c r="I40" s="53" t="str">
-        <f>IF(Rådata!J29="","",Rådata!J29)</f>
-        <v/>
-      </c>
-      <c r="J40" s="53" t="str">
-        <f>IF(Rådata!K29="","",Rådata!K29)</f>
-        <v/>
-      </c>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53" t="str">
-        <f>IF(Rådata!M29="","",Rådata!M29)</f>
-        <v/>
-      </c>
-      <c r="M40" s="53" t="str">
-        <f>IF(Rådata!N29="","",Rådata!N29)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="53" t="str">
-        <f>IF(Rådata!C30="","",Rådata!C30)</f>
-        <v/>
-      </c>
-      <c r="B41" s="53" t="str">
-        <f>IF(Rådata!B30="","",LEFT(Rådata!B30, 2))</f>
-        <v/>
-      </c>
-      <c r="C41" s="53" t="str">
-        <f>IF(Rådata!E30="","",Rådata!E30)</f>
-        <v/>
-      </c>
-      <c r="D41" s="54" t="str">
-        <f>IF(Rådata!F30="","",Rådata!F30)</f>
-        <v/>
-      </c>
-      <c r="E41" s="54"/>
-      <c r="F41" s="53" t="str">
-        <f>IF(Rådata!G30="","",Rådata!G30)</f>
-        <v/>
-      </c>
-      <c r="G41" s="53" t="str">
-        <f>IF(Rådata!H30="","",Rådata!H30)</f>
-        <v/>
-      </c>
-      <c r="H41" s="53" t="str">
-        <f>IF(Rådata!I30="","",Rådata!I30)</f>
-        <v/>
-      </c>
-      <c r="I41" s="53" t="str">
-        <f>IF(Rådata!J30="","",Rådata!J30)</f>
-        <v/>
-      </c>
-      <c r="J41" s="53" t="str">
-        <f>IF(Rådata!K30="","",Rådata!K30)</f>
-        <v/>
-      </c>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53" t="str">
-        <f>IF(Rådata!M30="","",Rådata!M30)</f>
-        <v/>
-      </c>
-      <c r="M41" s="53" t="str">
-        <f>IF(Rådata!N30="","",Rådata!N30)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="53" t="str">
-        <f>IF(Rådata!C31="","",Rådata!C31)</f>
-        <v/>
-      </c>
-      <c r="B42" s="53" t="str">
-        <f>IF(Rådata!B31="","",LEFT(Rådata!B31, 2))</f>
-        <v/>
-      </c>
-      <c r="C42" s="53" t="str">
-        <f>IF(Rådata!E31="","",Rådata!E31)</f>
-        <v/>
-      </c>
-      <c r="D42" s="54" t="str">
-        <f>IF(Rådata!F31="","",Rådata!F31)</f>
-        <v/>
-      </c>
-      <c r="E42" s="54"/>
-      <c r="F42" s="53" t="str">
-        <f>IF(Rådata!G31="","",Rådata!G31)</f>
-        <v/>
-      </c>
-      <c r="G42" s="53" t="str">
-        <f>IF(Rådata!H31="","",Rådata!H31)</f>
-        <v/>
-      </c>
-      <c r="H42" s="53" t="str">
-        <f>IF(Rådata!I31="","",Rådata!I31)</f>
-        <v/>
-      </c>
-      <c r="I42" s="53" t="str">
-        <f>IF(Rådata!J31="","",Rådata!J31)</f>
-        <v/>
-      </c>
-      <c r="J42" s="53" t="str">
-        <f>IF(Rådata!K31="","",Rådata!K31)</f>
-        <v/>
-      </c>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53" t="str">
-        <f>IF(Rådata!M31="","",Rådata!M31)</f>
-        <v/>
-      </c>
-      <c r="M42" s="53" t="str">
-        <f>IF(Rådata!N31="","",Rådata!N31)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="53" t="str">
-        <f>IF(Rådata!C32="","",Rådata!C32)</f>
-        <v/>
-      </c>
-      <c r="B43" s="53" t="str">
-        <f>IF(Rådata!B32="","",LEFT(Rådata!B32, 2))</f>
-        <v/>
-      </c>
-      <c r="C43" s="53" t="str">
-        <f>IF(Rådata!E32="","",Rådata!E32)</f>
-        <v/>
-      </c>
-      <c r="D43" s="54" t="str">
-        <f>IF(Rådata!F32="","",Rådata!F32)</f>
-        <v/>
-      </c>
-      <c r="E43" s="54"/>
-      <c r="F43" s="53" t="str">
-        <f>IF(Rådata!G32="","",Rådata!G32)</f>
-        <v/>
-      </c>
-      <c r="G43" s="53" t="str">
-        <f>IF(Rådata!H32="","",Rådata!H32)</f>
-        <v/>
-      </c>
-      <c r="H43" s="53" t="str">
-        <f>IF(Rådata!I32="","",Rådata!I32)</f>
-        <v/>
-      </c>
-      <c r="I43" s="53" t="str">
-        <f>IF(Rådata!J32="","",Rådata!J32)</f>
-        <v/>
-      </c>
-      <c r="J43" s="53" t="str">
-        <f>IF(Rådata!K32="","",Rådata!K32)</f>
-        <v/>
-      </c>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53" t="str">
-        <f>IF(Rådata!M32="","",Rådata!M32)</f>
-        <v/>
-      </c>
-      <c r="M43" s="53" t="str">
-        <f>IF(Rådata!N32="","",Rådata!N32)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="53" t="str">
-        <f>IF(Rådata!C33="","",Rådata!C33)</f>
-        <v/>
-      </c>
-      <c r="B44" s="53" t="str">
-        <f>IF(Rådata!B33="","",LEFT(Rådata!B33, 2))</f>
-        <v/>
-      </c>
-      <c r="C44" s="53" t="str">
-        <f>IF(Rådata!E33="","",Rådata!E33)</f>
-        <v/>
-      </c>
-      <c r="D44" s="54" t="str">
-        <f>IF(Rådata!F33="","",Rådata!F33)</f>
-        <v/>
-      </c>
-      <c r="E44" s="54"/>
-      <c r="F44" s="53" t="str">
-        <f>IF(Rådata!G33="","",Rådata!G33)</f>
-        <v/>
-      </c>
-      <c r="G44" s="53" t="str">
-        <f>IF(Rådata!H33="","",Rådata!H33)</f>
-        <v/>
-      </c>
-      <c r="H44" s="53" t="str">
-        <f>IF(Rådata!I33="","",Rådata!I33)</f>
-        <v/>
-      </c>
-      <c r="I44" s="53" t="str">
-        <f>IF(Rådata!J33="","",Rådata!J33)</f>
-        <v/>
-      </c>
-      <c r="J44" s="53" t="str">
-        <f>IF(Rådata!K33="","",Rådata!K33)</f>
-        <v/>
-      </c>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53" t="str">
-        <f>IF(Rådata!M33="","",Rådata!M33)</f>
-        <v/>
-      </c>
-      <c r="M44" s="53" t="str">
-        <f>IF(Rådata!N33="","",Rådata!N33)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="53" t="str">
-        <f>IF(Rådata!C34="","",Rådata!C34)</f>
-        <v/>
-      </c>
-      <c r="B45" s="53" t="str">
-        <f>IF(Rådata!B34="","",LEFT(Rådata!B34, 2))</f>
-        <v/>
-      </c>
-      <c r="C45" s="53" t="str">
-        <f>IF(Rådata!E34="","",Rådata!E34)</f>
-        <v/>
-      </c>
-      <c r="D45" s="54" t="str">
-        <f>IF(Rådata!F34="","",Rådata!F34)</f>
-        <v/>
-      </c>
-      <c r="E45" s="54"/>
-      <c r="F45" s="53" t="str">
-        <f>IF(Rådata!G34="","",Rådata!G34)</f>
-        <v/>
-      </c>
-      <c r="G45" s="53" t="str">
-        <f>IF(Rådata!H34="","",Rådata!H34)</f>
-        <v/>
-      </c>
-      <c r="H45" s="53" t="str">
-        <f>IF(Rådata!I34="","",Rådata!I34)</f>
-        <v/>
-      </c>
-      <c r="I45" s="53" t="str">
-        <f>IF(Rådata!J34="","",Rådata!J34)</f>
-        <v/>
-      </c>
-      <c r="J45" s="53" t="str">
-        <f>IF(Rådata!K34="","",Rådata!K34)</f>
-        <v/>
-      </c>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53" t="str">
-        <f>IF(Rådata!M34="","",Rådata!M34)</f>
-        <v/>
-      </c>
-      <c r="M45" s="53" t="str">
-        <f>IF(Rådata!N34="","",Rådata!N34)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="53" t="str">
-        <f>IF(Rådata!C35="","",Rådata!C35)</f>
-        <v/>
-      </c>
-      <c r="B46" s="53" t="str">
-        <f>IF(Rådata!B35="","",LEFT(Rådata!B35, 2))</f>
-        <v/>
-      </c>
-      <c r="C46" s="53" t="str">
-        <f>IF(Rådata!E35="","",Rådata!E35)</f>
-        <v/>
-      </c>
-      <c r="D46" s="54" t="str">
-        <f>IF(Rådata!F35="","",Rådata!F35)</f>
-        <v/>
-      </c>
-      <c r="E46" s="54"/>
-      <c r="F46" s="53" t="str">
-        <f>IF(Rådata!G35="","",Rådata!G35)</f>
-        <v/>
-      </c>
-      <c r="G46" s="53" t="str">
-        <f>IF(Rådata!H35="","",Rådata!H35)</f>
-        <v/>
-      </c>
-      <c r="H46" s="53" t="str">
-        <f>IF(Rådata!I35="","",Rådata!I35)</f>
-        <v/>
-      </c>
-      <c r="I46" s="53" t="str">
-        <f>IF(Rådata!J35="","",Rådata!J35)</f>
-        <v/>
-      </c>
-      <c r="J46" s="53" t="str">
-        <f>IF(Rådata!K35="","",Rådata!K35)</f>
-        <v/>
-      </c>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53" t="str">
-        <f>IF(Rådata!M35="","",Rådata!M35)</f>
-        <v/>
-      </c>
-      <c r="M46" s="53" t="str">
-        <f>IF(Rådata!N35="","",Rådata!N35)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="53" t="str">
-        <f>IF(Rådata!C36="","",Rådata!C36)</f>
-        <v/>
-      </c>
-      <c r="B47" s="53" t="str">
-        <f>IF(Rådata!B36="","",LEFT(Rådata!B36, 2))</f>
-        <v/>
-      </c>
-      <c r="C47" s="53" t="str">
-        <f>IF(Rådata!E36="","",Rådata!E36)</f>
-        <v/>
-      </c>
-      <c r="D47" s="54" t="str">
-        <f>IF(Rådata!F36="","",Rådata!F36)</f>
-        <v/>
-      </c>
-      <c r="E47" s="54"/>
-      <c r="F47" s="53" t="str">
-        <f>IF(Rådata!G36="","",Rådata!G36)</f>
-        <v/>
-      </c>
-      <c r="G47" s="53" t="str">
-        <f>IF(Rådata!H36="","",Rådata!H36)</f>
-        <v/>
-      </c>
-      <c r="H47" s="53" t="str">
-        <f>IF(Rådata!I36="","",Rådata!I36)</f>
-        <v/>
-      </c>
-      <c r="I47" s="53" t="str">
-        <f>IF(Rådata!J36="","",Rådata!J36)</f>
-        <v/>
-      </c>
-      <c r="J47" s="53" t="str">
-        <f>IF(Rådata!K36="","",Rådata!K36)</f>
-        <v/>
-      </c>
-      <c r="K47" s="53"/>
-      <c r="L47" s="53" t="str">
-        <f>IF(Rådata!M36="","",Rådata!M36)</f>
-        <v/>
-      </c>
-      <c r="M47" s="53" t="str">
-        <f>IF(Rådata!N36="","",Rådata!N36)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="53" t="str">
-        <f>IF(Rådata!C37="","",Rådata!C37)</f>
-        <v/>
-      </c>
-      <c r="B48" s="53" t="str">
-        <f>IF(Rådata!B37="","",LEFT(Rådata!B37, 2))</f>
-        <v/>
-      </c>
-      <c r="C48" s="53" t="str">
-        <f>IF(Rådata!E37="","",Rådata!E37)</f>
-        <v/>
-      </c>
-      <c r="D48" s="54" t="str">
-        <f>IF(Rådata!F37="","",Rådata!F37)</f>
-        <v/>
-      </c>
-      <c r="E48" s="54"/>
-      <c r="F48" s="53" t="str">
-        <f>IF(Rådata!G37="","",Rådata!G37)</f>
-        <v/>
-      </c>
-      <c r="G48" s="53" t="str">
-        <f>IF(Rådata!H37="","",Rådata!H37)</f>
-        <v/>
-      </c>
-      <c r="H48" s="53" t="str">
-        <f>IF(Rådata!I37="","",Rådata!I37)</f>
-        <v/>
-      </c>
-      <c r="I48" s="53" t="str">
-        <f>IF(Rådata!J37="","",Rådata!J37)</f>
-        <v/>
-      </c>
-      <c r="J48" s="53" t="str">
-        <f>IF(Rådata!K37="","",Rådata!K37)</f>
-        <v/>
-      </c>
-      <c r="K48" s="53"/>
-      <c r="L48" s="53" t="str">
-        <f>IF(Rådata!M37="","",Rådata!M37)</f>
-        <v/>
-      </c>
-      <c r="M48" s="53" t="str">
-        <f>IF(Rådata!N37="","",Rådata!N37)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="53" t="str">
-        <f>IF(Rådata!C38="","",Rådata!C38)</f>
-        <v/>
-      </c>
-      <c r="B49" s="53" t="str">
-        <f>IF(Rådata!B38="","",LEFT(Rådata!B38, 2))</f>
-        <v/>
-      </c>
-      <c r="C49" s="53" t="str">
-        <f>IF(Rådata!E38="","",Rådata!E38)</f>
-        <v/>
-      </c>
-      <c r="D49" s="54" t="str">
-        <f>IF(Rådata!F38="","",Rådata!F38)</f>
-        <v/>
-      </c>
-      <c r="E49" s="54"/>
-      <c r="F49" s="53" t="str">
-        <f>IF(Rådata!G38="","",Rådata!G38)</f>
-        <v/>
-      </c>
-      <c r="G49" s="53" t="str">
-        <f>IF(Rådata!H38="","",Rådata!H38)</f>
-        <v/>
-      </c>
-      <c r="H49" s="53" t="str">
-        <f>IF(Rådata!I38="","",Rådata!I38)</f>
-        <v/>
-      </c>
-      <c r="I49" s="53" t="str">
-        <f>IF(Rådata!J38="","",Rådata!J38)</f>
-        <v/>
-      </c>
-      <c r="J49" s="53" t="str">
-        <f>IF(Rådata!K38="","",Rådata!K38)</f>
-        <v/>
-      </c>
-      <c r="K49" s="53"/>
-      <c r="L49" s="53" t="str">
-        <f>IF(Rådata!M38="","",Rådata!M38)</f>
-        <v/>
-      </c>
-      <c r="M49" s="53" t="str">
-        <f>IF(Rådata!N38="","",Rådata!N38)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="53" t="str">
-        <f>IF(Rådata!C39="","",Rådata!C39)</f>
-        <v/>
-      </c>
-      <c r="B50" s="53" t="str">
-        <f>IF(Rådata!B39="","",LEFT(Rådata!B39, 2))</f>
-        <v/>
-      </c>
-      <c r="C50" s="53" t="str">
-        <f>IF(Rådata!E39="","",Rådata!E39)</f>
-        <v/>
-      </c>
-      <c r="D50" s="54" t="str">
-        <f>IF(Rådata!F39="","",Rådata!F39)</f>
-        <v/>
-      </c>
-      <c r="E50" s="54"/>
-      <c r="F50" s="53" t="str">
-        <f>IF(Rådata!G39="","",Rådata!G39)</f>
-        <v/>
-      </c>
-      <c r="G50" s="53" t="str">
-        <f>IF(Rådata!H39="","",Rådata!H39)</f>
-        <v/>
-      </c>
-      <c r="H50" s="53" t="str">
-        <f>IF(Rådata!I39="","",Rådata!I39)</f>
-        <v/>
-      </c>
-      <c r="I50" s="53" t="str">
-        <f>IF(Rådata!J39="","",Rådata!J39)</f>
-        <v/>
-      </c>
-      <c r="J50" s="53" t="str">
-        <f>IF(Rådata!K39="","",Rådata!K39)</f>
-        <v/>
-      </c>
-      <c r="K50" s="53"/>
-      <c r="L50" s="53" t="str">
-        <f>IF(Rådata!M39="","",Rådata!M39)</f>
-        <v/>
-      </c>
-      <c r="M50" s="53" t="str">
-        <f>IF(Rådata!N39="","",Rådata!N39)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="53" t="str">
-        <f>IF(Rådata!C40="","",Rådata!C40)</f>
-        <v/>
-      </c>
-      <c r="B51" s="53" t="str">
-        <f>IF(Rådata!B40="","",LEFT(Rådata!B40, 2))</f>
-        <v/>
-      </c>
-      <c r="C51" s="53" t="str">
-        <f>IF(Rådata!E40="","",Rådata!E40)</f>
-        <v/>
-      </c>
-      <c r="D51" s="54" t="str">
-        <f>IF(Rådata!F40="","",Rådata!F40)</f>
-        <v/>
-      </c>
-      <c r="E51" s="54"/>
-      <c r="F51" s="53" t="str">
-        <f>IF(Rådata!G40="","",Rådata!G40)</f>
-        <v/>
-      </c>
-      <c r="G51" s="53" t="str">
-        <f>IF(Rådata!H40="","",Rådata!H40)</f>
-        <v/>
-      </c>
-      <c r="H51" s="53" t="str">
-        <f>IF(Rådata!I40="","",Rådata!I40)</f>
-        <v/>
-      </c>
-      <c r="I51" s="53" t="str">
-        <f>IF(Rådata!J40="","",Rådata!J40)</f>
-        <v/>
-      </c>
-      <c r="J51" s="53" t="str">
-        <f>IF(Rådata!K40="","",Rådata!K40)</f>
-        <v/>
-      </c>
-      <c r="K51" s="53"/>
-      <c r="L51" s="53" t="str">
-        <f>IF(Rådata!M40="","",Rådata!M40)</f>
-        <v/>
-      </c>
-      <c r="M51" s="53" t="str">
-        <f>IF(Rådata!N40="","",Rådata!N40)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="53" t="str">
-        <f>IF(Rådata!C41="","",Rådata!C41)</f>
-        <v/>
-      </c>
-      <c r="B52" s="53" t="str">
-        <f>IF(Rådata!B41="","",LEFT(Rådata!B41, 2))</f>
-        <v/>
-      </c>
-      <c r="C52" s="53" t="str">
-        <f>IF(Rådata!E41="","",Rådata!E41)</f>
-        <v/>
-      </c>
-      <c r="D52" s="54" t="str">
-        <f>IF(Rådata!F41="","",Rådata!F41)</f>
-        <v/>
-      </c>
-      <c r="E52" s="54"/>
-      <c r="F52" s="53" t="str">
-        <f>IF(Rådata!G41="","",Rådata!G41)</f>
-        <v/>
-      </c>
-      <c r="G52" s="53" t="str">
-        <f>IF(Rådata!H41="","",Rådata!H41)</f>
-        <v/>
-      </c>
-      <c r="H52" s="53" t="str">
-        <f>IF(Rådata!I41="","",Rådata!I41)</f>
-        <v/>
-      </c>
-      <c r="I52" s="53" t="str">
-        <f>IF(Rådata!J41="","",Rådata!J41)</f>
-        <v/>
-      </c>
-      <c r="J52" s="53" t="str">
-        <f>IF(Rådata!K41="","",Rådata!K41)</f>
-        <v/>
-      </c>
-      <c r="K52" s="53"/>
-      <c r="L52" s="53" t="str">
-        <f>IF(Rådata!M41="","",Rådata!M41)</f>
-        <v/>
-      </c>
-      <c r="M52" s="53" t="str">
-        <f>IF(Rådata!N41="","",Rådata!N41)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="53" t="str">
-        <f>IF(Rådata!C42="","",Rådata!C42)</f>
-        <v/>
-      </c>
-      <c r="B53" s="53" t="str">
-        <f>IF(Rådata!B42="","",LEFT(Rådata!B42, 2))</f>
-        <v/>
-      </c>
-      <c r="C53" s="53" t="str">
-        <f>IF(Rådata!E42="","",Rådata!E42)</f>
-        <v/>
-      </c>
-      <c r="D53" s="54" t="str">
-        <f>IF(Rådata!F42="","",Rådata!F42)</f>
-        <v/>
-      </c>
-      <c r="E53" s="54"/>
-      <c r="F53" s="53" t="str">
-        <f>IF(Rådata!G42="","",Rådata!G42)</f>
-        <v/>
-      </c>
-      <c r="G53" s="53" t="str">
-        <f>IF(Rådata!H42="","",Rådata!H42)</f>
-        <v/>
-      </c>
-      <c r="H53" s="53" t="str">
-        <f>IF(Rådata!I42="","",Rådata!I42)</f>
-        <v/>
-      </c>
-      <c r="I53" s="53" t="str">
-        <f>IF(Rådata!J42="","",Rådata!J42)</f>
-        <v/>
-      </c>
-      <c r="J53" s="53" t="str">
-        <f>IF(Rådata!K42="","",Rådata!K42)</f>
-        <v/>
-      </c>
-      <c r="K53" s="53"/>
-      <c r="L53" s="53" t="str">
-        <f>IF(Rådata!M42="","",Rådata!M42)</f>
-        <v/>
-      </c>
-      <c r="M53" s="53" t="str">
-        <f>IF(Rådata!N42="","",Rådata!N42)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="53" t="str">
-        <f>IF(Rådata!C43="","",Rådata!C43)</f>
-        <v/>
-      </c>
-      <c r="B54" s="53" t="str">
-        <f>IF(Rådata!B43="","",LEFT(Rådata!B43, 2))</f>
-        <v/>
-      </c>
-      <c r="C54" s="53" t="str">
-        <f>IF(Rådata!E43="","",Rådata!E43)</f>
-        <v/>
-      </c>
-      <c r="D54" s="54" t="str">
-        <f>IF(Rådata!F43="","",Rådata!F43)</f>
-        <v/>
-      </c>
-      <c r="E54" s="54"/>
-      <c r="F54" s="53" t="str">
-        <f>IF(Rådata!G43="","",Rådata!G43)</f>
-        <v/>
-      </c>
-      <c r="G54" s="53" t="str">
-        <f>IF(Rådata!H43="","",Rådata!H43)</f>
-        <v/>
-      </c>
-      <c r="H54" s="53" t="str">
-        <f>IF(Rådata!I43="","",Rådata!I43)</f>
-        <v/>
-      </c>
-      <c r="I54" s="53" t="str">
-        <f>IF(Rådata!J43="","",Rådata!J43)</f>
-        <v/>
-      </c>
-      <c r="J54" s="53" t="str">
-        <f>IF(Rådata!K43="","",Rådata!K43)</f>
-        <v/>
-      </c>
-      <c r="K54" s="53"/>
-      <c r="L54" s="53" t="str">
-        <f>IF(Rådata!M43="","",Rådata!M43)</f>
-        <v/>
-      </c>
-      <c r="M54" s="53" t="str">
-        <f>IF(Rådata!N43="","",Rådata!N43)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="53" t="str">
-        <f>IF(Rådata!C44="","",Rådata!C44)</f>
-        <v/>
-      </c>
-      <c r="B55" s="53" t="str">
-        <f>IF(Rådata!B44="","",LEFT(Rådata!B44, 2))</f>
-        <v/>
-      </c>
-      <c r="C55" s="53" t="str">
-        <f>IF(Rådata!E44="","",Rådata!E44)</f>
-        <v/>
-      </c>
-      <c r="D55" s="54" t="str">
-        <f>IF(Rådata!F44="","",Rådata!F44)</f>
-        <v/>
-      </c>
-      <c r="E55" s="54"/>
-      <c r="F55" s="53" t="str">
-        <f>IF(Rådata!G44="","",Rådata!G44)</f>
-        <v/>
-      </c>
-      <c r="G55" s="53" t="str">
-        <f>IF(Rådata!H44="","",Rådata!H44)</f>
-        <v/>
-      </c>
-      <c r="H55" s="53" t="str">
-        <f>IF(Rådata!I44="","",Rådata!I44)</f>
-        <v/>
-      </c>
-      <c r="I55" s="53" t="str">
-        <f>IF(Rådata!J44="","",Rådata!J44)</f>
-        <v/>
-      </c>
-      <c r="J55" s="53" t="str">
-        <f>IF(Rådata!K44="","",Rådata!K44)</f>
-        <v/>
-      </c>
-      <c r="K55" s="53"/>
-      <c r="L55" s="53" t="str">
-        <f>IF(Rådata!M44="","",Rådata!M44)</f>
-        <v/>
-      </c>
-      <c r="M55" s="53" t="str">
-        <f>IF(Rådata!N44="","",Rådata!N44)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="53" t="str">
-        <f>IF(Rådata!C45="","",Rådata!C45)</f>
-        <v/>
-      </c>
-      <c r="B56" s="53" t="str">
-        <f>IF(Rådata!B45="","",LEFT(Rådata!B45, 2))</f>
-        <v/>
-      </c>
-      <c r="C56" s="53" t="str">
-        <f>IF(Rådata!E45="","",Rådata!E45)</f>
-        <v/>
-      </c>
-      <c r="D56" s="54" t="str">
-        <f>IF(Rådata!F45="","",Rådata!F45)</f>
-        <v/>
-      </c>
-      <c r="E56" s="54"/>
-      <c r="F56" s="53" t="str">
-        <f>IF(Rådata!G45="","",Rådata!G45)</f>
-        <v/>
-      </c>
-      <c r="G56" s="53" t="str">
-        <f>IF(Rådata!H45="","",Rådata!H45)</f>
-        <v/>
-      </c>
-      <c r="H56" s="53" t="str">
-        <f>IF(Rådata!I45="","",Rådata!I45)</f>
-        <v/>
-      </c>
-      <c r="I56" s="53" t="str">
-        <f>IF(Rådata!J45="","",Rådata!J45)</f>
-        <v/>
-      </c>
-      <c r="J56" s="53" t="str">
-        <f>IF(Rådata!K45="","",Rådata!K45)</f>
-        <v/>
-      </c>
-      <c r="K56" s="53"/>
-      <c r="L56" s="53" t="str">
-        <f>IF(Rådata!M45="","",Rådata!M45)</f>
-        <v/>
-      </c>
-      <c r="M56" s="53" t="str">
-        <f>IF(Rådata!N45="","",Rådata!N45)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="53" t="str">
-        <f>IF(Rådata!C46="","",Rådata!C46)</f>
-        <v/>
-      </c>
-      <c r="B57" s="53" t="str">
-        <f>IF(Rådata!B46="","",LEFT(Rådata!B46, 2))</f>
-        <v/>
-      </c>
-      <c r="C57" s="53" t="str">
-        <f>IF(Rådata!E46="","",Rådata!E46)</f>
-        <v/>
-      </c>
-      <c r="D57" s="54" t="str">
-        <f>IF(Rådata!F46="","",Rådata!F46)</f>
-        <v/>
-      </c>
-      <c r="E57" s="54"/>
-      <c r="F57" s="53" t="str">
-        <f>IF(Rådata!G46="","",Rådata!G46)</f>
-        <v/>
-      </c>
-      <c r="G57" s="53" t="str">
-        <f>IF(Rådata!H46="","",Rådata!H46)</f>
-        <v/>
-      </c>
-      <c r="H57" s="53" t="str">
-        <f>IF(Rådata!I46="","",Rådata!I46)</f>
-        <v/>
-      </c>
-      <c r="I57" s="53" t="str">
-        <f>IF(Rådata!J46="","",Rådata!J46)</f>
-        <v/>
-      </c>
-      <c r="J57" s="53" t="str">
-        <f>IF(Rådata!K46="","",Rådata!K46)</f>
-        <v/>
-      </c>
-      <c r="K57" s="53"/>
-      <c r="L57" s="53" t="str">
-        <f>IF(Rådata!M46="","",Rådata!M46)</f>
-        <v/>
-      </c>
-      <c r="M57" s="53" t="str">
-        <f>IF(Rådata!N46="","",Rådata!N46)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="53" t="str">
-        <f>IF(Rådata!C47="","",Rådata!C47)</f>
-        <v/>
-      </c>
-      <c r="B58" s="53" t="str">
-        <f>IF(Rådata!B47="","",LEFT(Rådata!B47, 2))</f>
-        <v/>
-      </c>
-      <c r="C58" s="53" t="str">
-        <f>IF(Rådata!E47="","",Rådata!E47)</f>
-        <v/>
-      </c>
-      <c r="D58" s="54" t="str">
-        <f>IF(Rådata!F47="","",Rådata!F47)</f>
-        <v/>
-      </c>
-      <c r="E58" s="54"/>
-      <c r="F58" s="53" t="str">
-        <f>IF(Rådata!G47="","",Rådata!G47)</f>
-        <v/>
-      </c>
-      <c r="G58" s="53" t="str">
-        <f>IF(Rådata!H47="","",Rådata!H47)</f>
-        <v/>
-      </c>
-      <c r="H58" s="53" t="str">
-        <f>IF(Rådata!I47="","",Rådata!I47)</f>
-        <v/>
-      </c>
-      <c r="I58" s="53" t="str">
-        <f>IF(Rådata!J47="","",Rådata!J47)</f>
-        <v/>
-      </c>
-      <c r="J58" s="53" t="str">
-        <f>IF(Rådata!K47="","",Rådata!K47)</f>
-        <v/>
-      </c>
-      <c r="K58" s="53"/>
-      <c r="L58" s="53" t="str">
-        <f>IF(Rådata!M47="","",Rådata!M47)</f>
-        <v/>
-      </c>
-      <c r="M58" s="53" t="str">
-        <f>IF(Rådata!N47="","",Rådata!N47)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="53" t="str">
-        <f>IF(Rådata!C48="","",Rådata!C48)</f>
-        <v/>
-      </c>
-      <c r="B59" s="53" t="str">
-        <f>IF(Rådata!B48="","",LEFT(Rådata!B48, 2))</f>
-        <v/>
-      </c>
-      <c r="C59" s="53" t="str">
-        <f>IF(Rådata!E48="","",Rådata!E48)</f>
-        <v/>
-      </c>
-      <c r="D59" s="54" t="str">
-        <f>IF(Rådata!F48="","",Rådata!F48)</f>
-        <v/>
-      </c>
-      <c r="E59" s="54"/>
-      <c r="F59" s="53" t="str">
-        <f>IF(Rådata!G48="","",Rådata!G48)</f>
-        <v/>
-      </c>
-      <c r="G59" s="53" t="str">
-        <f>IF(Rådata!H48="","",Rådata!H48)</f>
-        <v/>
-      </c>
-      <c r="H59" s="53" t="str">
-        <f>IF(Rådata!I48="","",Rådata!I48)</f>
-        <v/>
-      </c>
-      <c r="I59" s="53" t="str">
-        <f>IF(Rådata!J48="","",Rådata!J48)</f>
-        <v/>
-      </c>
-      <c r="J59" s="53" t="str">
-        <f>IF(Rådata!K48="","",Rådata!K48)</f>
-        <v/>
-      </c>
-      <c r="K59" s="53"/>
-      <c r="L59" s="53" t="str">
-        <f>IF(Rådata!M48="","",Rådata!M48)</f>
-        <v/>
-      </c>
-      <c r="M59" s="53" t="str">
-        <f>IF(Rådata!N48="","",Rådata!N48)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="53" t="str">
-        <f>IF(Rådata!C49="","",Rådata!C49)</f>
-        <v/>
-      </c>
-      <c r="B60" s="53" t="str">
-        <f>IF(Rådata!B49="","",LEFT(Rådata!B49, 2))</f>
-        <v/>
-      </c>
-      <c r="C60" s="53" t="str">
-        <f>IF(Rådata!E49="","",Rådata!E49)</f>
-        <v/>
-      </c>
-      <c r="D60" s="54" t="str">
-        <f>IF(Rådata!F49="","",Rådata!F49)</f>
-        <v/>
-      </c>
-      <c r="E60" s="54"/>
-      <c r="F60" s="53" t="str">
-        <f>IF(Rådata!G49="","",Rådata!G49)</f>
-        <v/>
-      </c>
-      <c r="G60" s="53" t="str">
-        <f>IF(Rådata!H49="","",Rådata!H49)</f>
-        <v/>
-      </c>
-      <c r="H60" s="53" t="str">
-        <f>IF(Rådata!I49="","",Rådata!I49)</f>
-        <v/>
-      </c>
-      <c r="I60" s="53" t="str">
-        <f>IF(Rådata!J49="","",Rådata!J49)</f>
-        <v/>
-      </c>
-      <c r="J60" s="53" t="str">
-        <f>IF(Rådata!K49="","",Rådata!K49)</f>
-        <v/>
-      </c>
-      <c r="K60" s="53"/>
-      <c r="L60" s="53" t="str">
-        <f>IF(Rådata!M49="","",Rådata!M49)</f>
-        <v/>
-      </c>
-      <c r="M60" s="53" t="str">
-        <f>IF(Rådata!N49="","",Rådata!N49)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="53" t="str">
-        <f>IF(Rådata!C50="","",Rådata!C50)</f>
-        <v/>
-      </c>
-      <c r="B61" s="53" t="str">
-        <f>IF(Rådata!B50="","",LEFT(Rådata!B50, 2))</f>
-        <v/>
-      </c>
-      <c r="C61" s="53" t="str">
-        <f>IF(Rådata!E50="","",Rådata!E50)</f>
-        <v/>
-      </c>
-      <c r="D61" s="54" t="str">
-        <f>IF(Rådata!F50="","",Rådata!F50)</f>
-        <v/>
-      </c>
-      <c r="E61" s="54"/>
-      <c r="F61" s="53" t="str">
-        <f>IF(Rådata!G50="","",Rådata!G50)</f>
-        <v/>
-      </c>
-      <c r="G61" s="53" t="str">
-        <f>IF(Rådata!H50="","",Rådata!H50)</f>
-        <v/>
-      </c>
-      <c r="H61" s="53" t="str">
-        <f>IF(Rådata!I50="","",Rådata!I50)</f>
-        <v/>
-      </c>
-      <c r="I61" s="53" t="str">
-        <f>IF(Rådata!J50="","",Rådata!J50)</f>
-        <v/>
-      </c>
-      <c r="J61" s="53" t="str">
-        <f>IF(Rådata!K50="","",Rådata!K50)</f>
-        <v/>
-      </c>
-      <c r="K61" s="53"/>
-      <c r="L61" s="53" t="str">
-        <f>IF(Rådata!M50="","",Rådata!M50)</f>
-        <v/>
-      </c>
-      <c r="M61" s="53" t="str">
-        <f>IF(Rådata!N50="","",Rådata!N50)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="53" t="str">
-        <f>IF(Rådata!C51="","",Rådata!C51)</f>
-        <v/>
-      </c>
-      <c r="B62" s="53" t="str">
-        <f>IF(Rådata!B51="","",LEFT(Rådata!B51, 2))</f>
-        <v/>
-      </c>
-      <c r="C62" s="53" t="str">
-        <f>IF(Rådata!E51="","",Rådata!E51)</f>
-        <v/>
-      </c>
-      <c r="D62" s="54" t="str">
-        <f>IF(Rådata!F51="","",Rådata!F51)</f>
-        <v/>
-      </c>
-      <c r="E62" s="54"/>
-      <c r="F62" s="53" t="str">
-        <f>IF(Rådata!G51="","",Rådata!G51)</f>
-        <v/>
-      </c>
-      <c r="G62" s="53" t="str">
-        <f>IF(Rådata!H51="","",Rådata!H51)</f>
-        <v/>
-      </c>
-      <c r="H62" s="53" t="str">
-        <f>IF(Rådata!I51="","",Rådata!I51)</f>
-        <v/>
-      </c>
-      <c r="I62" s="53" t="str">
-        <f>IF(Rådata!J51="","",Rådata!J51)</f>
-        <v/>
-      </c>
-      <c r="J62" s="53" t="str">
-        <f>IF(Rådata!K51="","",Rådata!K51)</f>
-        <v/>
-      </c>
-      <c r="K62" s="53"/>
-      <c r="L62" s="53" t="str">
-        <f>IF(Rådata!M51="","",Rådata!M51)</f>
-        <v/>
-      </c>
-      <c r="M62" s="53" t="str">
-        <f>IF(Rådata!N51="","",Rådata!N51)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="53" t="str">
-        <f>IF(Rådata!C52="","",Rådata!C52)</f>
-        <v/>
-      </c>
-      <c r="B63" s="53" t="str">
-        <f>IF(Rådata!B52="","",LEFT(Rådata!B52, 2))</f>
-        <v/>
-      </c>
-      <c r="C63" s="53" t="str">
-        <f>IF(Rådata!E52="","",Rådata!E52)</f>
-        <v/>
-      </c>
-      <c r="D63" s="54" t="str">
-        <f>IF(Rådata!F52="","",Rådata!F52)</f>
-        <v/>
-      </c>
-      <c r="E63" s="54"/>
-      <c r="F63" s="53" t="str">
-        <f>IF(Rådata!G52="","",Rådata!G52)</f>
-        <v/>
-      </c>
-      <c r="G63" s="53" t="str">
-        <f>IF(Rådata!H52="","",Rådata!H52)</f>
-        <v/>
-      </c>
-      <c r="H63" s="53" t="str">
-        <f>IF(Rådata!I52="","",Rådata!I52)</f>
-        <v/>
-      </c>
-      <c r="I63" s="53" t="str">
-        <f>IF(Rådata!J52="","",Rådata!J52)</f>
-        <v/>
-      </c>
-      <c r="J63" s="53" t="str">
-        <f>IF(Rådata!K52="","",Rådata!K52)</f>
-        <v/>
-      </c>
-      <c r="K63" s="53"/>
-      <c r="L63" s="53" t="str">
-        <f>IF(Rådata!M52="","",Rådata!M52)</f>
-        <v/>
-      </c>
-      <c r="M63" s="53" t="str">
-        <f>IF(Rådata!N52="","",Rådata!N52)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="53" t="str">
-        <f>IF(Rådata!C53="","",Rådata!C53)</f>
-        <v/>
-      </c>
-      <c r="B64" s="53" t="str">
-        <f>IF(Rådata!B53="","",LEFT(Rådata!B53, 2))</f>
-        <v/>
-      </c>
-      <c r="C64" s="53" t="str">
-        <f>IF(Rådata!E53="","",Rådata!E53)</f>
-        <v/>
-      </c>
-      <c r="D64" s="54" t="str">
-        <f>IF(Rådata!F53="","",Rådata!F53)</f>
-        <v/>
-      </c>
-      <c r="E64" s="54"/>
-      <c r="F64" s="53" t="str">
-        <f>IF(Rådata!G53="","",Rådata!G53)</f>
-        <v/>
-      </c>
-      <c r="G64" s="53" t="str">
-        <f>IF(Rådata!H53="","",Rådata!H53)</f>
-        <v/>
-      </c>
-      <c r="H64" s="53" t="str">
-        <f>IF(Rådata!I53="","",Rådata!I53)</f>
-        <v/>
-      </c>
-      <c r="I64" s="53" t="str">
-        <f>IF(Rådata!J53="","",Rådata!J53)</f>
-        <v/>
-      </c>
-      <c r="J64" s="53" t="str">
-        <f>IF(Rådata!K53="","",Rådata!K53)</f>
-        <v/>
-      </c>
-      <c r="K64" s="53"/>
-      <c r="L64" s="53" t="str">
-        <f>IF(Rådata!M53="","",Rådata!M53)</f>
-        <v/>
-      </c>
-      <c r="M64" s="53" t="str">
-        <f>IF(Rådata!N53="","",Rådata!N53)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="53" t="str">
-        <f>IF(Rådata!C54="","",Rådata!C54)</f>
-        <v/>
-      </c>
-      <c r="B65" s="53" t="str">
-        <f>IF(Rådata!B54="","",LEFT(Rådata!B54, 2))</f>
-        <v/>
-      </c>
-      <c r="C65" s="53" t="str">
-        <f>IF(Rådata!E54="","",Rådata!E54)</f>
-        <v/>
-      </c>
-      <c r="D65" s="54" t="str">
-        <f>IF(Rådata!F54="","",Rådata!F54)</f>
-        <v/>
-      </c>
-      <c r="E65" s="54"/>
-      <c r="F65" s="53" t="str">
-        <f>IF(Rådata!G54="","",Rådata!G54)</f>
-        <v/>
-      </c>
-      <c r="G65" s="53" t="str">
-        <f>IF(Rådata!H54="","",Rådata!H54)</f>
-        <v/>
-      </c>
-      <c r="H65" s="53" t="str">
-        <f>IF(Rådata!I54="","",Rådata!I54)</f>
-        <v/>
-      </c>
-      <c r="I65" s="53" t="str">
-        <f>IF(Rådata!J54="","",Rådata!J54)</f>
-        <v/>
-      </c>
-      <c r="J65" s="53" t="str">
-        <f>IF(Rådata!K54="","",Rådata!K54)</f>
-        <v/>
-      </c>
-      <c r="K65" s="53"/>
-      <c r="L65" s="53" t="str">
-        <f>IF(Rådata!M54="","",Rådata!M54)</f>
-        <v/>
-      </c>
-      <c r="M65" s="53" t="str">
-        <f>IF(Rådata!N54="","",Rådata!N54)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="53" t="str">
-        <f>IF(Rådata!C55="","",Rådata!C55)</f>
-        <v/>
-      </c>
-      <c r="B66" s="53" t="str">
-        <f>IF(Rådata!B55="","",LEFT(Rådata!B55, 2))</f>
-        <v/>
-      </c>
-      <c r="C66" s="53" t="str">
-        <f>IF(Rådata!E55="","",Rådata!E55)</f>
-        <v/>
-      </c>
-      <c r="D66" s="54" t="str">
-        <f>IF(Rådata!F55="","",Rådata!F55)</f>
-        <v/>
-      </c>
-      <c r="E66" s="54"/>
-      <c r="F66" s="53" t="str">
-        <f>IF(Rådata!G55="","",Rådata!G55)</f>
-        <v/>
-      </c>
-      <c r="G66" s="53" t="str">
-        <f>IF(Rådata!H55="","",Rådata!H55)</f>
-        <v/>
-      </c>
-      <c r="H66" s="53" t="str">
-        <f>IF(Rådata!I55="","",Rådata!I55)</f>
-        <v/>
-      </c>
-      <c r="I66" s="53" t="str">
-        <f>IF(Rådata!J55="","",Rådata!J55)</f>
-        <v/>
-      </c>
-      <c r="J66" s="53" t="str">
-        <f>IF(Rådata!K55="","",Rådata!K55)</f>
-        <v/>
-      </c>
-      <c r="K66" s="53"/>
-      <c r="L66" s="53" t="str">
-        <f>IF(Rådata!M55="","",Rådata!M55)</f>
-        <v/>
-      </c>
-      <c r="M66" s="53" t="str">
-        <f>IF(Rådata!N55="","",Rådata!N55)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="53" t="str">
-        <f>IF(Rådata!C56="","",Rådata!C56)</f>
-        <v/>
-      </c>
-      <c r="B67" s="53" t="str">
-        <f>IF(Rådata!B56="","",LEFT(Rådata!B56, 2))</f>
-        <v/>
-      </c>
-      <c r="C67" s="53" t="str">
-        <f>IF(Rådata!E56="","",Rådata!E56)</f>
-        <v/>
-      </c>
-      <c r="D67" s="54" t="str">
-        <f>IF(Rådata!F56="","",Rådata!F56)</f>
-        <v/>
-      </c>
-      <c r="E67" s="54"/>
-      <c r="F67" s="53" t="str">
-        <f>IF(Rådata!G56="","",Rådata!G56)</f>
-        <v/>
-      </c>
-      <c r="G67" s="53" t="str">
-        <f>IF(Rådata!H56="","",Rådata!H56)</f>
-        <v/>
-      </c>
-      <c r="H67" s="53" t="str">
-        <f>IF(Rådata!I56="","",Rådata!I56)</f>
-        <v/>
-      </c>
-      <c r="I67" s="53" t="str">
-        <f>IF(Rådata!J56="","",Rådata!J56)</f>
-        <v/>
-      </c>
-      <c r="J67" s="53" t="str">
-        <f>IF(Rådata!K56="","",Rådata!K56)</f>
-        <v/>
-      </c>
-      <c r="K67" s="53"/>
-      <c r="L67" s="53" t="str">
-        <f>IF(Rådata!M56="","",Rådata!M56)</f>
-        <v/>
-      </c>
-      <c r="M67" s="53" t="str">
-        <f>IF(Rådata!N56="","",Rådata!N56)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="53" t="str">
-        <f>IF(Rådata!C57="","",Rådata!C57)</f>
-        <v/>
-      </c>
-      <c r="B68" s="53" t="str">
-        <f>IF(Rådata!B57="","",LEFT(Rådata!B57, 2))</f>
-        <v/>
-      </c>
-      <c r="C68" s="53" t="str">
-        <f>IF(Rådata!E57="","",Rådata!E57)</f>
-        <v/>
-      </c>
-      <c r="D68" s="54" t="str">
-        <f>IF(Rådata!F57="","",Rådata!F57)</f>
-        <v/>
-      </c>
-      <c r="E68" s="54"/>
-      <c r="F68" s="53" t="str">
-        <f>IF(Rådata!G57="","",Rådata!G57)</f>
-        <v/>
-      </c>
-      <c r="G68" s="53" t="str">
-        <f>IF(Rådata!H57="","",Rådata!H57)</f>
-        <v/>
-      </c>
-      <c r="H68" s="53" t="str">
-        <f>IF(Rådata!I57="","",Rådata!I57)</f>
-        <v/>
-      </c>
-      <c r="I68" s="53" t="str">
-        <f>IF(Rådata!J57="","",Rådata!J57)</f>
-        <v/>
-      </c>
-      <c r="J68" s="53" t="str">
-        <f>IF(Rådata!K57="","",Rådata!K57)</f>
-        <v/>
-      </c>
-      <c r="K68" s="53"/>
-      <c r="L68" s="53" t="str">
-        <f>IF(Rådata!M57="","",Rådata!M57)</f>
-        <v/>
-      </c>
-      <c r="M68" s="53" t="str">
-        <f>IF(Rådata!N57="","",Rådata!N57)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="53" t="str">
-        <f>IF(Rådata!C58="","",Rådata!C58)</f>
-        <v/>
-      </c>
-      <c r="B69" s="53" t="str">
-        <f>IF(Rådata!B58="","",LEFT(Rådata!B58, 2))</f>
-        <v/>
-      </c>
-      <c r="C69" s="53" t="str">
-        <f>IF(Rådata!E58="","",Rådata!E58)</f>
-        <v/>
-      </c>
-      <c r="D69" s="54" t="str">
-        <f>IF(Rådata!F58="","",Rådata!F58)</f>
-        <v/>
-      </c>
-      <c r="E69" s="54"/>
-      <c r="F69" s="53" t="str">
-        <f>IF(Rådata!G58="","",Rådata!G58)</f>
-        <v/>
-      </c>
-      <c r="G69" s="53" t="str">
-        <f>IF(Rådata!H58="","",Rådata!H58)</f>
-        <v/>
-      </c>
-      <c r="H69" s="53" t="str">
-        <f>IF(Rådata!I58="","",Rådata!I58)</f>
-        <v/>
-      </c>
-      <c r="I69" s="53" t="str">
-        <f>IF(Rådata!J58="","",Rådata!J58)</f>
-        <v/>
-      </c>
-      <c r="J69" s="53" t="str">
-        <f>IF(Rådata!K58="","",Rådata!K58)</f>
-        <v/>
-      </c>
-      <c r="K69" s="53"/>
-      <c r="L69" s="53" t="str">
-        <f>IF(Rådata!M58="","",Rådata!M58)</f>
-        <v/>
-      </c>
-      <c r="M69" s="53" t="str">
-        <f>IF(Rådata!N58="","",Rådata!N58)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="53" t="str">
-        <f>IF(Rådata!C59="","",Rådata!C59)</f>
-        <v/>
-      </c>
-      <c r="B70" s="53" t="str">
-        <f>IF(Rådata!B59="","",LEFT(Rådata!B59, 2))</f>
-        <v/>
-      </c>
-      <c r="C70" s="53" t="str">
-        <f>IF(Rådata!E59="","",Rådata!E59)</f>
-        <v/>
-      </c>
-      <c r="D70" s="54" t="str">
-        <f>IF(Rådata!F59="","",Rådata!F59)</f>
-        <v/>
-      </c>
-      <c r="E70" s="54"/>
-      <c r="F70" s="53" t="str">
-        <f>IF(Rådata!G59="","",Rådata!G59)</f>
-        <v/>
-      </c>
-      <c r="G70" s="53" t="str">
-        <f>IF(Rådata!H59="","",Rådata!H59)</f>
-        <v/>
-      </c>
-      <c r="H70" s="53" t="str">
-        <f>IF(Rådata!I59="","",Rådata!I59)</f>
-        <v/>
-      </c>
-      <c r="I70" s="53" t="str">
-        <f>IF(Rådata!J59="","",Rådata!J59)</f>
-        <v/>
-      </c>
-      <c r="J70" s="53" t="str">
-        <f>IF(Rådata!K59="","",Rådata!K59)</f>
-        <v/>
-      </c>
-      <c r="K70" s="53"/>
-      <c r="L70" s="53" t="str">
-        <f>IF(Rådata!M59="","",Rådata!M59)</f>
-        <v/>
-      </c>
-      <c r="M70" s="53" t="str">
-        <f>IF(Rådata!N59="","",Rådata!N59)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="53" t="str">
-        <f>IF(Rådata!C60="","",Rådata!C60)</f>
-        <v/>
-      </c>
-      <c r="B71" s="53" t="str">
-        <f>IF(Rådata!B60="","",LEFT(Rådata!B60, 2))</f>
-        <v/>
-      </c>
-      <c r="C71" s="53" t="str">
-        <f>IF(Rådata!E60="","",Rådata!E60)</f>
-        <v/>
-      </c>
-      <c r="D71" s="54" t="str">
-        <f>IF(Rådata!F60="","",Rådata!F60)</f>
-        <v/>
-      </c>
-      <c r="E71" s="54"/>
-      <c r="F71" s="53" t="str">
-        <f>IF(Rådata!G60="","",Rådata!G60)</f>
-        <v/>
-      </c>
-      <c r="G71" s="53" t="str">
-        <f>IF(Rådata!H60="","",Rådata!H60)</f>
-        <v/>
-      </c>
-      <c r="H71" s="53" t="str">
-        <f>IF(Rådata!I60="","",Rådata!I60)</f>
-        <v/>
-      </c>
-      <c r="I71" s="53" t="str">
-        <f>IF(Rådata!J60="","",Rådata!J60)</f>
-        <v/>
-      </c>
-      <c r="J71" s="53" t="str">
-        <f>IF(Rådata!K60="","",Rådata!K60)</f>
-        <v/>
-      </c>
-      <c r="K71" s="53"/>
-      <c r="L71" s="53" t="str">
-        <f>IF(Rådata!M60="","",Rådata!M60)</f>
-        <v/>
-      </c>
-      <c r="M71" s="53" t="str">
-        <f>IF(Rådata!N60="","",Rådata!N60)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="53" t="str">
-        <f>IF(Rådata!C61="","",Rådata!C61)</f>
-        <v/>
-      </c>
-      <c r="B72" s="53" t="str">
-        <f>IF(Rådata!B61="","",LEFT(Rådata!B61, 2))</f>
-        <v/>
-      </c>
-      <c r="C72" s="53" t="str">
-        <f>IF(Rådata!E61="","",Rådata!E61)</f>
-        <v/>
-      </c>
-      <c r="D72" s="54" t="str">
-        <f>IF(Rådata!F61="","",Rådata!F61)</f>
-        <v/>
-      </c>
-      <c r="E72" s="54"/>
-      <c r="F72" s="53" t="str">
-        <f>IF(Rådata!G61="","",Rådata!G61)</f>
-        <v/>
-      </c>
-      <c r="G72" s="53" t="str">
-        <f>IF(Rådata!H61="","",Rådata!H61)</f>
-        <v/>
-      </c>
-      <c r="H72" s="53" t="str">
-        <f>IF(Rådata!I61="","",Rådata!I61)</f>
-        <v/>
-      </c>
-      <c r="I72" s="53" t="str">
-        <f>IF(Rådata!J61="","",Rådata!J61)</f>
-        <v/>
-      </c>
-      <c r="J72" s="53" t="str">
-        <f>IF(Rådata!K61="","",Rådata!K61)</f>
-        <v/>
-      </c>
-      <c r="K72" s="53"/>
-      <c r="L72" s="53" t="str">
-        <f>IF(Rådata!M61="","",Rådata!M61)</f>
-        <v/>
-      </c>
-      <c r="M72" s="53" t="str">
-        <f>IF(Rådata!N61="","",Rådata!N61)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="53" t="str">
-        <f>IF(Rådata!C62="","",Rådata!C62)</f>
-        <v/>
-      </c>
-      <c r="B73" s="53" t="str">
-        <f>IF(Rådata!B62="","",LEFT(Rådata!B62, 2))</f>
-        <v/>
-      </c>
-      <c r="C73" s="53" t="str">
-        <f>IF(Rådata!E62="","",Rådata!E62)</f>
-        <v/>
-      </c>
-      <c r="D73" s="54" t="str">
-        <f>IF(Rådata!F62="","",Rådata!F62)</f>
-        <v/>
-      </c>
-      <c r="E73" s="54"/>
-      <c r="F73" s="53" t="str">
-        <f>IF(Rådata!G62="","",Rådata!G62)</f>
-        <v/>
-      </c>
-      <c r="G73" s="53" t="str">
-        <f>IF(Rådata!H62="","",Rådata!H62)</f>
-        <v/>
-      </c>
-      <c r="H73" s="53" t="str">
-        <f>IF(Rådata!I62="","",Rådata!I62)</f>
-        <v/>
-      </c>
-      <c r="I73" s="53" t="str">
-        <f>IF(Rådata!J62="","",Rådata!J62)</f>
-        <v/>
-      </c>
-      <c r="J73" s="53" t="str">
-        <f>IF(Rådata!K62="","",Rådata!K62)</f>
-        <v/>
-      </c>
-      <c r="K73" s="53"/>
-      <c r="L73" s="53" t="str">
-        <f>IF(Rådata!M62="","",Rådata!M62)</f>
-        <v/>
-      </c>
-      <c r="M73" s="53" t="str">
-        <f>IF(Rådata!N62="","",Rådata!N62)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="53" t="str">
-        <f>IF(Rådata!C63="","",Rådata!C63)</f>
-        <v/>
-      </c>
-      <c r="B74" s="53" t="str">
-        <f>IF(Rådata!B63="","",LEFT(Rådata!B63, 2))</f>
-        <v/>
-      </c>
-      <c r="C74" s="53" t="str">
-        <f>IF(Rådata!E63="","",Rådata!E63)</f>
-        <v/>
-      </c>
-      <c r="D74" s="54" t="str">
-        <f>IF(Rådata!F63="","",Rådata!F63)</f>
-        <v/>
-      </c>
-      <c r="E74" s="54"/>
-      <c r="F74" s="53" t="str">
-        <f>IF(Rådata!G63="","",Rådata!G63)</f>
-        <v/>
-      </c>
-      <c r="G74" s="53" t="str">
-        <f>IF(Rådata!H63="","",Rådata!H63)</f>
-        <v/>
-      </c>
-      <c r="H74" s="53" t="str">
-        <f>IF(Rådata!I63="","",Rådata!I63)</f>
-        <v/>
-      </c>
-      <c r="I74" s="53" t="str">
-        <f>IF(Rådata!J63="","",Rådata!J63)</f>
-        <v/>
-      </c>
-      <c r="J74" s="53" t="str">
-        <f>IF(Rådata!K63="","",Rådata!K63)</f>
-        <v/>
-      </c>
-      <c r="K74" s="53"/>
-      <c r="L74" s="53" t="str">
-        <f>IF(Rådata!M63="","",Rådata!M63)</f>
-        <v/>
-      </c>
-      <c r="M74" s="53" t="str">
-        <f>IF(Rådata!N63="","",Rådata!N63)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="53" t="str">
-        <f>IF(Rådata!C64="","",Rådata!C64)</f>
-        <v/>
-      </c>
-      <c r="B75" s="53" t="str">
-        <f>IF(Rådata!B64="","",LEFT(Rådata!B64, 2))</f>
-        <v/>
-      </c>
-      <c r="C75" s="53" t="str">
-        <f>IF(Rådata!E64="","",Rådata!E64)</f>
-        <v/>
-      </c>
-      <c r="D75" s="54" t="str">
-        <f>IF(Rådata!F64="","",Rådata!F64)</f>
-        <v/>
-      </c>
-      <c r="E75" s="54"/>
-      <c r="F75" s="53" t="str">
-        <f>IF(Rådata!G64="","",Rådata!G64)</f>
-        <v/>
-      </c>
-      <c r="G75" s="53" t="str">
-        <f>IF(Rådata!H64="","",Rådata!H64)</f>
-        <v/>
-      </c>
-      <c r="H75" s="53" t="str">
-        <f>IF(Rådata!I64="","",Rådata!I64)</f>
-        <v/>
-      </c>
-      <c r="I75" s="53" t="str">
-        <f>IF(Rådata!J64="","",Rådata!J64)</f>
-        <v/>
-      </c>
-      <c r="J75" s="53" t="str">
-        <f>IF(Rådata!K64="","",Rådata!K64)</f>
-        <v/>
-      </c>
-      <c r="K75" s="53"/>
-      <c r="L75" s="53" t="str">
-        <f>IF(Rådata!M64="","",Rådata!M64)</f>
-        <v/>
-      </c>
-      <c r="M75" s="53" t="str">
-        <f>IF(Rådata!N64="","",Rådata!N64)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="53" t="str">
-        <f>IF(Rådata!C65="","",Rådata!C65)</f>
-        <v/>
-      </c>
-      <c r="B76" s="53" t="str">
-        <f>IF(Rådata!B65="","",LEFT(Rådata!B65, 2))</f>
-        <v/>
-      </c>
-      <c r="C76" s="53" t="str">
-        <f>IF(Rådata!E65="","",Rådata!E65)</f>
-        <v/>
-      </c>
-      <c r="D76" s="54" t="str">
-        <f>IF(Rådata!F65="","",Rådata!F65)</f>
-        <v/>
-      </c>
-      <c r="E76" s="54"/>
-      <c r="F76" s="53" t="str">
-        <f>IF(Rådata!G65="","",Rådata!G65)</f>
-        <v/>
-      </c>
-      <c r="G76" s="53" t="str">
-        <f>IF(Rådata!H65="","",Rådata!H65)</f>
-        <v/>
-      </c>
-      <c r="H76" s="53" t="str">
-        <f>IF(Rådata!I65="","",Rådata!I65)</f>
-        <v/>
-      </c>
-      <c r="I76" s="53" t="str">
-        <f>IF(Rådata!J65="","",Rådata!J65)</f>
-        <v/>
-      </c>
-      <c r="J76" s="53" t="str">
-        <f>IF(Rådata!K65="","",Rådata!K65)</f>
-        <v/>
-      </c>
-      <c r="K76" s="53"/>
-      <c r="L76" s="53" t="str">
-        <f>IF(Rådata!M65="","",Rådata!M65)</f>
-        <v/>
-      </c>
-      <c r="M76" s="53" t="str">
-        <f>IF(Rådata!N65="","",Rådata!N65)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="53" t="str">
-        <f>IF(Rådata!C66="","",Rådata!C66)</f>
-        <v/>
-      </c>
-      <c r="B77" s="53" t="str">
-        <f>IF(Rådata!B66="","",LEFT(Rådata!B66, 2))</f>
-        <v/>
-      </c>
-      <c r="C77" s="53" t="str">
-        <f>IF(Rådata!E66="","",Rådata!E66)</f>
-        <v/>
-      </c>
-      <c r="D77" s="54" t="str">
-        <f>IF(Rådata!F66="","",Rådata!F66)</f>
-        <v/>
-      </c>
-      <c r="E77" s="54"/>
-      <c r="F77" s="53" t="str">
-        <f>IF(Rådata!G66="","",Rådata!G66)</f>
-        <v/>
-      </c>
-      <c r="G77" s="53" t="str">
-        <f>IF(Rådata!H66="","",Rådata!H66)</f>
-        <v/>
-      </c>
-      <c r="H77" s="53" t="str">
-        <f>IF(Rådata!I66="","",Rådata!I66)</f>
-        <v/>
-      </c>
-      <c r="I77" s="53" t="str">
-        <f>IF(Rådata!J66="","",Rådata!J66)</f>
-        <v/>
-      </c>
-      <c r="J77" s="53" t="str">
-        <f>IF(Rådata!K66="","",Rådata!K66)</f>
-        <v/>
-      </c>
-      <c r="K77" s="53"/>
-      <c r="L77" s="53" t="str">
-        <f>IF(Rådata!M66="","",Rådata!M66)</f>
-        <v/>
-      </c>
-      <c r="M77" s="53" t="str">
-        <f>IF(Rådata!N66="","",Rådata!N66)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="53" t="str">
-        <f>IF(Rådata!C67="","",Rådata!C67)</f>
-        <v/>
-      </c>
-      <c r="B78" s="53" t="str">
-        <f>IF(Rådata!B67="","",LEFT(Rådata!B67, 2))</f>
-        <v/>
-      </c>
-      <c r="C78" s="53" t="str">
-        <f>IF(Rådata!E67="","",Rådata!E67)</f>
-        <v/>
-      </c>
-      <c r="D78" s="54" t="str">
-        <f>IF(Rådata!F67="","",Rådata!F67)</f>
-        <v/>
-      </c>
-      <c r="E78" s="54"/>
-      <c r="F78" s="53" t="str">
-        <f>IF(Rådata!G67="","",Rådata!G67)</f>
-        <v/>
-      </c>
-      <c r="G78" s="53" t="str">
-        <f>IF(Rådata!H67="","",Rådata!H67)</f>
-        <v/>
-      </c>
-      <c r="H78" s="53" t="str">
-        <f>IF(Rådata!I67="","",Rådata!I67)</f>
-        <v/>
-      </c>
-      <c r="I78" s="53" t="str">
-        <f>IF(Rådata!J67="","",Rådata!J67)</f>
-        <v/>
-      </c>
-      <c r="J78" s="53" t="str">
-        <f>IF(Rådata!K67="","",Rådata!K67)</f>
-        <v/>
-      </c>
-      <c r="K78" s="53"/>
-      <c r="L78" s="53" t="str">
-        <f>IF(Rådata!M67="","",Rådata!M67)</f>
-        <v/>
-      </c>
-      <c r="M78" s="53" t="str">
-        <f>IF(Rådata!N67="","",Rådata!N67)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="53" t="str">
-        <f>IF(Rådata!C68="","",Rådata!C68)</f>
-        <v/>
-      </c>
-      <c r="B79" s="53" t="str">
-        <f>IF(Rådata!B68="","",LEFT(Rådata!B68, 2))</f>
-        <v/>
-      </c>
-      <c r="C79" s="53" t="str">
-        <f>IF(Rådata!E68="","",Rådata!E68)</f>
-        <v/>
-      </c>
-      <c r="D79" s="54" t="str">
-        <f>IF(Rådata!F68="","",Rådata!F68)</f>
-        <v/>
-      </c>
-      <c r="E79" s="54"/>
-      <c r="F79" s="53" t="str">
-        <f>IF(Rådata!G68="","",Rådata!G68)</f>
-        <v/>
-      </c>
-      <c r="G79" s="53" t="str">
-        <f>IF(Rådata!H68="","",Rådata!H68)</f>
-        <v/>
-      </c>
-      <c r="H79" s="53" t="str">
-        <f>IF(Rådata!I68="","",Rådata!I68)</f>
-        <v/>
-      </c>
-      <c r="I79" s="53" t="str">
-        <f>IF(Rådata!J68="","",Rådata!J68)</f>
-        <v/>
-      </c>
-      <c r="J79" s="53" t="str">
-        <f>IF(Rådata!K68="","",Rådata!K68)</f>
-        <v/>
-      </c>
-      <c r="K79" s="53"/>
-      <c r="L79" s="53" t="str">
-        <f>IF(Rådata!M68="","",Rådata!M68)</f>
-        <v/>
-      </c>
-      <c r="M79" s="53" t="str">
-        <f>IF(Rådata!N68="","",Rådata!N68)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:13" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="53" t="str">
-        <f>IF(Rådata!C69="","",Rådata!C69)</f>
-        <v/>
-      </c>
-      <c r="B80" s="53" t="str">
-        <f>IF(Rådata!B69="","",LEFT(Rådata!B69, 2))</f>
-        <v/>
-      </c>
-      <c r="C80" s="53" t="str">
-        <f>IF(Rådata!E69="","",Rådata!E69)</f>
-        <v/>
-      </c>
-      <c r="D80" s="54" t="str">
-        <f>IF(Rådata!F69="","",Rådata!F69)</f>
-        <v/>
-      </c>
-      <c r="E80" s="54"/>
-      <c r="F80" s="53" t="str">
-        <f>IF(Rådata!G69="","",Rådata!G69)</f>
-        <v/>
-      </c>
-      <c r="G80" s="53" t="str">
-        <f>IF(Rådata!H69="","",Rådata!H69)</f>
-        <v/>
-      </c>
-      <c r="H80" s="53" t="str">
-        <f>IF(Rådata!I69="","",Rådata!I69)</f>
-        <v/>
-      </c>
-      <c r="I80" s="53" t="str">
-        <f>IF(Rådata!J69="","",Rådata!J69)</f>
-        <v/>
-      </c>
-      <c r="J80" s="53" t="str">
-        <f>IF(Rådata!K69="","",Rådata!K69)</f>
-        <v/>
-      </c>
-      <c r="K80" s="53"/>
-      <c r="L80" s="53" t="str">
-        <f>IF(Rådata!M69="","",Rådata!M69)</f>
-        <v/>
-      </c>
-      <c r="M80" s="53" t="str">
-        <f>IF(Rådata!N69="","",Rådata!N69)</f>
-        <v/>
-      </c>
+    <row r="12" spans="1:141" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+    </row>
+    <row r="13" spans="1:141" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+    </row>
+    <row r="14" spans="1:141" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+    </row>
+    <row r="15" spans="1:141" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+    </row>
+    <row r="16" spans="1:141" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+    </row>
+    <row r="17" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+    </row>
+    <row r="18" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+    </row>
+    <row r="19" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+    </row>
+    <row r="20" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+    </row>
+    <row r="21" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+    </row>
+    <row r="22" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+    </row>
+    <row r="23" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+    </row>
+    <row r="24" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+    </row>
+    <row r="25" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+    </row>
+    <row r="26" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+    </row>
+    <row r="27" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+    </row>
+    <row r="28" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+    </row>
+    <row r="29" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+    </row>
+    <row r="30" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+    </row>
+    <row r="31" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+    </row>
+    <row r="32" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+    </row>
+    <row r="33" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+    </row>
+    <row r="34" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+    </row>
+    <row r="35" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+    </row>
+    <row r="36" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+    </row>
+    <row r="37" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+    </row>
+    <row r="38" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="44"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+    </row>
+    <row r="39" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="44"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+    </row>
+    <row r="40" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="44"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+    </row>
+    <row r="41" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="44"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+    </row>
+    <row r="42" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="44"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="44"/>
+    </row>
+    <row r="43" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="44"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="44"/>
+    </row>
+    <row r="44" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="44"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+    </row>
+    <row r="45" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="44"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+    </row>
+    <row r="46" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="44"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="44"/>
+    </row>
+    <row r="47" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="44"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+    </row>
+    <row r="48" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="44"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="44"/>
+    </row>
+    <row r="49" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="44"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44"/>
+    </row>
+    <row r="50" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="44"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+    </row>
+    <row r="51" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="44"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44"/>
+    </row>
+    <row r="52" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="44"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="44"/>
+      <c r="M52" s="44"/>
+    </row>
+    <row r="53" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="44"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="44"/>
+    </row>
+    <row r="54" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="44"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="44"/>
+      <c r="M54" s="44"/>
+    </row>
+    <row r="55" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="44"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="44"/>
+      <c r="M55" s="44"/>
+    </row>
+    <row r="56" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="44"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="44"/>
+      <c r="L56" s="44"/>
+      <c r="M56" s="44"/>
+    </row>
+    <row r="57" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="44"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="44"/>
+      <c r="L57" s="44"/>
+      <c r="M57" s="44"/>
+    </row>
+    <row r="58" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="44"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="44"/>
+      <c r="L58" s="44"/>
+      <c r="M58" s="44"/>
+    </row>
+    <row r="59" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="44"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="44"/>
+      <c r="M59" s="44"/>
+    </row>
+    <row r="60" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="44"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="44"/>
+      <c r="M60" s="44"/>
+    </row>
+    <row r="61" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="44"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="44"/>
+      <c r="K61" s="44"/>
+      <c r="L61" s="44"/>
+      <c r="M61" s="44"/>
+    </row>
+    <row r="62" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="44"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="44"/>
+      <c r="L62" s="44"/>
+      <c r="M62" s="44"/>
+    </row>
+    <row r="63" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="44"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="44"/>
+      <c r="K63" s="44"/>
+      <c r="L63" s="44"/>
+      <c r="M63" s="44"/>
+    </row>
+    <row r="64" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="44"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="44"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="44"/>
+      <c r="J64" s="44"/>
+      <c r="K64" s="44"/>
+      <c r="L64" s="44"/>
+      <c r="M64" s="44"/>
+    </row>
+    <row r="65" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="44"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="44"/>
+      <c r="K65" s="44"/>
+      <c r="L65" s="44"/>
+      <c r="M65" s="44"/>
+    </row>
+    <row r="66" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="44"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="44"/>
+      <c r="L66" s="44"/>
+      <c r="M66" s="44"/>
+    </row>
+    <row r="67" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="44"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="44"/>
+      <c r="L67" s="44"/>
+      <c r="M67" s="44"/>
+    </row>
+    <row r="68" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="44"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="44"/>
+      <c r="K68" s="44"/>
+      <c r="L68" s="44"/>
+      <c r="M68" s="44"/>
+    </row>
+    <row r="69" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="44"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="44"/>
+      <c r="K69" s="44"/>
+      <c r="L69" s="44"/>
+      <c r="M69" s="44"/>
+    </row>
+    <row r="70" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="44"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="53"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="44"/>
+      <c r="K70" s="44"/>
+      <c r="L70" s="44"/>
+      <c r="M70" s="44"/>
+    </row>
+    <row r="71" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="44"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="44"/>
+      <c r="M71" s="44"/>
+    </row>
+    <row r="72" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="44"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="44"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="44"/>
+      <c r="L72" s="44"/>
+      <c r="M72" s="44"/>
+    </row>
+    <row r="73" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="44"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="53"/>
+      <c r="E73" s="53"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="44"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="44"/>
+      <c r="K73" s="44"/>
+      <c r="L73" s="44"/>
+      <c r="M73" s="44"/>
+    </row>
+    <row r="74" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="44"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="53"/>
+      <c r="E74" s="53"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="44"/>
+      <c r="L74" s="44"/>
+      <c r="M74" s="44"/>
+    </row>
+    <row r="75" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="44"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="53"/>
+      <c r="F75" s="44"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="44"/>
+      <c r="I75" s="44"/>
+      <c r="J75" s="44"/>
+      <c r="K75" s="44"/>
+      <c r="L75" s="44"/>
+      <c r="M75" s="44"/>
+    </row>
+    <row r="76" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="44"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="44"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="44"/>
+      <c r="I76" s="44"/>
+      <c r="J76" s="44"/>
+      <c r="K76" s="44"/>
+      <c r="L76" s="44"/>
+      <c r="M76" s="44"/>
+    </row>
+    <row r="77" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="44"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="53"/>
+      <c r="E77" s="53"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="44"/>
+      <c r="K77" s="44"/>
+      <c r="L77" s="44"/>
+      <c r="M77" s="44"/>
+    </row>
+    <row r="78" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="44"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="53"/>
+      <c r="E78" s="53"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="44"/>
+      <c r="J78" s="44"/>
+      <c r="K78" s="44"/>
+      <c r="L78" s="44"/>
+      <c r="M78" s="44"/>
+    </row>
+    <row r="79" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="44"/>
+      <c r="B79" s="44"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="53"/>
+      <c r="E79" s="53"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="44"/>
+      <c r="I79" s="44"/>
+      <c r="J79" s="44"/>
+      <c r="K79" s="44"/>
+      <c r="L79" s="44"/>
+      <c r="M79" s="44"/>
+    </row>
+    <row r="80" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="44"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="53"/>
+      <c r="E80" s="53"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="44"/>
+      <c r="I80" s="44"/>
+      <c r="J80" s="44"/>
+      <c r="K80" s="44"/>
+      <c r="L80" s="44"/>
+      <c r="M80" s="44"/>
     </row>
     <row r="81" spans="1:13" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="38" t="str">
-        <f>IF(Rådata!C70="","",Rådata!C70)</f>
-        <v/>
-      </c>
-      <c r="B81" s="38" t="str">
-        <f>IF(Rådata!B70="","",LEFT(Rådata!B70, 2))</f>
-        <v/>
-      </c>
-      <c r="C81" s="39" t="str">
-        <f>IF(Rådata!E70="","",Rådata!E70)</f>
-        <v/>
-      </c>
-      <c r="D81" s="44" t="str">
-        <f>IF(Rådata!F70="","",Rådata!F70)</f>
-        <v/>
-      </c>
-      <c r="E81" s="44"/>
-      <c r="F81" s="39" t="str">
-        <f>IF(Rådata!G70="","",Rådata!G70)</f>
-        <v/>
-      </c>
-      <c r="G81" s="39" t="str">
-        <f>IF(Rådata!H70="","",Rådata!H70)</f>
-        <v/>
-      </c>
-      <c r="H81" s="38" t="str">
-        <f>IF(Rådata!I70="","",Rådata!I70)</f>
-        <v/>
-      </c>
-      <c r="I81" s="39" t="str">
-        <f>IF(Rådata!J70="","",Rådata!J70)</f>
-        <v/>
-      </c>
-      <c r="J81" s="39" t="str">
-        <f>IF(Rådata!K70="","",Rådata!K70)</f>
-        <v/>
-      </c>
+      <c r="A81" s="38"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="54"/>
+      <c r="E81" s="54"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="39"/>
       <c r="K81" s="39"/>
-      <c r="L81" s="39" t="str">
-        <f>IF(Rådata!M70="","",Rådata!M70)</f>
-        <v/>
-      </c>
-      <c r="M81" s="38" t="str">
-        <f>IF(Rådata!N70="","",Rådata!N70)</f>
-        <v/>
-      </c>
+      <c r="L81" s="39"/>
+      <c r="M81" s="38"/>
     </row>
     <row r="82" spans="1:13" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="38" t="str">
-        <f>IF(Rådata!C71="","",Rådata!C71)</f>
-        <v/>
-      </c>
-      <c r="B82" s="38" t="str">
-        <f>IF(Rådata!B71="","",LEFT(Rådata!B71, 2))</f>
-        <v/>
-      </c>
-      <c r="C82" s="39" t="str">
-        <f>IF(Rådata!E71="","",Rådata!E71)</f>
-        <v/>
-      </c>
-      <c r="D82" s="44" t="str">
-        <f>IF(Rådata!F71="","",Rådata!F71)</f>
-        <v/>
-      </c>
-      <c r="E82" s="44"/>
-      <c r="F82" s="39" t="str">
-        <f>IF(Rådata!G71="","",Rådata!G71)</f>
-        <v/>
-      </c>
-      <c r="G82" s="39" t="str">
-        <f>IF(Rådata!H71="","",Rådata!H71)</f>
-        <v/>
-      </c>
-      <c r="H82" s="38" t="str">
-        <f>IF(Rådata!I71="","",Rådata!I71)</f>
-        <v/>
-      </c>
-      <c r="I82" s="39" t="str">
-        <f>IF(Rådata!J71="","",Rådata!J71)</f>
-        <v/>
-      </c>
-      <c r="J82" s="39" t="str">
-        <f>IF(Rådata!K71="","",Rådata!K71)</f>
-        <v/>
-      </c>
+      <c r="A82" s="38"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="39"/>
+      <c r="D82" s="54"/>
+      <c r="E82" s="54"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="39"/>
       <c r="K82" s="39"/>
-      <c r="L82" s="39" t="str">
-        <f>IF(Rådata!M71="","",Rådata!M71)</f>
-        <v/>
-      </c>
-      <c r="M82" s="38" t="str">
-        <f>IF(Rådata!N71="","",Rådata!N71)</f>
-        <v/>
-      </c>
+      <c r="L82" s="39"/>
+      <c r="M82" s="38"/>
     </row>
     <row r="83" spans="1:13" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="38" t="str">
-        <f>IF(Rådata!C72="","",Rådata!C72)</f>
-        <v/>
-      </c>
-      <c r="B83" s="38" t="str">
-        <f>IF(Rådata!B72="","",LEFT(Rådata!B72, 2))</f>
-        <v/>
-      </c>
-      <c r="C83" s="39" t="str">
-        <f>IF(Rådata!E72="","",Rådata!E72)</f>
-        <v/>
-      </c>
-      <c r="D83" s="44" t="str">
-        <f>IF(Rådata!F72="","",Rådata!F72)</f>
-        <v/>
-      </c>
-      <c r="E83" s="44"/>
-      <c r="F83" s="39" t="str">
-        <f>IF(Rådata!G72="","",Rådata!G72)</f>
-        <v/>
-      </c>
-      <c r="G83" s="39" t="str">
-        <f>IF(Rådata!H72="","",Rådata!H72)</f>
-        <v/>
-      </c>
-      <c r="H83" s="38" t="str">
-        <f>IF(Rådata!I72="","",Rådata!I72)</f>
-        <v/>
-      </c>
-      <c r="I83" s="39" t="str">
-        <f>IF(Rådata!J72="","",Rådata!J72)</f>
-        <v/>
-      </c>
-      <c r="J83" s="39" t="str">
-        <f>IF(Rådata!K72="","",Rådata!K72)</f>
-        <v/>
-      </c>
+      <c r="A83" s="38"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="54"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="39"/>
+      <c r="H83" s="38"/>
+      <c r="I83" s="39"/>
+      <c r="J83" s="39"/>
       <c r="K83" s="39"/>
-      <c r="L83" s="39" t="str">
-        <f>IF(Rådata!M72="","",Rådata!M72)</f>
-        <v/>
-      </c>
-      <c r="M83" s="38" t="str">
-        <f>IF(Rådata!N72="","",Rådata!N72)</f>
-        <v/>
-      </c>
+      <c r="L83" s="39"/>
+      <c r="M83" s="38"/>
     </row>
     <row r="84" spans="1:13" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="38" t="str">
-        <f>IF(Rådata!C73="","",Rådata!C73)</f>
-        <v/>
-      </c>
-      <c r="B84" s="38" t="str">
-        <f>IF(Rådata!B73="","",LEFT(Rådata!B73, 2))</f>
-        <v/>
-      </c>
-      <c r="C84" s="39" t="str">
-        <f>IF(Rådata!E73="","",Rådata!E73)</f>
-        <v/>
-      </c>
-      <c r="D84" s="44" t="str">
-        <f>IF(Rådata!F73="","",Rådata!F73)</f>
-        <v/>
-      </c>
-      <c r="E84" s="44"/>
-      <c r="F84" s="39" t="str">
-        <f>IF(Rådata!G73="","",Rådata!G73)</f>
-        <v/>
-      </c>
-      <c r="G84" s="39" t="str">
-        <f>IF(Rådata!H73="","",Rådata!H73)</f>
-        <v/>
-      </c>
-      <c r="H84" s="38" t="str">
-        <f>IF(Rådata!I73="","",Rådata!I73)</f>
-        <v/>
-      </c>
-      <c r="I84" s="39" t="str">
-        <f>IF(Rådata!J73="","",Rådata!J73)</f>
-        <v/>
-      </c>
-      <c r="J84" s="39" t="str">
-        <f>IF(Rådata!K73="","",Rådata!K73)</f>
-        <v/>
-      </c>
+      <c r="A84" s="38"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="54"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="39"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="39"/>
       <c r="K84" s="39"/>
-      <c r="L84" s="39" t="str">
-        <f>IF(Rådata!M73="","",Rådata!M73)</f>
-        <v/>
-      </c>
-      <c r="M84" s="38" t="str">
-        <f>IF(Rådata!N73="","",Rådata!N73)</f>
-        <v/>
-      </c>
+      <c r="L84" s="39"/>
+      <c r="M84" s="38"/>
     </row>
     <row r="85" spans="1:13" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="38" t="str">
-        <f>IF(Rådata!C74="","",Rådata!C74)</f>
-        <v/>
-      </c>
-      <c r="B85" s="38" t="str">
-        <f>IF(Rådata!B74="","",LEFT(Rådata!B74, 2))</f>
-        <v/>
-      </c>
-      <c r="C85" s="39" t="str">
-        <f>IF(Rådata!E74="","",Rådata!E74)</f>
-        <v/>
-      </c>
-      <c r="D85" s="44" t="str">
-        <f>IF(Rådata!F74="","",Rådata!F74)</f>
-        <v/>
-      </c>
-      <c r="E85" s="44"/>
-      <c r="F85" s="39" t="str">
-        <f>IF(Rådata!G74="","",Rådata!G74)</f>
-        <v/>
-      </c>
-      <c r="G85" s="39" t="str">
-        <f>IF(Rådata!H74="","",Rådata!H74)</f>
-        <v/>
-      </c>
-      <c r="H85" s="38" t="str">
-        <f>IF(Rådata!I74="","",Rådata!I74)</f>
-        <v/>
-      </c>
-      <c r="I85" s="39" t="str">
-        <f>IF(Rådata!J74="","",Rådata!J74)</f>
-        <v/>
-      </c>
-      <c r="J85" s="39" t="str">
-        <f>IF(Rådata!K74="","",Rådata!K74)</f>
-        <v/>
-      </c>
+      <c r="A85" s="38"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="54"/>
+      <c r="E85" s="54"/>
+      <c r="F85" s="39"/>
+      <c r="G85" s="39"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="39"/>
       <c r="K85" s="39"/>
-      <c r="L85" s="39" t="str">
-        <f>IF(Rådata!M74="","",Rådata!M74)</f>
-        <v/>
-      </c>
-      <c r="M85" s="38" t="str">
-        <f>IF(Rådata!N74="","",Rådata!N74)</f>
-        <v/>
-      </c>
+      <c r="L85" s="39"/>
+      <c r="M85" s="38"/>
     </row>
     <row r="86" spans="1:13" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="38" t="str">
-        <f>IF(Rådata!C75="","",Rådata!C75)</f>
-        <v/>
-      </c>
-      <c r="B86" s="38" t="str">
-        <f>IF(Rådata!B75="","",LEFT(Rådata!B75, 2))</f>
-        <v/>
-      </c>
-      <c r="C86" s="39" t="str">
-        <f>IF(Rådata!E75="","",Rådata!E75)</f>
-        <v/>
-      </c>
-      <c r="D86" s="44" t="str">
-        <f>IF(Rådata!F75="","",Rådata!F75)</f>
-        <v/>
-      </c>
-      <c r="E86" s="44"/>
-      <c r="F86" s="39" t="str">
-        <f>IF(Rådata!G75="","",Rådata!G75)</f>
-        <v/>
-      </c>
-      <c r="G86" s="39" t="str">
-        <f>IF(Rådata!H75="","",Rådata!H75)</f>
-        <v/>
-      </c>
-      <c r="H86" s="38" t="str">
-        <f>IF(Rådata!I75="","",Rådata!I75)</f>
-        <v/>
-      </c>
-      <c r="I86" s="39" t="str">
-        <f>IF(Rådata!J75="","",Rådata!J75)</f>
-        <v/>
-      </c>
-      <c r="J86" s="39" t="str">
-        <f>IF(Rådata!K75="","",Rådata!K75)</f>
-        <v/>
-      </c>
+      <c r="A86" s="38"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="54"/>
+      <c r="F86" s="39"/>
+      <c r="G86" s="39"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="39"/>
+      <c r="J86" s="39"/>
       <c r="K86" s="39"/>
-      <c r="L86" s="39" t="str">
-        <f>IF(Rådata!M75="","",Rådata!M75)</f>
-        <v/>
-      </c>
-      <c r="M86" s="38" t="str">
-        <f>IF(Rådata!N75="","",Rådata!N75)</f>
-        <v/>
-      </c>
+      <c r="L86" s="39"/>
+      <c r="M86" s="38"/>
     </row>
     <row r="87" spans="1:13" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="38" t="str">
-        <f>IF(Rådata!C76="","",Rådata!C76)</f>
-        <v/>
-      </c>
-      <c r="B87" s="38" t="str">
-        <f>IF(Rådata!B76="","",LEFT(Rådata!B76, 2))</f>
-        <v/>
-      </c>
-      <c r="C87" s="39" t="str">
-        <f>IF(Rådata!E76="","",Rådata!E76)</f>
-        <v/>
-      </c>
-      <c r="D87" s="44" t="str">
-        <f>IF(Rådata!F76="","",Rådata!F76)</f>
-        <v/>
-      </c>
-      <c r="E87" s="44"/>
-      <c r="F87" s="39" t="str">
-        <f>IF(Rådata!G76="","",Rådata!G76)</f>
-        <v/>
-      </c>
-      <c r="G87" s="39" t="str">
-        <f>IF(Rådata!H76="","",Rådata!H76)</f>
-        <v/>
-      </c>
-      <c r="H87" s="38" t="str">
-        <f>IF(Rådata!I76="","",Rådata!I76)</f>
-        <v/>
-      </c>
-      <c r="I87" s="39" t="str">
-        <f>IF(Rådata!J76="","",Rådata!J76)</f>
-        <v/>
-      </c>
-      <c r="J87" s="39" t="str">
-        <f>IF(Rådata!K76="","",Rådata!K76)</f>
-        <v/>
-      </c>
+      <c r="A87" s="38"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="54"/>
+      <c r="E87" s="54"/>
+      <c r="F87" s="39"/>
+      <c r="G87" s="39"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="39"/>
+      <c r="J87" s="39"/>
       <c r="K87" s="39"/>
-      <c r="L87" s="39" t="str">
-        <f>IF(Rådata!M76="","",Rådata!M76)</f>
-        <v/>
-      </c>
-      <c r="M87" s="38" t="str">
-        <f>IF(Rådata!N76="","",Rådata!N76)</f>
-        <v/>
-      </c>
+      <c r="L87" s="39"/>
+      <c r="M87" s="38"/>
     </row>
     <row r="88" spans="1:13" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="38" t="str">
-        <f>IF(Rådata!C77="","",Rådata!C77)</f>
-        <v/>
-      </c>
-      <c r="B88" s="38" t="str">
-        <f>IF(Rådata!B77="","",LEFT(Rådata!B77, 2))</f>
-        <v/>
-      </c>
-      <c r="C88" s="39" t="str">
-        <f>IF(Rådata!E77="","",Rådata!E77)</f>
-        <v/>
-      </c>
-      <c r="D88" s="44" t="str">
-        <f>IF(Rådata!F77="","",Rådata!F77)</f>
-        <v/>
-      </c>
-      <c r="E88" s="44"/>
-      <c r="F88" s="39" t="str">
-        <f>IF(Rådata!G77="","",Rådata!G77)</f>
-        <v/>
-      </c>
-      <c r="G88" s="39" t="str">
-        <f>IF(Rådata!H77="","",Rådata!H77)</f>
-        <v/>
-      </c>
-      <c r="H88" s="38" t="str">
-        <f>IF(Rådata!I77="","",Rådata!I77)</f>
-        <v/>
-      </c>
-      <c r="I88" s="39" t="str">
-        <f>IF(Rådata!J77="","",Rådata!J77)</f>
-        <v/>
-      </c>
-      <c r="J88" s="39" t="str">
-        <f>IF(Rådata!K77="","",Rådata!K77)</f>
-        <v/>
-      </c>
+      <c r="A88" s="38"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="54"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="39"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="39"/>
       <c r="K88" s="39"/>
-      <c r="L88" s="39" t="str">
-        <f>IF(Rådata!M77="","",Rådata!M77)</f>
-        <v/>
-      </c>
-      <c r="M88" s="38" t="str">
-        <f>IF(Rådata!N77="","",Rådata!N77)</f>
-        <v/>
-      </c>
+      <c r="L88" s="39"/>
+      <c r="M88" s="38"/>
     </row>
     <row r="89" spans="1:13" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="38" t="str">
-        <f>IF(Rådata!C78="","",Rådata!C78)</f>
-        <v/>
-      </c>
-      <c r="B89" s="38" t="str">
-        <f>IF(Rådata!B78="","",LEFT(Rådata!B78, 2))</f>
-        <v/>
-      </c>
-      <c r="C89" s="39" t="str">
-        <f>IF(Rådata!E78="","",Rådata!E78)</f>
-        <v/>
-      </c>
-      <c r="D89" s="44" t="str">
-        <f>IF(Rådata!F78="","",Rådata!F78)</f>
-        <v/>
-      </c>
-      <c r="E89" s="44"/>
-      <c r="F89" s="39" t="str">
-        <f>IF(Rådata!G78="","",Rådata!G78)</f>
-        <v/>
-      </c>
-      <c r="G89" s="39" t="str">
-        <f>IF(Rådata!H78="","",Rådata!H78)</f>
-        <v/>
-      </c>
-      <c r="H89" s="38" t="str">
-        <f>IF(Rådata!I78="","",Rådata!I78)</f>
-        <v/>
-      </c>
-      <c r="I89" s="39" t="str">
-        <f>IF(Rådata!J78="","",Rådata!J78)</f>
-        <v/>
-      </c>
-      <c r="J89" s="39" t="str">
-        <f>IF(Rådata!K78="","",Rådata!K78)</f>
-        <v/>
-      </c>
+      <c r="A89" s="38"/>
+      <c r="B89" s="38"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="54"/>
+      <c r="E89" s="54"/>
+      <c r="F89" s="39"/>
+      <c r="G89" s="39"/>
+      <c r="H89" s="38"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="39"/>
       <c r="K89" s="39"/>
-      <c r="L89" s="39" t="str">
-        <f>IF(Rådata!M78="","",Rådata!M78)</f>
-        <v/>
-      </c>
-      <c r="M89" s="38" t="str">
-        <f>IF(Rådata!N78="","",Rådata!N78)</f>
-        <v/>
-      </c>
+      <c r="L89" s="39"/>
+      <c r="M89" s="38"/>
     </row>
     <row r="90" spans="1:13" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="38" t="str">
-        <f>IF(Rådata!C79="","",Rådata!C79)</f>
-        <v/>
-      </c>
-      <c r="B90" s="38" t="str">
-        <f>IF(Rådata!B79="","",LEFT(Rådata!B79, 2))</f>
-        <v/>
-      </c>
-      <c r="C90" s="39" t="str">
-        <f>IF(Rådata!E79="","",Rådata!E79)</f>
-        <v/>
-      </c>
-      <c r="D90" s="44" t="str">
-        <f>IF(Rådata!F79="","",Rådata!F79)</f>
-        <v/>
-      </c>
-      <c r="E90" s="44"/>
-      <c r="F90" s="39" t="str">
-        <f>IF(Rådata!G79="","",Rådata!G79)</f>
-        <v/>
-      </c>
-      <c r="G90" s="39" t="str">
-        <f>IF(Rådata!H79="","",Rådata!H79)</f>
-        <v/>
-      </c>
-      <c r="H90" s="38" t="str">
-        <f>IF(Rådata!I79="","",Rådata!I79)</f>
-        <v/>
-      </c>
-      <c r="I90" s="39" t="str">
-        <f>IF(Rådata!J79="","",Rådata!J79)</f>
-        <v/>
-      </c>
-      <c r="J90" s="39" t="str">
-        <f>IF(Rådata!K79="","",Rådata!K79)</f>
-        <v/>
-      </c>
+      <c r="A90" s="38"/>
+      <c r="B90" s="38"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="54"/>
+      <c r="E90" s="54"/>
+      <c r="F90" s="39"/>
+      <c r="G90" s="39"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="39"/>
       <c r="K90" s="39"/>
-      <c r="L90" s="39" t="str">
-        <f>IF(Rådata!M79="","",Rådata!M79)</f>
-        <v/>
-      </c>
-      <c r="M90" s="38" t="str">
-        <f>IF(Rådata!N79="","",Rådata!N79)</f>
-        <v/>
-      </c>
+      <c r="L90" s="39"/>
+      <c r="M90" s="38"/>
     </row>
     <row r="91" spans="1:13" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="38" t="str">
-        <f>IF(Rådata!C80="","",Rådata!C80)</f>
-        <v/>
-      </c>
-      <c r="B91" s="38" t="str">
-        <f>IF(Rådata!B80="","",LEFT(Rådata!B80, 2))</f>
-        <v/>
-      </c>
-      <c r="C91" s="39" t="str">
-        <f>IF(Rådata!E80="","",Rådata!E80)</f>
-        <v/>
-      </c>
-      <c r="D91" s="44" t="str">
-        <f>IF(Rådata!F80="","",Rådata!F80)</f>
-        <v/>
-      </c>
-      <c r="E91" s="44"/>
-      <c r="F91" s="39" t="str">
-        <f>IF(Rådata!G80="","",Rådata!G80)</f>
-        <v/>
-      </c>
-      <c r="G91" s="39" t="str">
-        <f>IF(Rådata!H80="","",Rådata!H80)</f>
-        <v/>
-      </c>
-      <c r="H91" s="38" t="str">
-        <f>IF(Rådata!I80="","",Rådata!I80)</f>
-        <v/>
-      </c>
-      <c r="I91" s="39" t="str">
-        <f>IF(Rådata!J80="","",Rådata!J80)</f>
-        <v/>
-      </c>
-      <c r="J91" s="39" t="str">
-        <f>IF(Rådata!K80="","",Rådata!K80)</f>
-        <v/>
-      </c>
+      <c r="A91" s="38"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="54"/>
+      <c r="E91" s="54"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="38"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="39"/>
       <c r="K91" s="39"/>
-      <c r="L91" s="39" t="str">
-        <f>IF(Rådata!M80="","",Rådata!M80)</f>
-        <v/>
-      </c>
-      <c r="M91" s="38" t="str">
-        <f>IF(Rådata!N80="","",Rådata!N80)</f>
-        <v/>
-      </c>
+      <c r="L91" s="39"/>
+      <c r="M91" s="38"/>
     </row>
     <row r="92" spans="1:13" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="38" t="str">
-        <f>IF(Rådata!C81="","",Rådata!C81)</f>
-        <v/>
-      </c>
-      <c r="B92" s="38" t="str">
-        <f>IF(Rådata!B81="","",LEFT(Rådata!B81, 2))</f>
-        <v/>
-      </c>
-      <c r="C92" s="39" t="str">
-        <f>IF(Rådata!E81="","",Rådata!E81)</f>
-        <v/>
-      </c>
-      <c r="D92" s="44" t="str">
-        <f>IF(Rådata!F81="","",Rådata!F81)</f>
-        <v/>
-      </c>
-      <c r="E92" s="44"/>
-      <c r="F92" s="39" t="str">
-        <f>IF(Rådata!G81="","",Rådata!G81)</f>
-        <v/>
-      </c>
-      <c r="G92" s="39" t="str">
-        <f>IF(Rådata!H81="","",Rådata!H81)</f>
-        <v/>
-      </c>
-      <c r="H92" s="38" t="str">
-        <f>IF(Rådata!I81="","",Rådata!I81)</f>
-        <v/>
-      </c>
-      <c r="I92" s="39" t="str">
-        <f>IF(Rådata!J81="","",Rådata!J81)</f>
-        <v/>
-      </c>
-      <c r="J92" s="39" t="str">
-        <f>IF(Rådata!K81="","",Rådata!K81)</f>
-        <v/>
-      </c>
+      <c r="A92" s="38"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="54"/>
+      <c r="F92" s="39"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="38"/>
+      <c r="I92" s="39"/>
+      <c r="J92" s="39"/>
       <c r="K92" s="39"/>
-      <c r="L92" s="39" t="str">
-        <f>IF(Rådata!M81="","",Rådata!M81)</f>
-        <v/>
-      </c>
-      <c r="M92" s="38" t="str">
-        <f>IF(Rådata!N81="","",Rådata!N81)</f>
-        <v/>
-      </c>
+      <c r="L92" s="39"/>
+      <c r="M92" s="38"/>
     </row>
     <row r="93" spans="1:13" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="38" t="str">
-        <f>IF(Rådata!C82="","",Rådata!C82)</f>
-        <v/>
-      </c>
-      <c r="B93" s="38" t="str">
-        <f>IF(Rådata!B82="","",LEFT(Rådata!B82, 2))</f>
-        <v/>
-      </c>
-      <c r="C93" s="39" t="str">
-        <f>IF(Rådata!E82="","",Rådata!E82)</f>
-        <v/>
-      </c>
-      <c r="D93" s="44" t="str">
-        <f>IF(Rådata!F82="","",Rådata!F82)</f>
-        <v/>
-      </c>
-      <c r="E93" s="44"/>
-      <c r="F93" s="39" t="str">
-        <f>IF(Rådata!G82="","",Rådata!G82)</f>
-        <v/>
-      </c>
-      <c r="G93" s="39" t="str">
-        <f>IF(Rådata!H82="","",Rådata!H82)</f>
-        <v/>
-      </c>
-      <c r="H93" s="38" t="str">
-        <f>IF(Rådata!I82="","",Rådata!I82)</f>
-        <v/>
-      </c>
-      <c r="I93" s="39" t="str">
-        <f>IF(Rådata!J82="","",Rådata!J82)</f>
-        <v/>
-      </c>
-      <c r="J93" s="39" t="str">
-        <f>IF(Rådata!K82="","",Rådata!K82)</f>
-        <v/>
-      </c>
+      <c r="A93" s="38"/>
+      <c r="B93" s="38"/>
+      <c r="C93" s="39"/>
+      <c r="D93" s="54"/>
+      <c r="E93" s="54"/>
+      <c r="F93" s="39"/>
+      <c r="G93" s="39"/>
+      <c r="H93" s="38"/>
+      <c r="I93" s="39"/>
+      <c r="J93" s="39"/>
       <c r="K93" s="39"/>
-      <c r="L93" s="39" t="str">
-        <f>IF(Rådata!M82="","",Rådata!M82)</f>
-        <v/>
-      </c>
-      <c r="M93" s="38" t="str">
-        <f>IF(Rådata!N82="","",Rådata!N82)</f>
-        <v/>
-      </c>
+      <c r="L93" s="39"/>
+      <c r="M93" s="38"/>
     </row>
     <row r="94" spans="1:13" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="38" t="str">
-        <f>IF(Rådata!C83="","",Rådata!C83)</f>
-        <v/>
-      </c>
-      <c r="B94" s="38" t="str">
-        <f>IF(Rådata!B83="","",LEFT(Rådata!B83, 2))</f>
-        <v/>
-      </c>
-      <c r="C94" s="39" t="str">
-        <f>IF(Rådata!E83="","",Rådata!E83)</f>
-        <v/>
-      </c>
-      <c r="D94" s="44" t="str">
-        <f>IF(Rådata!F83="","",Rådata!F83)</f>
-        <v/>
-      </c>
-      <c r="E94" s="44"/>
-      <c r="F94" s="39" t="str">
-        <f>IF(Rådata!G83="","",Rådata!G83)</f>
-        <v/>
-      </c>
-      <c r="G94" s="39" t="str">
-        <f>IF(Rådata!H83="","",Rådata!H83)</f>
-        <v/>
-      </c>
-      <c r="H94" s="38" t="str">
-        <f>IF(Rådata!I83="","",Rådata!I83)</f>
-        <v/>
-      </c>
-      <c r="I94" s="39" t="str">
-        <f>IF(Rådata!J83="","",Rådata!J83)</f>
-        <v/>
-      </c>
-      <c r="J94" s="39" t="str">
-        <f>IF(Rådata!K83="","",Rådata!K83)</f>
-        <v/>
-      </c>
+      <c r="A94" s="38"/>
+      <c r="B94" s="38"/>
+      <c r="C94" s="39"/>
+      <c r="D94" s="54"/>
+      <c r="E94" s="54"/>
+      <c r="F94" s="39"/>
+      <c r="G94" s="39"/>
+      <c r="H94" s="38"/>
+      <c r="I94" s="39"/>
+      <c r="J94" s="39"/>
       <c r="K94" s="39"/>
-      <c r="L94" s="39" t="str">
-        <f>IF(Rådata!M83="","",Rådata!M83)</f>
-        <v/>
-      </c>
-      <c r="M94" s="38" t="str">
-        <f>IF(Rådata!N83="","",Rådata!N83)</f>
-        <v/>
-      </c>
+      <c r="L94" s="39"/>
+      <c r="M94" s="38"/>
     </row>
     <row r="95" spans="1:13" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="38" t="str">
-        <f>IF(Rådata!C84="","",Rådata!C84)</f>
-        <v/>
-      </c>
-      <c r="B95" s="38" t="str">
-        <f>IF(Rådata!B84="","",LEFT(Rådata!B84, 2))</f>
-        <v/>
-      </c>
-      <c r="C95" s="39" t="str">
-        <f>IF(Rådata!E84="","",Rådata!E84)</f>
-        <v/>
-      </c>
-      <c r="D95" s="44" t="str">
-        <f>IF(Rådata!F84="","",Rådata!F84)</f>
-        <v/>
-      </c>
-      <c r="E95" s="44"/>
-      <c r="F95" s="39" t="str">
-        <f>IF(Rådata!G84="","",Rådata!G84)</f>
-        <v/>
-      </c>
-      <c r="G95" s="39" t="str">
-        <f>IF(Rådata!H84="","",Rådata!H84)</f>
-        <v/>
-      </c>
-      <c r="H95" s="38" t="str">
-        <f>IF(Rådata!I84="","",Rådata!I84)</f>
-        <v/>
-      </c>
-      <c r="I95" s="39" t="str">
-        <f>IF(Rådata!J84="","",Rådata!J84)</f>
-        <v/>
-      </c>
-      <c r="J95" s="39" t="str">
-        <f>IF(Rådata!K84="","",Rådata!K84)</f>
-        <v/>
-      </c>
+      <c r="A95" s="38"/>
+      <c r="B95" s="38"/>
+      <c r="C95" s="39"/>
+      <c r="D95" s="54"/>
+      <c r="E95" s="54"/>
+      <c r="F95" s="39"/>
+      <c r="G95" s="39"/>
+      <c r="H95" s="38"/>
+      <c r="I95" s="39"/>
+      <c r="J95" s="39"/>
       <c r="K95" s="39"/>
-      <c r="L95" s="39" t="str">
-        <f>IF(Rådata!M84="","",Rådata!M84)</f>
-        <v/>
-      </c>
-      <c r="M95" s="38" t="str">
-        <f>IF(Rådata!N84="","",Rådata!N84)</f>
-        <v/>
-      </c>
+      <c r="L95" s="39"/>
+      <c r="M95" s="38"/>
     </row>
     <row r="96" spans="1:13" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="38" t="str">
-        <f>IF(Rådata!C85="","",Rådata!C85)</f>
-        <v/>
-      </c>
-      <c r="B96" s="38" t="str">
-        <f>IF(Rådata!B85="","",LEFT(Rådata!B85, 2))</f>
-        <v/>
-      </c>
-      <c r="C96" s="39" t="str">
-        <f>IF(Rådata!E85="","",Rådata!E85)</f>
-        <v/>
-      </c>
-      <c r="D96" s="44" t="str">
-        <f>IF(Rådata!F85="","",Rådata!F85)</f>
-        <v/>
-      </c>
-      <c r="E96" s="44"/>
-      <c r="F96" s="39" t="str">
-        <f>IF(Rådata!G85="","",Rådata!G85)</f>
-        <v/>
-      </c>
-      <c r="G96" s="39" t="str">
-        <f>IF(Rådata!H85="","",Rådata!H85)</f>
-        <v/>
-      </c>
-      <c r="H96" s="38" t="str">
-        <f>IF(Rådata!I85="","",Rådata!I85)</f>
-        <v/>
-      </c>
-      <c r="I96" s="39" t="str">
-        <f>IF(Rådata!J85="","",Rådata!J85)</f>
-        <v/>
-      </c>
-      <c r="J96" s="39" t="str">
-        <f>IF(Rådata!K85="","",Rådata!K85)</f>
-        <v/>
-      </c>
+      <c r="A96" s="38"/>
+      <c r="B96" s="38"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="54"/>
+      <c r="E96" s="54"/>
+      <c r="F96" s="39"/>
+      <c r="G96" s="39"/>
+      <c r="H96" s="38"/>
+      <c r="I96" s="39"/>
+      <c r="J96" s="39"/>
       <c r="K96" s="39"/>
-      <c r="L96" s="39" t="str">
-        <f>IF(Rådata!M85="","",Rådata!M85)</f>
-        <v/>
-      </c>
-      <c r="M96" s="38" t="str">
-        <f>IF(Rådata!N85="","",Rådata!N85)</f>
-        <v/>
-      </c>
+      <c r="L96" s="39"/>
+      <c r="M96" s="38"/>
     </row>
     <row r="97" spans="1:13" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="38" t="str">
-        <f>IF(Rådata!C86="","",Rådata!C86)</f>
-        <v/>
-      </c>
-      <c r="B97" s="38" t="str">
-        <f>IF(Rådata!B86="","",LEFT(Rådata!B86, 2))</f>
-        <v/>
-      </c>
-      <c r="C97" s="39" t="str">
-        <f>IF(Rådata!E86="","",Rådata!E86)</f>
-        <v/>
-      </c>
-      <c r="D97" s="44" t="str">
-        <f>IF(Rådata!F86="","",Rådata!F86)</f>
-        <v/>
-      </c>
-      <c r="E97" s="44"/>
-      <c r="F97" s="39" t="str">
-        <f>IF(Rådata!G86="","",Rådata!G86)</f>
-        <v/>
-      </c>
-      <c r="G97" s="39" t="str">
-        <f>IF(Rådata!H86="","",Rådata!H86)</f>
-        <v/>
-      </c>
-      <c r="H97" s="38" t="str">
-        <f>IF(Rådata!I86="","",Rådata!I86)</f>
-        <v/>
-      </c>
-      <c r="I97" s="39" t="str">
-        <f>IF(Rådata!J86="","",Rådata!J86)</f>
-        <v/>
-      </c>
-      <c r="J97" s="39" t="str">
-        <f>IF(Rådata!K86="","",Rådata!K86)</f>
-        <v/>
-      </c>
+      <c r="A97" s="38"/>
+      <c r="B97" s="38"/>
+      <c r="C97" s="39"/>
+      <c r="D97" s="54"/>
+      <c r="E97" s="54"/>
+      <c r="F97" s="39"/>
+      <c r="G97" s="39"/>
+      <c r="H97" s="38"/>
+      <c r="I97" s="39"/>
+      <c r="J97" s="39"/>
       <c r="K97" s="39"/>
-      <c r="L97" s="39" t="str">
-        <f>IF(Rådata!M86="","",Rådata!M86)</f>
-        <v/>
-      </c>
-      <c r="M97" s="38" t="str">
-        <f>IF(Rådata!N86="","",Rådata!N86)</f>
-        <v/>
-      </c>
+      <c r="L97" s="39"/>
+      <c r="M97" s="38"/>
     </row>
     <row r="98" spans="1:13" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="38" t="str">
-        <f>IF(Rådata!C87="","",Rådata!C87)</f>
-        <v/>
-      </c>
-      <c r="B98" s="38" t="str">
-        <f>IF(Rådata!B87="","",LEFT(Rådata!B87, 2))</f>
-        <v/>
-      </c>
-      <c r="C98" s="39" t="str">
-        <f>IF(Rådata!E87="","",Rådata!E87)</f>
-        <v/>
-      </c>
-      <c r="D98" s="44" t="str">
-        <f>IF(Rådata!F87="","",Rådata!F87)</f>
-        <v/>
-      </c>
-      <c r="E98" s="44"/>
-      <c r="F98" s="39" t="str">
-        <f>IF(Rådata!G87="","",Rådata!G87)</f>
-        <v/>
-      </c>
-      <c r="G98" s="39" t="str">
-        <f>IF(Rådata!H87="","",Rådata!H87)</f>
-        <v/>
-      </c>
-      <c r="H98" s="38" t="str">
-        <f>IF(Rådata!I87="","",Rådata!I87)</f>
-        <v/>
-      </c>
-      <c r="I98" s="39" t="str">
-        <f>IF(Rådata!J87="","",Rådata!J87)</f>
-        <v/>
-      </c>
-      <c r="J98" s="39" t="str">
-        <f>IF(Rådata!K87="","",Rådata!K87)</f>
-        <v/>
-      </c>
+      <c r="A98" s="38"/>
+      <c r="B98" s="38"/>
+      <c r="C98" s="39"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="54"/>
+      <c r="F98" s="39"/>
+      <c r="G98" s="39"/>
+      <c r="H98" s="38"/>
+      <c r="I98" s="39"/>
+      <c r="J98" s="39"/>
       <c r="K98" s="39"/>
-      <c r="L98" s="39" t="str">
-        <f>IF(Rådata!M87="","",Rådata!M87)</f>
-        <v/>
-      </c>
-      <c r="M98" s="38" t="str">
-        <f>IF(Rådata!N87="","",Rådata!N87)</f>
-        <v/>
-      </c>
+      <c r="L98" s="39"/>
+      <c r="M98" s="38"/>
     </row>
     <row r="99" spans="1:13" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="38" t="str">
-        <f>IF(Rådata!C88="","",Rådata!C88)</f>
-        <v/>
-      </c>
-      <c r="B99" s="38" t="str">
-        <f>IF(Rådata!B88="","",LEFT(Rådata!B88, 2))</f>
-        <v/>
-      </c>
-      <c r="C99" s="39" t="str">
-        <f>IF(Rådata!E88="","",Rådata!E88)</f>
-        <v/>
-      </c>
-      <c r="D99" s="44" t="str">
-        <f>IF(Rådata!F88="","",Rådata!F88)</f>
-        <v/>
-      </c>
-      <c r="E99" s="44"/>
-      <c r="F99" s="39" t="str">
-        <f>IF(Rådata!G88="","",Rådata!G88)</f>
-        <v/>
-      </c>
-      <c r="G99" s="39" t="str">
-        <f>IF(Rådata!H88="","",Rådata!H88)</f>
-        <v/>
-      </c>
-      <c r="H99" s="38" t="str">
-        <f>IF(Rådata!I88="","",Rådata!I88)</f>
-        <v/>
-      </c>
-      <c r="I99" s="39" t="str">
-        <f>IF(Rådata!J88="","",Rådata!J88)</f>
-        <v/>
-      </c>
-      <c r="J99" s="39" t="str">
-        <f>IF(Rådata!K88="","",Rådata!K88)</f>
-        <v/>
-      </c>
+      <c r="A99" s="38"/>
+      <c r="B99" s="38"/>
+      <c r="C99" s="39"/>
+      <c r="D99" s="54"/>
+      <c r="E99" s="54"/>
+      <c r="F99" s="39"/>
+      <c r="G99" s="39"/>
+      <c r="H99" s="38"/>
+      <c r="I99" s="39"/>
+      <c r="J99" s="39"/>
       <c r="K99" s="39"/>
-      <c r="L99" s="39" t="str">
-        <f>IF(Rådata!M88="","",Rådata!M88)</f>
-        <v/>
-      </c>
-      <c r="M99" s="38" t="str">
-        <f>IF(Rådata!N88="","",Rådata!N88)</f>
-        <v/>
-      </c>
+      <c r="L99" s="39"/>
+      <c r="M99" s="38"/>
     </row>
     <row r="100" spans="1:13" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="38" t="str">
-        <f>IF(Rådata!C89="","",Rådata!C89)</f>
-        <v/>
-      </c>
-      <c r="B100" s="38" t="str">
-        <f>IF(Rådata!B89="","",LEFT(Rådata!B89, 2))</f>
-        <v/>
-      </c>
-      <c r="C100" s="39" t="str">
-        <f>IF(Rådata!E89="","",Rådata!E89)</f>
-        <v/>
-      </c>
-      <c r="D100" s="44" t="str">
-        <f>IF(Rådata!F89="","",Rådata!F89)</f>
-        <v/>
-      </c>
-      <c r="E100" s="44"/>
-      <c r="F100" s="39" t="str">
-        <f>IF(Rådata!G89="","",Rådata!G89)</f>
-        <v/>
-      </c>
-      <c r="G100" s="39" t="str">
-        <f>IF(Rådata!H89="","",Rådata!H89)</f>
-        <v/>
-      </c>
-      <c r="H100" s="38" t="str">
-        <f>IF(Rådata!I89="","",Rådata!I89)</f>
-        <v/>
-      </c>
-      <c r="I100" s="39" t="str">
-        <f>IF(Rådata!J89="","",Rådata!J89)</f>
-        <v/>
-      </c>
-      <c r="J100" s="39" t="str">
-        <f>IF(Rådata!K89="","",Rådata!K89)</f>
-        <v/>
-      </c>
+      <c r="A100" s="38"/>
+      <c r="B100" s="38"/>
+      <c r="C100" s="39"/>
+      <c r="D100" s="54"/>
+      <c r="E100" s="54"/>
+      <c r="F100" s="39"/>
+      <c r="G100" s="39"/>
+      <c r="H100" s="38"/>
+      <c r="I100" s="39"/>
+      <c r="J100" s="39"/>
       <c r="K100" s="39"/>
-      <c r="L100" s="39" t="str">
-        <f>IF(Rådata!M89="","",Rådata!M89)</f>
-        <v/>
-      </c>
-      <c r="M100" s="38" t="str">
-        <f>IF(Rådata!N89="","",Rådata!N89)</f>
-        <v/>
-      </c>
+      <c r="L100" s="39"/>
+      <c r="M100" s="38"/>
     </row>
     <row r="101" spans="1:13" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="38" t="str">
-        <f>IF(Rådata!C90="","",Rådata!C90)</f>
-        <v/>
-      </c>
-      <c r="B101" s="38" t="str">
-        <f>IF(Rådata!B90="","",LEFT(Rådata!B90, 2))</f>
-        <v/>
-      </c>
-      <c r="C101" s="39" t="str">
-        <f>IF(Rådata!E90="","",Rådata!E90)</f>
-        <v/>
-      </c>
-      <c r="D101" s="44" t="str">
-        <f>IF(Rådata!F90="","",Rådata!F90)</f>
-        <v/>
-      </c>
-      <c r="E101" s="44"/>
-      <c r="F101" s="39" t="str">
-        <f>IF(Rådata!G90="","",Rådata!G90)</f>
-        <v/>
-      </c>
-      <c r="G101" s="39" t="str">
-        <f>IF(Rådata!H90="","",Rådata!H90)</f>
-        <v/>
-      </c>
-      <c r="H101" s="38" t="str">
-        <f>IF(Rådata!I90="","",Rådata!I90)</f>
-        <v/>
-      </c>
-      <c r="I101" s="39" t="str">
-        <f>IF(Rådata!J90="","",Rådata!J90)</f>
-        <v/>
-      </c>
-      <c r="J101" s="39" t="str">
-        <f>IF(Rådata!K90="","",Rådata!K90)</f>
-        <v/>
-      </c>
+      <c r="A101" s="38"/>
+      <c r="B101" s="38"/>
+      <c r="C101" s="39"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="54"/>
+      <c r="F101" s="39"/>
+      <c r="G101" s="39"/>
+      <c r="H101" s="38"/>
+      <c r="I101" s="39"/>
+      <c r="J101" s="39"/>
       <c r="K101" s="39"/>
-      <c r="L101" s="39" t="str">
-        <f>IF(Rådata!M90="","",Rådata!M90)</f>
-        <v/>
-      </c>
-      <c r="M101" s="38" t="str">
-        <f>IF(Rådata!N90="","",Rådata!N90)</f>
-        <v/>
-      </c>
+      <c r="L101" s="39"/>
+      <c r="M101" s="38"/>
     </row>
     <row r="102" spans="1:13" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="38" t="str">
-        <f>IF(Rådata!C91="","",Rådata!C91)</f>
-        <v/>
-      </c>
-      <c r="B102" s="38" t="str">
-        <f>IF(Rådata!B91="","",LEFT(Rådata!B91, 2))</f>
-        <v/>
-      </c>
-      <c r="C102" s="39" t="str">
-        <f>IF(Rådata!E91="","",Rådata!E91)</f>
-        <v/>
-      </c>
-      <c r="D102" s="44" t="str">
-        <f>IF(Rådata!F91="","",Rådata!F91)</f>
-        <v/>
-      </c>
-      <c r="E102" s="44"/>
-      <c r="F102" s="39" t="str">
-        <f>IF(Rådata!G91="","",Rådata!G91)</f>
-        <v/>
-      </c>
-      <c r="G102" s="39" t="str">
-        <f>IF(Rådata!H91="","",Rådata!H91)</f>
-        <v/>
-      </c>
-      <c r="H102" s="38" t="str">
-        <f>IF(Rådata!I91="","",Rådata!I91)</f>
-        <v/>
-      </c>
-      <c r="I102" s="39" t="str">
-        <f>IF(Rådata!J91="","",Rådata!J91)</f>
-        <v/>
-      </c>
-      <c r="J102" s="39" t="str">
-        <f>IF(Rådata!K91="","",Rådata!K91)</f>
-        <v/>
-      </c>
+      <c r="A102" s="38"/>
+      <c r="B102" s="38"/>
+      <c r="C102" s="39"/>
+      <c r="D102" s="54"/>
+      <c r="E102" s="54"/>
+      <c r="F102" s="39"/>
+      <c r="G102" s="39"/>
+      <c r="H102" s="38"/>
+      <c r="I102" s="39"/>
+      <c r="J102" s="39"/>
       <c r="K102" s="39"/>
-      <c r="L102" s="39" t="str">
-        <f>IF(Rådata!M91="","",Rådata!M91)</f>
-        <v/>
-      </c>
-      <c r="M102" s="38" t="str">
-        <f>IF(Rådata!N91="","",Rådata!N91)</f>
-        <v/>
-      </c>
+      <c r="L102" s="39"/>
+      <c r="M102" s="38"/>
     </row>
     <row r="103" spans="1:13" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="38" t="str">
-        <f>IF(Rådata!C92="","",Rådata!C92)</f>
-        <v/>
-      </c>
-      <c r="B103" s="38" t="str">
-        <f>IF(Rådata!B92="","",LEFT(Rådata!B92, 2))</f>
-        <v/>
-      </c>
-      <c r="C103" s="39" t="str">
-        <f>IF(Rådata!E92="","",Rådata!E92)</f>
-        <v/>
-      </c>
-      <c r="D103" s="44" t="str">
-        <f>IF(Rådata!F92="","",Rådata!F92)</f>
-        <v/>
-      </c>
-      <c r="E103" s="44"/>
-      <c r="F103" s="39" t="str">
-        <f>IF(Rådata!G92="","",Rådata!G92)</f>
-        <v/>
-      </c>
-      <c r="G103" s="39" t="str">
-        <f>IF(Rådata!H92="","",Rådata!H92)</f>
-        <v/>
-      </c>
-      <c r="H103" s="38" t="str">
-        <f>IF(Rådata!I92="","",Rådata!I92)</f>
-        <v/>
-      </c>
-      <c r="I103" s="39" t="str">
-        <f>IF(Rådata!J92="","",Rådata!J92)</f>
-        <v/>
-      </c>
-      <c r="J103" s="39" t="str">
-        <f>IF(Rådata!K92="","",Rådata!K92)</f>
-        <v/>
-      </c>
+      <c r="A103" s="38"/>
+      <c r="B103" s="38"/>
+      <c r="C103" s="39"/>
+      <c r="D103" s="54"/>
+      <c r="E103" s="54"/>
+      <c r="F103" s="39"/>
+      <c r="G103" s="39"/>
+      <c r="H103" s="38"/>
+      <c r="I103" s="39"/>
+      <c r="J103" s="39"/>
       <c r="K103" s="39"/>
-      <c r="L103" s="39" t="str">
-        <f>IF(Rådata!M92="","",Rådata!M92)</f>
-        <v/>
-      </c>
-      <c r="M103" s="38" t="str">
-        <f>IF(Rådata!N92="","",Rådata!N92)</f>
-        <v/>
-      </c>
+      <c r="L103" s="39"/>
+      <c r="M103" s="38"/>
     </row>
     <row r="104" spans="1:13" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="38" t="str">
-        <f>IF(Rådata!C93="","",Rådata!C93)</f>
-        <v/>
-      </c>
-      <c r="B104" s="38" t="str">
-        <f>IF(Rådata!B93="","",LEFT(Rådata!B93, 2))</f>
-        <v/>
-      </c>
-      <c r="C104" s="39" t="str">
-        <f>IF(Rådata!E93="","",Rådata!E93)</f>
-        <v/>
-      </c>
-      <c r="D104" s="44" t="str">
-        <f>IF(Rådata!F93="","",Rådata!F93)</f>
-        <v/>
-      </c>
-      <c r="E104" s="44"/>
-      <c r="F104" s="39" t="str">
-        <f>IF(Rådata!G93="","",Rådata!G93)</f>
-        <v/>
-      </c>
-      <c r="G104" s="39" t="str">
-        <f>IF(Rådata!H93="","",Rådata!H93)</f>
-        <v/>
-      </c>
-      <c r="H104" s="38" t="str">
-        <f>IF(Rådata!I93="","",Rådata!I93)</f>
-        <v/>
-      </c>
-      <c r="I104" s="39" t="str">
-        <f>IF(Rådata!J93="","",Rådata!J93)</f>
-        <v/>
-      </c>
-      <c r="J104" s="39" t="str">
-        <f>IF(Rådata!K93="","",Rådata!K93)</f>
-        <v/>
-      </c>
+      <c r="A104" s="38"/>
+      <c r="B104" s="38"/>
+      <c r="C104" s="39"/>
+      <c r="D104" s="54"/>
+      <c r="E104" s="54"/>
+      <c r="F104" s="39"/>
+      <c r="G104" s="39"/>
+      <c r="H104" s="38"/>
+      <c r="I104" s="39"/>
+      <c r="J104" s="39"/>
       <c r="K104" s="39"/>
-      <c r="L104" s="39" t="str">
-        <f>IF(Rådata!M93="","",Rådata!M93)</f>
-        <v/>
-      </c>
-      <c r="M104" s="38" t="str">
-        <f>IF(Rådata!N93="","",Rådata!N93)</f>
-        <v/>
-      </c>
+      <c r="L104" s="39"/>
+      <c r="M104" s="38"/>
     </row>
     <row r="105" spans="1:13" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="38" t="str">
-        <f>IF(Rådata!C94="","",Rådata!C94)</f>
-        <v/>
-      </c>
-      <c r="B105" s="38" t="str">
-        <f>IF(Rådata!B94="","",LEFT(Rådata!B94, 2))</f>
-        <v/>
-      </c>
-      <c r="C105" s="39" t="str">
-        <f>IF(Rådata!E94="","",Rådata!E94)</f>
-        <v/>
-      </c>
-      <c r="D105" s="44" t="str">
-        <f>IF(Rådata!F94="","",Rådata!F94)</f>
-        <v/>
-      </c>
-      <c r="E105" s="44"/>
-      <c r="F105" s="39" t="str">
-        <f>IF(Rådata!G94="","",Rådata!G94)</f>
-        <v/>
-      </c>
-      <c r="G105" s="39" t="str">
-        <f>IF(Rådata!H94="","",Rådata!H94)</f>
-        <v/>
-      </c>
-      <c r="H105" s="38" t="str">
-        <f>IF(Rådata!I94="","",Rådata!I94)</f>
-        <v/>
-      </c>
-      <c r="I105" s="39" t="str">
-        <f>IF(Rådata!J94="","",Rådata!J94)</f>
-        <v/>
-      </c>
-      <c r="J105" s="39" t="str">
-        <f>IF(Rådata!K94="","",Rådata!K94)</f>
-        <v/>
-      </c>
+      <c r="A105" s="38"/>
+      <c r="B105" s="38"/>
+      <c r="C105" s="39"/>
+      <c r="D105" s="54"/>
+      <c r="E105" s="54"/>
+      <c r="F105" s="39"/>
+      <c r="G105" s="39"/>
+      <c r="H105" s="38"/>
+      <c r="I105" s="39"/>
+      <c r="J105" s="39"/>
       <c r="K105" s="39"/>
-      <c r="L105" s="39" t="str">
-        <f>IF(Rådata!M94="","",Rådata!M94)</f>
-        <v/>
-      </c>
-      <c r="M105" s="38" t="str">
-        <f>IF(Rådata!N94="","",Rådata!N94)</f>
-        <v/>
-      </c>
+      <c r="L105" s="39"/>
+      <c r="M105" s="38"/>
     </row>
     <row r="106" spans="1:13" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="38" t="str">
-        <f>IF(Rådata!C95="","",Rådata!C95)</f>
-        <v/>
-      </c>
-      <c r="B106" s="38" t="str">
-        <f>IF(Rådata!B95="","",LEFT(Rådata!B95, 2))</f>
-        <v/>
-      </c>
-      <c r="C106" s="39" t="str">
-        <f>IF(Rådata!E95="","",Rådata!E95)</f>
-        <v/>
-      </c>
-      <c r="D106" s="44" t="str">
-        <f>IF(Rådata!F95="","",Rådata!F95)</f>
-        <v/>
-      </c>
-      <c r="E106" s="44"/>
-      <c r="F106" s="39" t="str">
-        <f>IF(Rådata!G95="","",Rådata!G95)</f>
-        <v/>
-      </c>
-      <c r="G106" s="39" t="str">
-        <f>IF(Rådata!H95="","",Rådata!H95)</f>
-        <v/>
-      </c>
-      <c r="H106" s="38" t="str">
-        <f>IF(Rådata!I95="","",Rådata!I95)</f>
-        <v/>
-      </c>
-      <c r="I106" s="39" t="str">
-        <f>IF(Rådata!J95="","",Rådata!J95)</f>
-        <v/>
-      </c>
-      <c r="J106" s="39" t="str">
-        <f>IF(Rådata!K95="","",Rådata!K95)</f>
-        <v/>
-      </c>
+      <c r="A106" s="38"/>
+      <c r="B106" s="38"/>
+      <c r="C106" s="39"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="54"/>
+      <c r="F106" s="39"/>
+      <c r="G106" s="39"/>
+      <c r="H106" s="38"/>
+      <c r="I106" s="39"/>
+      <c r="J106" s="39"/>
       <c r="K106" s="39"/>
-      <c r="L106" s="39" t="str">
-        <f>IF(Rådata!M95="","",Rådata!M95)</f>
-        <v/>
-      </c>
-      <c r="M106" s="38" t="str">
-        <f>IF(Rådata!N95="","",Rådata!N95)</f>
-        <v/>
-      </c>
+      <c r="L106" s="39"/>
+      <c r="M106" s="38"/>
     </row>
     <row r="107" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="38" t="str">
-        <f>IF(Rådata!C96="","",Rådata!C96)</f>
-        <v/>
-      </c>
-      <c r="B107" s="38" t="str">
-        <f>IF(Rådata!B96="","",LEFT(Rådata!B96, 2))</f>
-        <v/>
-      </c>
-      <c r="C107" s="39" t="str">
-        <f>IF(Rådata!E96="","",Rådata!E96)</f>
-        <v/>
-      </c>
-      <c r="D107" s="44" t="str">
-        <f>IF(Rådata!F96="","",Rådata!F96)</f>
-        <v/>
-      </c>
-      <c r="E107" s="44"/>
-      <c r="F107" s="39" t="str">
-        <f>IF(Rådata!G96="","",Rådata!G96)</f>
-        <v/>
-      </c>
-      <c r="G107" s="39" t="str">
-        <f>IF(Rådata!H96="","",Rådata!H96)</f>
-        <v/>
-      </c>
-      <c r="H107" s="38" t="str">
-        <f>IF(Rådata!I96="","",Rådata!I96)</f>
-        <v/>
-      </c>
-      <c r="I107" s="39" t="str">
-        <f>IF(Rådata!J96="","",Rådata!J96)</f>
-        <v/>
-      </c>
-      <c r="J107" s="39" t="str">
-        <f>IF(Rådata!K96="","",Rådata!K96)</f>
-        <v/>
-      </c>
+      <c r="A107" s="38"/>
+      <c r="B107" s="38"/>
+      <c r="C107" s="39"/>
+      <c r="D107" s="54"/>
+      <c r="E107" s="54"/>
+      <c r="F107" s="39"/>
+      <c r="G107" s="39"/>
+      <c r="H107" s="38"/>
+      <c r="I107" s="39"/>
+      <c r="J107" s="39"/>
       <c r="K107" s="39"/>
-      <c r="L107" s="39" t="str">
-        <f>IF(Rådata!M96="","",Rådata!M96)</f>
-        <v/>
-      </c>
-      <c r="M107" s="38" t="str">
-        <f>IF(Rådata!N96="","",Rådata!N96)</f>
-        <v/>
-      </c>
+      <c r="L107" s="39"/>
+      <c r="M107" s="38"/>
     </row>
     <row r="108" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="38" t="str">
-        <f>IF(Rådata!C97="","",Rådata!C97)</f>
-        <v/>
-      </c>
-      <c r="B108" s="38" t="str">
-        <f>IF(Rådata!B97="","",LEFT(Rådata!B97, 2))</f>
-        <v/>
-      </c>
-      <c r="C108" s="39" t="str">
-        <f>IF(Rådata!E97="","",Rådata!E97)</f>
-        <v/>
-      </c>
-      <c r="D108" s="44" t="str">
-        <f>IF(Rådata!F97="","",Rådata!F97)</f>
-        <v/>
-      </c>
-      <c r="E108" s="44"/>
-      <c r="F108" s="39" t="str">
-        <f>IF(Rådata!G97="","",Rådata!G97)</f>
-        <v/>
-      </c>
-      <c r="G108" s="39" t="str">
-        <f>IF(Rådata!H97="","",Rådata!H97)</f>
-        <v/>
-      </c>
-      <c r="H108" s="38" t="str">
-        <f>IF(Rådata!I97="","",Rådata!I97)</f>
-        <v/>
-      </c>
-      <c r="I108" s="39" t="str">
-        <f>IF(Rådata!J97="","",Rådata!J97)</f>
-        <v/>
-      </c>
-      <c r="J108" s="39" t="str">
-        <f>IF(Rådata!K97="","",Rådata!K97)</f>
-        <v/>
-      </c>
+      <c r="A108" s="38"/>
+      <c r="B108" s="38"/>
+      <c r="C108" s="39"/>
+      <c r="D108" s="54"/>
+      <c r="E108" s="54"/>
+      <c r="F108" s="39"/>
+      <c r="G108" s="39"/>
+      <c r="H108" s="38"/>
+      <c r="I108" s="39"/>
+      <c r="J108" s="39"/>
       <c r="K108" s="39"/>
-      <c r="L108" s="39" t="str">
-        <f>IF(Rådata!M97="","",Rådata!M97)</f>
-        <v/>
-      </c>
-      <c r="M108" s="38" t="str">
-        <f>IF(Rådata!N97="","",Rådata!N97)</f>
-        <v/>
-      </c>
+      <c r="L108" s="39"/>
+      <c r="M108" s="38"/>
     </row>
     <row r="109" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="38" t="str">
-        <f>IF(Rådata!C98="","",Rådata!C98)</f>
-        <v/>
-      </c>
-      <c r="B109" s="38" t="str">
-        <f>IF(Rådata!B98="","",LEFT(Rådata!B98, 2))</f>
-        <v/>
-      </c>
-      <c r="C109" s="39" t="str">
-        <f>IF(Rådata!E98="","",Rådata!E98)</f>
-        <v/>
-      </c>
-      <c r="D109" s="44" t="str">
-        <f>IF(Rådata!F98="","",Rådata!F98)</f>
-        <v/>
-      </c>
-      <c r="E109" s="44"/>
-      <c r="F109" s="39" t="str">
-        <f>IF(Rådata!G98="","",Rådata!G98)</f>
-        <v/>
-      </c>
-      <c r="G109" s="39" t="str">
-        <f>IF(Rådata!H98="","",Rådata!H98)</f>
-        <v/>
-      </c>
-      <c r="H109" s="38" t="str">
-        <f>IF(Rådata!I98="","",Rådata!I98)</f>
-        <v/>
-      </c>
-      <c r="I109" s="39" t="str">
-        <f>IF(Rådata!J98="","",Rådata!J98)</f>
-        <v/>
-      </c>
-      <c r="J109" s="39" t="str">
-        <f>IF(Rådata!K98="","",Rådata!K98)</f>
-        <v/>
-      </c>
+      <c r="A109" s="38"/>
+      <c r="B109" s="38"/>
+      <c r="C109" s="39"/>
+      <c r="D109" s="54"/>
+      <c r="E109" s="54"/>
+      <c r="F109" s="39"/>
+      <c r="G109" s="39"/>
+      <c r="H109" s="38"/>
+      <c r="I109" s="39"/>
+      <c r="J109" s="39"/>
       <c r="K109" s="39"/>
-      <c r="L109" s="39" t="str">
-        <f>IF(Rådata!M98="","",Rådata!M98)</f>
-        <v/>
-      </c>
-      <c r="M109" s="38" t="str">
-        <f>IF(Rådata!N98="","",Rådata!N98)</f>
-        <v/>
-      </c>
+      <c r="L109" s="39"/>
+      <c r="M109" s="38"/>
     </row>
     <row r="110" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="38" t="str">
-        <f>IF(Rådata!C99="","",Rådata!C99)</f>
-        <v/>
-      </c>
-      <c r="B110" s="38" t="str">
-        <f>IF(Rådata!B99="","",LEFT(Rådata!B99, 2))</f>
-        <v/>
-      </c>
-      <c r="C110" s="39" t="str">
-        <f>IF(Rådata!E99="","",Rådata!E99)</f>
-        <v/>
-      </c>
-      <c r="D110" s="44" t="str">
-        <f>IF(Rådata!F99="","",Rådata!F99)</f>
-        <v/>
-      </c>
-      <c r="E110" s="44"/>
-      <c r="F110" s="39" t="str">
-        <f>IF(Rådata!G99="","",Rådata!G99)</f>
-        <v/>
-      </c>
-      <c r="G110" s="39" t="str">
-        <f>IF(Rådata!H99="","",Rådata!H99)</f>
-        <v/>
-      </c>
-      <c r="H110" s="38" t="str">
-        <f>IF(Rådata!I99="","",Rådata!I99)</f>
-        <v/>
-      </c>
-      <c r="I110" s="39" t="str">
-        <f>IF(Rådata!J99="","",Rådata!J99)</f>
-        <v/>
-      </c>
-      <c r="J110" s="39" t="str">
-        <f>IF(Rådata!K99="","",Rådata!K99)</f>
-        <v/>
-      </c>
+      <c r="A110" s="38"/>
+      <c r="B110" s="38"/>
+      <c r="C110" s="39"/>
+      <c r="D110" s="54"/>
+      <c r="E110" s="54"/>
+      <c r="F110" s="39"/>
+      <c r="G110" s="39"/>
+      <c r="H110" s="38"/>
+      <c r="I110" s="39"/>
+      <c r="J110" s="39"/>
       <c r="K110" s="39"/>
-      <c r="L110" s="39" t="str">
-        <f>IF(Rådata!M99="","",Rådata!M99)</f>
-        <v/>
-      </c>
-      <c r="M110" s="38" t="str">
-        <f>IF(Rådata!N99="","",Rådata!N99)</f>
-        <v/>
-      </c>
+      <c r="L110" s="39"/>
+      <c r="M110" s="38"/>
     </row>
     <row r="111" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="41" t="str">
-        <f>IF(Rådata!C100="","",Rådata!C100)</f>
-        <v/>
-      </c>
-      <c r="B111" s="41" t="str">
-        <f>IF(Rådata!B100="","",LEFT(Rådata!B100, 2))</f>
-        <v/>
-      </c>
-      <c r="C111" s="42" t="str">
-        <f>IF(Rådata!E100="","",Rådata!E100)</f>
-        <v/>
-      </c>
-      <c r="D111" s="45" t="str">
-        <f>IF(Rådata!F100="","",Rådata!F100)</f>
-        <v/>
-      </c>
-      <c r="E111" s="45"/>
-      <c r="F111" s="42" t="str">
-        <f>IF(Rådata!G100="","",Rådata!G100)</f>
-        <v/>
-      </c>
-      <c r="G111" s="42" t="str">
-        <f>IF(Rådata!H100="","",Rådata!H100)</f>
-        <v/>
-      </c>
-      <c r="H111" s="41" t="str">
-        <f>IF(Rådata!I100="","",Rådata!I100)</f>
-        <v/>
-      </c>
-      <c r="I111" s="42" t="str">
-        <f>IF(Rådata!J100="","",Rådata!J100)</f>
-        <v/>
-      </c>
-      <c r="J111" s="42" t="str">
-        <f>IF(Rådata!K100="","",Rådata!K100)</f>
-        <v/>
-      </c>
+      <c r="A111" s="41"/>
+      <c r="B111" s="41"/>
+      <c r="C111" s="42"/>
+      <c r="D111" s="55"/>
+      <c r="E111" s="55"/>
+      <c r="F111" s="42"/>
+      <c r="G111" s="42"/>
+      <c r="H111" s="41"/>
+      <c r="I111" s="42"/>
+      <c r="J111" s="42"/>
       <c r="K111" s="42"/>
-      <c r="L111" s="42" t="str">
-        <f>IF(Rådata!M100="","",Rådata!M100)</f>
-        <v/>
-      </c>
-      <c r="M111" s="41" t="str">
-        <f>IF(Rådata!N100="","",Rådata!N100)</f>
-        <v/>
-      </c>
+      <c r="L111" s="42"/>
+      <c r="M111" s="41"/>
     </row>
     <row r="112" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="122">
-    <mergeCell ref="E1:H3"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
@@ -10347,72 +7081,38 @@
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="E1:H3"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <conditionalFormatting sqref="J12:K111">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">

--- a/hydrofia/hydrofia_ph_template.xlsx
+++ b/hydrofia/hydrofia_ph_template.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mw\git\hydrofia\hydrofia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92053806-DE1E-4DD6-8259-A5421435230A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89A0025-D37E-4ACB-A73C-E48C200C9CA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="165" windowWidth="15600" windowHeight="11610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Rådata" sheetId="2" r:id="rId1"/>
+    <sheet name="Rådata" sheetId="4" r:id="rId1"/>
     <sheet name="Rapport för utskrift" sheetId="1" r:id="rId2"/>
     <sheet name="Verifiering" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">OFFSET('Rapport för utskrift'!$A$1,0,0,12+COUNTA(Rådata!$A:$A),12)</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">OFFSET('Rapport för utskrift'!$A$1,0,0,12+COUNTA(#REF!),12)</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Rapport för utskrift'!$1:$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="834">
   <si>
     <t>Djup</t>
   </si>
@@ -2575,9 +2575,6 @@
     <t>Lagt till villkorsstyrd formatering (fyllda celler) för kolumnen syrgashalt</t>
   </si>
   <si>
-    <t>Kopiera in rådata här</t>
-  </si>
-  <si>
     <t>191212/JLyc</t>
   </si>
   <si>
@@ -2594,9 +2591,6 @@
   </si>
   <si>
     <t>pH</t>
-  </si>
-  <si>
-    <t>Kopiera in CRM-data här</t>
   </si>
   <si>
     <t>Djup (ref)</t>
@@ -2942,6 +2936,26 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2971,26 +2985,6 @@
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3405,1111 +3399,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <tabColor theme="6"/>
-  </sheetPr>
-  <dimension ref="A1:P148"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B184CC-18AA-4DD3-91F3-47A3A5EC6B5D}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="5.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="G1" s="2"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="G2" s="2"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-    </row>
-    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="G3" s="2"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="G4" s="2"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-    </row>
-    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="G5" s="2"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="G6" s="2"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="9"/>
-    </row>
-    <row r="7" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="G7" s="2"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="G8" s="2"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-    </row>
-    <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="2"/>
-      <c r="E9" s="3"/>
-      <c r="G9" s="2"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-    </row>
-    <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="2"/>
-      <c r="E10" s="3"/>
-      <c r="G10" s="2"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="N10" s="8"/>
-    </row>
-    <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="2"/>
-      <c r="E11" s="3"/>
-      <c r="G11" s="2"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="2"/>
-      <c r="E12" s="3"/>
-      <c r="G12" s="2"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="2"/>
-      <c r="E13" s="3"/>
-      <c r="G13" s="2"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="2"/>
-      <c r="E14" s="3"/>
-      <c r="G14" s="2"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="N14" s="8"/>
-    </row>
-    <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="2"/>
-      <c r="E15" s="3"/>
-      <c r="G15" s="2"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="N15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="2"/>
-      <c r="E16" s="3"/>
-      <c r="G16" s="2"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="N16" s="8"/>
-    </row>
-    <row r="17" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="2"/>
-      <c r="E17" s="3"/>
-      <c r="G17" s="2"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="N17" s="8"/>
-    </row>
-    <row r="18" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="2"/>
-      <c r="E18" s="3"/>
-      <c r="G18" s="2"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="N18" s="8"/>
-    </row>
-    <row r="19" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="2"/>
-      <c r="E19" s="3"/>
-      <c r="G19" s="2"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="N19" s="8"/>
-    </row>
-    <row r="20" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="2"/>
-      <c r="E20" s="3"/>
-      <c r="G20" s="2"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="N20" s="8"/>
-    </row>
-    <row r="21" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="2"/>
-      <c r="E21" s="3"/>
-      <c r="G21" s="2"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="N21" s="8"/>
-    </row>
-    <row r="22" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="2"/>
-      <c r="E22" s="3"/>
-      <c r="G22" s="2"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="N22" s="8"/>
-    </row>
-    <row r="23" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="2"/>
-      <c r="E23" s="3"/>
-      <c r="G23" s="2"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="N23" s="8"/>
-    </row>
-    <row r="24" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="2"/>
-      <c r="E24" s="3"/>
-      <c r="G24" s="2"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="N24" s="8"/>
-    </row>
-    <row r="25" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="2"/>
-      <c r="E25" s="3"/>
-      <c r="G25" s="2"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="N25" s="8"/>
-    </row>
-    <row r="26" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="2"/>
-      <c r="E26" s="3"/>
-      <c r="G26" s="2"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="N26" s="8"/>
-    </row>
-    <row r="27" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="2"/>
-      <c r="E27" s="3"/>
-      <c r="G27" s="2"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="N27" s="8"/>
-    </row>
-    <row r="28" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="2"/>
-      <c r="E28" s="3"/>
-      <c r="G28" s="2"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="N28" s="8"/>
-    </row>
-    <row r="29" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="2"/>
-      <c r="E29" s="3"/>
-      <c r="G29" s="2"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="N29" s="8"/>
-    </row>
-    <row r="30" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="2"/>
-      <c r="E30" s="3"/>
-      <c r="G30" s="2"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="N30" s="8"/>
-    </row>
-    <row r="31" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="2"/>
-      <c r="E31" s="3"/>
-      <c r="G31" s="2"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="N31" s="8"/>
-    </row>
-    <row r="32" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="2"/>
-      <c r="E32" s="3"/>
-      <c r="G32" s="2"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="N32" s="8"/>
-    </row>
-    <row r="33" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="2"/>
-      <c r="E33" s="3"/>
-      <c r="G33" s="2"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="N33" s="8"/>
-    </row>
-    <row r="34" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="2"/>
-      <c r="E34" s="3"/>
-      <c r="G34" s="2"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="N34" s="8"/>
-    </row>
-    <row r="35" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="2"/>
-      <c r="E35" s="3"/>
-      <c r="G35" s="2"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="N35" s="8"/>
-    </row>
-    <row r="36" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="2"/>
-      <c r="E36" s="3"/>
-      <c r="G36" s="2"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="N36" s="8"/>
-    </row>
-    <row r="37" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="2"/>
-      <c r="E37" s="3"/>
-      <c r="G37" s="2"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="N37" s="8"/>
-    </row>
-    <row r="38" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="2"/>
-      <c r="E38" s="3"/>
-      <c r="G38" s="2"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="N38" s="8"/>
-    </row>
-    <row r="39" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="2"/>
-      <c r="E39" s="3"/>
-      <c r="G39" s="2"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="N39" s="8"/>
-    </row>
-    <row r="40" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="2"/>
-      <c r="E40" s="3"/>
-      <c r="G40" s="2"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="N40" s="8"/>
-    </row>
-    <row r="41" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="2"/>
-      <c r="E41" s="3"/>
-      <c r="G41" s="2"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="N41" s="8"/>
-    </row>
-    <row r="42" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="2"/>
-      <c r="E42" s="3"/>
-      <c r="G42" s="2"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="N42" s="8"/>
-    </row>
-    <row r="43" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="2"/>
-      <c r="E43" s="3"/>
-      <c r="G43" s="2"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="N43" s="8"/>
-    </row>
-    <row r="44" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="2"/>
-      <c r="E44" s="3"/>
-      <c r="G44" s="2"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="N44" s="8"/>
-    </row>
-    <row r="45" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="2"/>
-      <c r="E45" s="3"/>
-      <c r="G45" s="2"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="N45" s="8"/>
-    </row>
-    <row r="46" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="2"/>
-      <c r="E46" s="3"/>
-      <c r="G46" s="2"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="N46" s="8"/>
-    </row>
-    <row r="47" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="2"/>
-      <c r="E47" s="3"/>
-      <c r="G47" s="2"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="N47" s="8"/>
-    </row>
-    <row r="48" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="2"/>
-      <c r="E48" s="3"/>
-      <c r="G48" s="2"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="N48" s="8"/>
-    </row>
-    <row r="49" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="2"/>
-      <c r="E49" s="3"/>
-      <c r="G49" s="2"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="N49" s="8"/>
-    </row>
-    <row r="50" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C50" s="2"/>
-      <c r="E50" s="3"/>
-      <c r="G50" s="2"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="N50" s="8"/>
-    </row>
-    <row r="51" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="2"/>
-      <c r="E51" s="3"/>
-      <c r="G51" s="2"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="N51" s="8"/>
-    </row>
-    <row r="52" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="2"/>
-      <c r="E52" s="3"/>
-      <c r="G52" s="2"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="N52" s="8"/>
-    </row>
-    <row r="53" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="2"/>
-      <c r="E53" s="3"/>
-      <c r="G53" s="2"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="N53" s="8"/>
-    </row>
-    <row r="54" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="2"/>
-      <c r="E54" s="3"/>
-      <c r="G54" s="2"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="N54" s="8"/>
-    </row>
-    <row r="55" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="2"/>
-      <c r="E55" s="3"/>
-      <c r="G55" s="2"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="N55" s="8"/>
-    </row>
-    <row r="56" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="2"/>
-      <c r="E56" s="3"/>
-      <c r="G56" s="2"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="N56" s="8"/>
-    </row>
-    <row r="57" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="2"/>
-      <c r="E57" s="3"/>
-      <c r="G57" s="2"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="N57" s="8"/>
-    </row>
-    <row r="58" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C58" s="2"/>
-      <c r="E58" s="3"/>
-      <c r="G58" s="2"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="N58" s="8"/>
-    </row>
-    <row r="59" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C59" s="2"/>
-      <c r="E59" s="3"/>
-      <c r="G59" s="2"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="N59" s="8"/>
-    </row>
-    <row r="60" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C60" s="2"/>
-      <c r="E60" s="3"/>
-      <c r="G60" s="2"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="N60" s="8"/>
-    </row>
-    <row r="61" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C61" s="2"/>
-      <c r="E61" s="3"/>
-      <c r="G61" s="2"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="N61" s="8"/>
-    </row>
-    <row r="62" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C62" s="2"/>
-      <c r="E62" s="3"/>
-      <c r="G62" s="2"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="N62" s="8"/>
-    </row>
-    <row r="63" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="2"/>
-      <c r="E63" s="3"/>
-      <c r="G63" s="2"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="N63" s="8"/>
-    </row>
-    <row r="64" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C64" s="2"/>
-      <c r="E64" s="3"/>
-      <c r="G64" s="2"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="N64" s="8"/>
-    </row>
-    <row r="65" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C65" s="2"/>
-      <c r="E65" s="3"/>
-      <c r="G65" s="2"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="N65" s="8"/>
-    </row>
-    <row r="66" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="2"/>
-      <c r="E66" s="3"/>
-      <c r="G66" s="2"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="N66" s="8"/>
-    </row>
-    <row r="67" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C67" s="2"/>
-      <c r="E67" s="3"/>
-      <c r="G67" s="2"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="N67" s="8"/>
-    </row>
-    <row r="68" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="2"/>
-      <c r="E68" s="3"/>
-      <c r="G68" s="2"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="N68" s="8"/>
-    </row>
-    <row r="69" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="2"/>
-      <c r="E69" s="3"/>
-      <c r="G69" s="2"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="N69" s="8"/>
-    </row>
-    <row r="70" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C70" s="2"/>
-      <c r="E70" s="3"/>
-      <c r="G70" s="2"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="N70" s="8"/>
-    </row>
-    <row r="71" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C71" s="2"/>
-      <c r="E71" s="3"/>
-      <c r="G71" s="2"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="N71" s="8"/>
-    </row>
-    <row r="72" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="2"/>
-      <c r="E72" s="3"/>
-      <c r="G72" s="2"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="N72" s="8"/>
-    </row>
-    <row r="73" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C73" s="2"/>
-      <c r="E73" s="3"/>
-      <c r="G73" s="2"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="N73" s="8"/>
-    </row>
-    <row r="74" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="2"/>
-      <c r="E74" s="3"/>
-      <c r="G74" s="2"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="N74" s="8"/>
-    </row>
-    <row r="75" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="2"/>
-      <c r="E75" s="3"/>
-      <c r="G75" s="2"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="N75" s="8"/>
-    </row>
-    <row r="76" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C76" s="2"/>
-      <c r="E76" s="3"/>
-      <c r="G76" s="2"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="N76" s="8"/>
-    </row>
-    <row r="77" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C77" s="2"/>
-      <c r="E77" s="3"/>
-      <c r="G77" s="2"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="N77" s="8"/>
-    </row>
-    <row r="78" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C78" s="2"/>
-      <c r="E78" s="3"/>
-      <c r="G78" s="2"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="N78" s="8"/>
-    </row>
-    <row r="79" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C79" s="2"/>
-      <c r="E79" s="3"/>
-      <c r="G79" s="2"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="N79" s="8"/>
-    </row>
-    <row r="80" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C80" s="2"/>
-      <c r="E80" s="3"/>
-      <c r="G80" s="2"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="N80" s="8"/>
-    </row>
-    <row r="81" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C81" s="2"/>
-      <c r="E81" s="3"/>
-      <c r="G81" s="2"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="N81" s="8"/>
-    </row>
-    <row r="82" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C82" s="2"/>
-      <c r="E82" s="3"/>
-      <c r="G82" s="2"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="N82" s="8"/>
-    </row>
-    <row r="83" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C83" s="2"/>
-      <c r="E83" s="3"/>
-      <c r="G83" s="2"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="N83" s="8"/>
-    </row>
-    <row r="84" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C84" s="2"/>
-      <c r="E84" s="3"/>
-      <c r="G84" s="2"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="N84" s="8"/>
-    </row>
-    <row r="85" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C85" s="2"/>
-      <c r="E85" s="3"/>
-      <c r="G85" s="2"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="N85" s="8"/>
-    </row>
-    <row r="86" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C86" s="2"/>
-      <c r="E86" s="3"/>
-      <c r="G86" s="2"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="N86" s="8"/>
-    </row>
-    <row r="87" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C87" s="2"/>
-      <c r="E87" s="3"/>
-      <c r="G87" s="2"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="N87" s="8"/>
-    </row>
-    <row r="88" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C88" s="2"/>
-      <c r="E88" s="3"/>
-      <c r="G88" s="2"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="N88" s="8"/>
-    </row>
-    <row r="89" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C89" s="2"/>
-      <c r="E89" s="3"/>
-      <c r="G89" s="2"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="N89" s="8"/>
-    </row>
-    <row r="90" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C90" s="2"/>
-      <c r="E90" s="3"/>
-      <c r="G90" s="2"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="N90" s="8"/>
-    </row>
-    <row r="91" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C91" s="2"/>
-      <c r="E91" s="3"/>
-      <c r="G91" s="2"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="N91" s="8"/>
-    </row>
-    <row r="92" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C92" s="2"/>
-      <c r="E92" s="3"/>
-      <c r="G92" s="2"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="N92" s="8"/>
-    </row>
-    <row r="93" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C93" s="2"/>
-      <c r="E93" s="3"/>
-      <c r="G93" s="2"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-      <c r="N93" s="8"/>
-    </row>
-    <row r="94" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C94" s="2"/>
-      <c r="E94" s="3"/>
-      <c r="G94" s="2"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="N94" s="8"/>
-    </row>
-    <row r="95" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C95" s="2"/>
-      <c r="E95" s="3"/>
-      <c r="G95" s="2"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-      <c r="N95" s="8"/>
-    </row>
-    <row r="96" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C96" s="2"/>
-      <c r="E96" s="3"/>
-      <c r="G96" s="2"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="N96" s="8"/>
-    </row>
-    <row r="97" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C97" s="2"/>
-      <c r="E97" s="3"/>
-      <c r="G97" s="2"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="N97" s="8"/>
-    </row>
-    <row r="98" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C98" s="2"/>
-      <c r="E98" s="3"/>
-      <c r="G98" s="2"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="N98" s="8"/>
-    </row>
-    <row r="99" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C99" s="2"/>
-      <c r="E99" s="3"/>
-      <c r="G99" s="2"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="N99" s="8"/>
-    </row>
-    <row r="100" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C100" s="2"/>
-      <c r="E100" s="3"/>
-      <c r="G100" s="2"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="N100" s="8"/>
-    </row>
-    <row r="101" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C101" s="2"/>
-      <c r="G101" s="2"/>
-    </row>
-    <row r="102" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C102" s="2"/>
-      <c r="G102" s="2"/>
-    </row>
-    <row r="103" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C103" s="2"/>
-      <c r="G103" s="2"/>
-    </row>
-    <row r="104" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C104" s="2"/>
-      <c r="G104" s="2"/>
-    </row>
-    <row r="105" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C105" s="2"/>
-      <c r="G105" s="2"/>
-    </row>
-    <row r="106" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C106" s="2"/>
-      <c r="G106" s="2"/>
-    </row>
-    <row r="107" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C107" s="2"/>
-      <c r="G107" s="2"/>
-    </row>
-    <row r="108" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C108" s="2"/>
-      <c r="G108" s="2"/>
-    </row>
-    <row r="109" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C109" s="2"/>
-      <c r="G109" s="2"/>
-    </row>
-    <row r="110" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C110" s="2"/>
-      <c r="G110" s="2"/>
-    </row>
-    <row r="111" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C111" s="2"/>
-      <c r="G111" s="2"/>
-    </row>
-    <row r="112" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C112" s="2"/>
-      <c r="G112" s="2"/>
-    </row>
-    <row r="113" spans="4:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D113" s="3"/>
-    </row>
-    <row r="114" spans="4:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D114" s="3"/>
-    </row>
-    <row r="115" spans="4:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D115" s="3"/>
-    </row>
-    <row r="116" spans="4:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D116" s="3"/>
-    </row>
-    <row r="117" spans="4:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D117" s="3"/>
-    </row>
-    <row r="118" spans="4:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D118" s="3"/>
-    </row>
-    <row r="119" spans="4:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D119" s="3"/>
-    </row>
-    <row r="120" spans="4:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D120" s="3"/>
-    </row>
-    <row r="121" spans="4:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D121" s="3"/>
-    </row>
-    <row r="122" spans="4:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D122" s="3"/>
-    </row>
-    <row r="123" spans="4:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D123" s="3"/>
-    </row>
-    <row r="124" spans="4:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D124" s="3"/>
-    </row>
-    <row r="125" spans="4:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D125" s="3"/>
-    </row>
-    <row r="126" spans="4:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D126" s="3"/>
-    </row>
-    <row r="127" spans="4:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D127" s="3"/>
-    </row>
-    <row r="128" spans="4:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D128" s="3"/>
-    </row>
-    <row r="129" spans="4:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D129" s="3"/>
-    </row>
-    <row r="130" spans="4:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D130" s="3"/>
-    </row>
-    <row r="131" spans="4:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D131" s="3"/>
-    </row>
-    <row r="132" spans="4:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D132" s="3"/>
-    </row>
-    <row r="133" spans="4:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D133" s="3"/>
-    </row>
-    <row r="134" spans="4:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D134" s="3"/>
-    </row>
-    <row r="135" spans="4:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D135" s="3"/>
-    </row>
-    <row r="136" spans="4:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D136" s="3"/>
-    </row>
-    <row r="137" spans="4:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D137" s="3"/>
-    </row>
-    <row r="138" spans="4:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D138" s="3"/>
-    </row>
-    <row r="139" spans="4:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D139" s="3"/>
-    </row>
-    <row r="140" spans="4:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D140" s="3"/>
-    </row>
-    <row r="141" spans="4:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D141" s="3"/>
-    </row>
-    <row r="142" spans="4:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D142" s="3"/>
-    </row>
-    <row r="143" spans="4:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D143" s="3"/>
-    </row>
-    <row r="144" spans="4:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D144" s="3"/>
-    </row>
-    <row r="145" spans="4:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D145" s="3"/>
-    </row>
-    <row r="146" spans="4:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D146" s="3"/>
-    </row>
-    <row r="147" spans="4:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D147" s="3"/>
-    </row>
-    <row r="148" spans="4:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D148" s="3"/>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4521,7 +3420,7 @@
   <dimension ref="A1:EK112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4543,15 +3442,15 @@
     <row r="1" spans="1:141" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="38" t="s">
-        <v>828</v>
-      </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="K1" s="46" t="s">
-        <v>835</v>
+      <c r="D1" s="35"/>
+      <c r="E1" s="44" t="s">
+        <v>827</v>
+      </c>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="K1" s="36" t="s">
+        <v>833</v>
       </c>
       <c r="M1" s="12"/>
       <c r="S1" s="13"/>
@@ -4679,12 +3578,12 @@
       <c r="EK1" s="13"/>
     </row>
     <row r="2" spans="1:141" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="45"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="K2" s="46" t="s">
+      <c r="D2" s="35"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="K2" s="36" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="12"/>
@@ -4817,14 +3716,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="14"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
       <c r="M3" s="12"/>
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
@@ -4951,13 +3850,13 @@
       <c r="EK3" s="13"/>
     </row>
     <row r="4" spans="1:141" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="45"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
       <c r="S4" s="13"/>
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
@@ -5083,27 +3982,27 @@
       <c r="EK4" s="13"/>
     </row>
     <row r="5" spans="1:141" s="4" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="42" t="s">
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42" t="s">
+      <c r="G5" s="48"/>
+      <c r="H5" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42" t="s">
+      <c r="I5" s="48"/>
+      <c r="J5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
       <c r="N5" s="15"/>
       <c r="S5" s="16"/>
       <c r="T5" s="16"/>
@@ -5230,19 +4129,19 @@
       <c r="EK5" s="16"/>
     </row>
     <row r="6" spans="1:141" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="31"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
       <c r="N6" s="17"/>
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
@@ -5369,34 +4268,34 @@
       <c r="EK6" s="13"/>
     </row>
     <row r="7" spans="1:141" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="31"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
     </row>
     <row r="8" spans="1:141" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="31"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
     </row>
     <row r="9" spans="1:141" s="13" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
@@ -5414,46 +4313,46 @@
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="1:141" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="45" t="s">
         <v>416</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="39" t="s">
+      <c r="B10" s="49"/>
+      <c r="C10" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="39"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="30" t="s">
         <v>0</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="H10" s="21" t="s">
+        <v>828</v>
+      </c>
+      <c r="I10" s="21" t="s">
         <v>829</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="J10" s="21" t="s">
+        <v>832</v>
+      </c>
+      <c r="K10" s="21" t="s">
         <v>830</v>
       </c>
-      <c r="J10" s="21" t="s">
-        <v>834</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>831</v>
-      </c>
       <c r="L10" s="22"/>
-      <c r="M10" s="39" t="s">
+      <c r="M10" s="45" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:141" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="23" t="s">
         <v>5</v>
       </c>
@@ -5463,7 +4362,7 @@
       <c r="H11" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="I11" s="50" t="s">
+      <c r="I11" s="40" t="s">
         <v>417</v>
       </c>
       <c r="J11" s="24" t="s">
@@ -5471,14 +4370,14 @@
       </c>
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
-      <c r="M11" s="40"/>
+      <c r="M11" s="46"/>
     </row>
     <row r="12" spans="1:141" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
@@ -5492,8 +4391,8 @@
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
@@ -5507,8 +4406,8 @@
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
@@ -5522,8 +4421,8 @@
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
       <c r="H15" s="32"/>
@@ -5537,8 +4436,8 @@
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
       <c r="H16" s="32"/>
@@ -5552,8 +4451,8 @@
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
@@ -5567,8 +4466,8 @@
       <c r="A18" s="32"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
@@ -5582,8 +4481,8 @@
       <c r="A19" s="32"/>
       <c r="B19" s="32"/>
       <c r="C19" s="32"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
       <c r="H19" s="32"/>
@@ -5597,8 +4496,8 @@
       <c r="A20" s="32"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
       <c r="H20" s="32"/>
@@ -5612,8 +4511,8 @@
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
       <c r="H21" s="32"/>
@@ -5627,8 +4526,8 @@
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
@@ -5642,8 +4541,8 @@
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
       <c r="H23" s="32"/>
@@ -5657,8 +4556,8 @@
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
@@ -5672,8 +4571,8 @@
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
       <c r="H25" s="32"/>
@@ -5687,8 +4586,8 @@
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
@@ -5702,8 +4601,8 @@
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
       <c r="H27" s="32"/>
@@ -5717,8 +4616,8 @@
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
@@ -5732,8 +4631,8 @@
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
       <c r="H29" s="32"/>
@@ -5747,8 +4646,8 @@
       <c r="A30" s="32"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
       <c r="F30" s="32"/>
       <c r="G30" s="32"/>
       <c r="H30" s="32"/>
@@ -5762,8 +4661,8 @@
       <c r="A31" s="32"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
       <c r="F31" s="32"/>
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
@@ -5777,8 +4676,8 @@
       <c r="A32" s="32"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
       <c r="F32" s="32"/>
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
@@ -5792,8 +4691,8 @@
       <c r="A33" s="32"/>
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
       <c r="F33" s="32"/>
       <c r="G33" s="32"/>
       <c r="H33" s="32"/>
@@ -5807,8 +4706,8 @@
       <c r="A34" s="32"/>
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
       <c r="F34" s="32"/>
       <c r="G34" s="32"/>
       <c r="H34" s="32"/>
@@ -5822,8 +4721,8 @@
       <c r="A35" s="32"/>
       <c r="B35" s="32"/>
       <c r="C35" s="32"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
       <c r="F35" s="32"/>
       <c r="G35" s="32"/>
       <c r="H35" s="32"/>
@@ -5837,8 +4736,8 @@
       <c r="A36" s="32"/>
       <c r="B36" s="32"/>
       <c r="C36" s="32"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
       <c r="F36" s="32"/>
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
@@ -5852,8 +4751,8 @@
       <c r="A37" s="32"/>
       <c r="B37" s="32"/>
       <c r="C37" s="32"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
       <c r="F37" s="32"/>
       <c r="G37" s="32"/>
       <c r="H37" s="32"/>
@@ -5867,8 +4766,8 @@
       <c r="A38" s="32"/>
       <c r="B38" s="32"/>
       <c r="C38" s="32"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
       <c r="H38" s="32"/>
@@ -5882,8 +4781,8 @@
       <c r="A39" s="32"/>
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
       <c r="H39" s="32"/>
@@ -5897,8 +4796,8 @@
       <c r="A40" s="32"/>
       <c r="B40" s="32"/>
       <c r="C40" s="32"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
       <c r="F40" s="32"/>
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
@@ -5912,8 +4811,8 @@
       <c r="A41" s="32"/>
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
       <c r="F41" s="32"/>
       <c r="G41" s="32"/>
       <c r="H41" s="32"/>
@@ -5927,8 +4826,8 @@
       <c r="A42" s="32"/>
       <c r="B42" s="32"/>
       <c r="C42" s="32"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
       <c r="F42" s="32"/>
       <c r="G42" s="32"/>
       <c r="H42" s="32"/>
@@ -5942,8 +4841,8 @@
       <c r="A43" s="32"/>
       <c r="B43" s="32"/>
       <c r="C43" s="32"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
@@ -5957,8 +4856,8 @@
       <c r="A44" s="32"/>
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
       <c r="F44" s="32"/>
       <c r="G44" s="32"/>
       <c r="H44" s="32"/>
@@ -5972,8 +4871,8 @@
       <c r="A45" s="32"/>
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
       <c r="F45" s="32"/>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
@@ -5987,8 +4886,8 @@
       <c r="A46" s="32"/>
       <c r="B46" s="32"/>
       <c r="C46" s="32"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
       <c r="F46" s="32"/>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
@@ -6002,8 +4901,8 @@
       <c r="A47" s="32"/>
       <c r="B47" s="32"/>
       <c r="C47" s="32"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
       <c r="F47" s="32"/>
       <c r="G47" s="32"/>
       <c r="H47" s="32"/>
@@ -6017,8 +4916,8 @@
       <c r="A48" s="32"/>
       <c r="B48" s="32"/>
       <c r="C48" s="32"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
       <c r="F48" s="32"/>
       <c r="G48" s="32"/>
       <c r="H48" s="32"/>
@@ -6032,8 +4931,8 @@
       <c r="A49" s="32"/>
       <c r="B49" s="32"/>
       <c r="C49" s="32"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
       <c r="F49" s="32"/>
       <c r="G49" s="32"/>
       <c r="H49" s="32"/>
@@ -6047,8 +4946,8 @@
       <c r="A50" s="32"/>
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
       <c r="F50" s="32"/>
       <c r="G50" s="32"/>
       <c r="H50" s="32"/>
@@ -6062,8 +4961,8 @@
       <c r="A51" s="32"/>
       <c r="B51" s="32"/>
       <c r="C51" s="32"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
       <c r="F51" s="32"/>
       <c r="G51" s="32"/>
       <c r="H51" s="32"/>
@@ -6077,8 +4976,8 @@
       <c r="A52" s="32"/>
       <c r="B52" s="32"/>
       <c r="C52" s="32"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
       <c r="F52" s="32"/>
       <c r="G52" s="32"/>
       <c r="H52" s="32"/>
@@ -6092,8 +4991,8 @@
       <c r="A53" s="32"/>
       <c r="B53" s="32"/>
       <c r="C53" s="32"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
       <c r="F53" s="32"/>
       <c r="G53" s="32"/>
       <c r="H53" s="32"/>
@@ -6107,8 +5006,8 @@
       <c r="A54" s="32"/>
       <c r="B54" s="32"/>
       <c r="C54" s="32"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
       <c r="F54" s="32"/>
       <c r="G54" s="32"/>
       <c r="H54" s="32"/>
@@ -6122,8 +5021,8 @@
       <c r="A55" s="32"/>
       <c r="B55" s="32"/>
       <c r="C55" s="32"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
       <c r="F55" s="32"/>
       <c r="G55" s="32"/>
       <c r="H55" s="32"/>
@@ -6137,8 +5036,8 @@
       <c r="A56" s="32"/>
       <c r="B56" s="32"/>
       <c r="C56" s="32"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
       <c r="F56" s="32"/>
       <c r="G56" s="32"/>
       <c r="H56" s="32"/>
@@ -6152,8 +5051,8 @@
       <c r="A57" s="32"/>
       <c r="B57" s="32"/>
       <c r="C57" s="32"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
       <c r="F57" s="32"/>
       <c r="G57" s="32"/>
       <c r="H57" s="32"/>
@@ -6167,8 +5066,8 @@
       <c r="A58" s="32"/>
       <c r="B58" s="32"/>
       <c r="C58" s="32"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
       <c r="F58" s="32"/>
       <c r="G58" s="32"/>
       <c r="H58" s="32"/>
@@ -6182,8 +5081,8 @@
       <c r="A59" s="32"/>
       <c r="B59" s="32"/>
       <c r="C59" s="32"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
       <c r="F59" s="32"/>
       <c r="G59" s="32"/>
       <c r="H59" s="32"/>
@@ -6197,8 +5096,8 @@
       <c r="A60" s="32"/>
       <c r="B60" s="32"/>
       <c r="C60" s="32"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
       <c r="F60" s="32"/>
       <c r="G60" s="32"/>
       <c r="H60" s="32"/>
@@ -6212,8 +5111,8 @@
       <c r="A61" s="32"/>
       <c r="B61" s="32"/>
       <c r="C61" s="32"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
       <c r="F61" s="32"/>
       <c r="G61" s="32"/>
       <c r="H61" s="32"/>
@@ -6227,8 +5126,8 @@
       <c r="A62" s="32"/>
       <c r="B62" s="32"/>
       <c r="C62" s="32"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
       <c r="F62" s="32"/>
       <c r="G62" s="32"/>
       <c r="H62" s="32"/>
@@ -6242,8 +5141,8 @@
       <c r="A63" s="32"/>
       <c r="B63" s="32"/>
       <c r="C63" s="32"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
       <c r="F63" s="32"/>
       <c r="G63" s="32"/>
       <c r="H63" s="32"/>
@@ -6257,8 +5156,8 @@
       <c r="A64" s="32"/>
       <c r="B64" s="32"/>
       <c r="C64" s="32"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
       <c r="F64" s="32"/>
       <c r="G64" s="32"/>
       <c r="H64" s="32"/>
@@ -6272,8 +5171,8 @@
       <c r="A65" s="32"/>
       <c r="B65" s="32"/>
       <c r="C65" s="32"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
       <c r="F65" s="32"/>
       <c r="G65" s="32"/>
       <c r="H65" s="32"/>
@@ -6287,8 +5186,8 @@
       <c r="A66" s="32"/>
       <c r="B66" s="32"/>
       <c r="C66" s="32"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
       <c r="F66" s="32"/>
       <c r="G66" s="32"/>
       <c r="H66" s="32"/>
@@ -6302,8 +5201,8 @@
       <c r="A67" s="32"/>
       <c r="B67" s="32"/>
       <c r="C67" s="32"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
       <c r="F67" s="32"/>
       <c r="G67" s="32"/>
       <c r="H67" s="32"/>
@@ -6317,8 +5216,8 @@
       <c r="A68" s="32"/>
       <c r="B68" s="32"/>
       <c r="C68" s="32"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="41"/>
       <c r="F68" s="32"/>
       <c r="G68" s="32"/>
       <c r="H68" s="32"/>
@@ -6332,8 +5231,8 @@
       <c r="A69" s="32"/>
       <c r="B69" s="32"/>
       <c r="C69" s="32"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="41"/>
       <c r="F69" s="32"/>
       <c r="G69" s="32"/>
       <c r="H69" s="32"/>
@@ -6347,8 +5246,8 @@
       <c r="A70" s="32"/>
       <c r="B70" s="32"/>
       <c r="C70" s="32"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
       <c r="F70" s="32"/>
       <c r="G70" s="32"/>
       <c r="H70" s="32"/>
@@ -6362,8 +5261,8 @@
       <c r="A71" s="32"/>
       <c r="B71" s="32"/>
       <c r="C71" s="32"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
       <c r="F71" s="32"/>
       <c r="G71" s="32"/>
       <c r="H71" s="32"/>
@@ -6377,8 +5276,8 @@
       <c r="A72" s="32"/>
       <c r="B72" s="32"/>
       <c r="C72" s="32"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
       <c r="F72" s="32"/>
       <c r="G72" s="32"/>
       <c r="H72" s="32"/>
@@ -6392,8 +5291,8 @@
       <c r="A73" s="32"/>
       <c r="B73" s="32"/>
       <c r="C73" s="32"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="41"/>
       <c r="F73" s="32"/>
       <c r="G73" s="32"/>
       <c r="H73" s="32"/>
@@ -6407,8 +5306,8 @@
       <c r="A74" s="32"/>
       <c r="B74" s="32"/>
       <c r="C74" s="32"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="41"/>
       <c r="F74" s="32"/>
       <c r="G74" s="32"/>
       <c r="H74" s="32"/>
@@ -6422,8 +5321,8 @@
       <c r="A75" s="32"/>
       <c r="B75" s="32"/>
       <c r="C75" s="32"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="35"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
       <c r="F75" s="32"/>
       <c r="G75" s="32"/>
       <c r="H75" s="32"/>
@@ -6437,8 +5336,8 @@
       <c r="A76" s="32"/>
       <c r="B76" s="32"/>
       <c r="C76" s="32"/>
-      <c r="D76" s="35"/>
-      <c r="E76" s="35"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
       <c r="F76" s="32"/>
       <c r="G76" s="32"/>
       <c r="H76" s="32"/>
@@ -6452,8 +5351,8 @@
       <c r="A77" s="32"/>
       <c r="B77" s="32"/>
       <c r="C77" s="32"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="35"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
       <c r="F77" s="32"/>
       <c r="G77" s="32"/>
       <c r="H77" s="32"/>
@@ -6467,8 +5366,8 @@
       <c r="A78" s="32"/>
       <c r="B78" s="32"/>
       <c r="C78" s="32"/>
-      <c r="D78" s="35"/>
-      <c r="E78" s="35"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="41"/>
       <c r="F78" s="32"/>
       <c r="G78" s="32"/>
       <c r="H78" s="32"/>
@@ -6482,8 +5381,8 @@
       <c r="A79" s="32"/>
       <c r="B79" s="32"/>
       <c r="C79" s="32"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="35"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="41"/>
       <c r="F79" s="32"/>
       <c r="G79" s="32"/>
       <c r="H79" s="32"/>
@@ -6497,8 +5396,8 @@
       <c r="A80" s="32"/>
       <c r="B80" s="32"/>
       <c r="C80" s="32"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="35"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="41"/>
       <c r="F80" s="32"/>
       <c r="G80" s="32"/>
       <c r="H80" s="32"/>
@@ -6512,8 +5411,8 @@
       <c r="A81" s="25"/>
       <c r="B81" s="25"/>
       <c r="C81" s="33"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
       <c r="F81" s="33"/>
       <c r="G81" s="33"/>
       <c r="H81" s="25"/>
@@ -6527,8 +5426,8 @@
       <c r="A82" s="25"/>
       <c r="B82" s="25"/>
       <c r="C82" s="33"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="36"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="42"/>
       <c r="F82" s="33"/>
       <c r="G82" s="33"/>
       <c r="H82" s="25"/>
@@ -6542,8 +5441,8 @@
       <c r="A83" s="25"/>
       <c r="B83" s="25"/>
       <c r="C83" s="33"/>
-      <c r="D83" s="36"/>
-      <c r="E83" s="36"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
       <c r="F83" s="33"/>
       <c r="G83" s="33"/>
       <c r="H83" s="25"/>
@@ -6557,8 +5456,8 @@
       <c r="A84" s="25"/>
       <c r="B84" s="25"/>
       <c r="C84" s="33"/>
-      <c r="D84" s="36"/>
-      <c r="E84" s="36"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42"/>
       <c r="F84" s="33"/>
       <c r="G84" s="33"/>
       <c r="H84" s="25"/>
@@ -6572,8 +5471,8 @@
       <c r="A85" s="25"/>
       <c r="B85" s="25"/>
       <c r="C85" s="33"/>
-      <c r="D85" s="36"/>
-      <c r="E85" s="36"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
       <c r="F85" s="33"/>
       <c r="G85" s="33"/>
       <c r="H85" s="25"/>
@@ -6587,8 +5486,8 @@
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="C86" s="33"/>
-      <c r="D86" s="36"/>
-      <c r="E86" s="36"/>
+      <c r="D86" s="42"/>
+      <c r="E86" s="42"/>
       <c r="F86" s="33"/>
       <c r="G86" s="33"/>
       <c r="H86" s="25"/>
@@ -6602,8 +5501,8 @@
       <c r="A87" s="25"/>
       <c r="B87" s="25"/>
       <c r="C87" s="33"/>
-      <c r="D87" s="36"/>
-      <c r="E87" s="36"/>
+      <c r="D87" s="42"/>
+      <c r="E87" s="42"/>
       <c r="F87" s="33"/>
       <c r="G87" s="33"/>
       <c r="H87" s="25"/>
@@ -6617,8 +5516,8 @@
       <c r="A88" s="25"/>
       <c r="B88" s="25"/>
       <c r="C88" s="33"/>
-      <c r="D88" s="36"/>
-      <c r="E88" s="36"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="42"/>
       <c r="F88" s="33"/>
       <c r="G88" s="33"/>
       <c r="H88" s="25"/>
@@ -6632,8 +5531,8 @@
       <c r="A89" s="25"/>
       <c r="B89" s="25"/>
       <c r="C89" s="33"/>
-      <c r="D89" s="36"/>
-      <c r="E89" s="36"/>
+      <c r="D89" s="42"/>
+      <c r="E89" s="42"/>
       <c r="F89" s="33"/>
       <c r="G89" s="33"/>
       <c r="H89" s="25"/>
@@ -6647,8 +5546,8 @@
       <c r="A90" s="25"/>
       <c r="B90" s="25"/>
       <c r="C90" s="33"/>
-      <c r="D90" s="36"/>
-      <c r="E90" s="36"/>
+      <c r="D90" s="42"/>
+      <c r="E90" s="42"/>
       <c r="F90" s="33"/>
       <c r="G90" s="33"/>
       <c r="H90" s="25"/>
@@ -6662,8 +5561,8 @@
       <c r="A91" s="25"/>
       <c r="B91" s="25"/>
       <c r="C91" s="33"/>
-      <c r="D91" s="36"/>
-      <c r="E91" s="36"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="42"/>
       <c r="F91" s="33"/>
       <c r="G91" s="33"/>
       <c r="H91" s="25"/>
@@ -6677,8 +5576,8 @@
       <c r="A92" s="25"/>
       <c r="B92" s="25"/>
       <c r="C92" s="33"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="36"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="42"/>
       <c r="F92" s="33"/>
       <c r="G92" s="33"/>
       <c r="H92" s="25"/>
@@ -6692,8 +5591,8 @@
       <c r="A93" s="25"/>
       <c r="B93" s="25"/>
       <c r="C93" s="33"/>
-      <c r="D93" s="36"/>
-      <c r="E93" s="36"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="42"/>
       <c r="F93" s="33"/>
       <c r="G93" s="33"/>
       <c r="H93" s="25"/>
@@ -6707,8 +5606,8 @@
       <c r="A94" s="25"/>
       <c r="B94" s="25"/>
       <c r="C94" s="33"/>
-      <c r="D94" s="36"/>
-      <c r="E94" s="36"/>
+      <c r="D94" s="42"/>
+      <c r="E94" s="42"/>
       <c r="F94" s="33"/>
       <c r="G94" s="33"/>
       <c r="H94" s="25"/>
@@ -6722,8 +5621,8 @@
       <c r="A95" s="25"/>
       <c r="B95" s="25"/>
       <c r="C95" s="33"/>
-      <c r="D95" s="36"/>
-      <c r="E95" s="36"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="42"/>
       <c r="F95" s="33"/>
       <c r="G95" s="33"/>
       <c r="H95" s="25"/>
@@ -6737,8 +5636,8 @@
       <c r="A96" s="25"/>
       <c r="B96" s="25"/>
       <c r="C96" s="33"/>
-      <c r="D96" s="36"/>
-      <c r="E96" s="36"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="42"/>
       <c r="F96" s="33"/>
       <c r="G96" s="33"/>
       <c r="H96" s="25"/>
@@ -6752,8 +5651,8 @@
       <c r="A97" s="25"/>
       <c r="B97" s="25"/>
       <c r="C97" s="33"/>
-      <c r="D97" s="36"/>
-      <c r="E97" s="36"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="42"/>
       <c r="F97" s="33"/>
       <c r="G97" s="33"/>
       <c r="H97" s="25"/>
@@ -6767,8 +5666,8 @@
       <c r="A98" s="25"/>
       <c r="B98" s="25"/>
       <c r="C98" s="33"/>
-      <c r="D98" s="36"/>
-      <c r="E98" s="36"/>
+      <c r="D98" s="42"/>
+      <c r="E98" s="42"/>
       <c r="F98" s="33"/>
       <c r="G98" s="33"/>
       <c r="H98" s="25"/>
@@ -6782,8 +5681,8 @@
       <c r="A99" s="25"/>
       <c r="B99" s="25"/>
       <c r="C99" s="33"/>
-      <c r="D99" s="36"/>
-      <c r="E99" s="36"/>
+      <c r="D99" s="42"/>
+      <c r="E99" s="42"/>
       <c r="F99" s="33"/>
       <c r="G99" s="33"/>
       <c r="H99" s="25"/>
@@ -6797,8 +5696,8 @@
       <c r="A100" s="25"/>
       <c r="B100" s="25"/>
       <c r="C100" s="33"/>
-      <c r="D100" s="36"/>
-      <c r="E100" s="36"/>
+      <c r="D100" s="42"/>
+      <c r="E100" s="42"/>
       <c r="F100" s="33"/>
       <c r="G100" s="33"/>
       <c r="H100" s="25"/>
@@ -6812,8 +5711,8 @@
       <c r="A101" s="25"/>
       <c r="B101" s="25"/>
       <c r="C101" s="33"/>
-      <c r="D101" s="36"/>
-      <c r="E101" s="36"/>
+      <c r="D101" s="42"/>
+      <c r="E101" s="42"/>
       <c r="F101" s="33"/>
       <c r="G101" s="33"/>
       <c r="H101" s="25"/>
@@ -6827,8 +5726,8 @@
       <c r="A102" s="25"/>
       <c r="B102" s="25"/>
       <c r="C102" s="33"/>
-      <c r="D102" s="36"/>
-      <c r="E102" s="36"/>
+      <c r="D102" s="42"/>
+      <c r="E102" s="42"/>
       <c r="F102" s="33"/>
       <c r="G102" s="33"/>
       <c r="H102" s="25"/>
@@ -6842,8 +5741,8 @@
       <c r="A103" s="25"/>
       <c r="B103" s="25"/>
       <c r="C103" s="33"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="36"/>
+      <c r="D103" s="42"/>
+      <c r="E103" s="42"/>
       <c r="F103" s="33"/>
       <c r="G103" s="33"/>
       <c r="H103" s="25"/>
@@ -6857,8 +5756,8 @@
       <c r="A104" s="25"/>
       <c r="B104" s="25"/>
       <c r="C104" s="33"/>
-      <c r="D104" s="36"/>
-      <c r="E104" s="36"/>
+      <c r="D104" s="42"/>
+      <c r="E104" s="42"/>
       <c r="F104" s="33"/>
       <c r="G104" s="33"/>
       <c r="H104" s="25"/>
@@ -6872,8 +5771,8 @@
       <c r="A105" s="25"/>
       <c r="B105" s="25"/>
       <c r="C105" s="33"/>
-      <c r="D105" s="36"/>
-      <c r="E105" s="36"/>
+      <c r="D105" s="42"/>
+      <c r="E105" s="42"/>
       <c r="F105" s="33"/>
       <c r="G105" s="33"/>
       <c r="H105" s="25"/>
@@ -6887,8 +5786,8 @@
       <c r="A106" s="25"/>
       <c r="B106" s="25"/>
       <c r="C106" s="33"/>
-      <c r="D106" s="36"/>
-      <c r="E106" s="36"/>
+      <c r="D106" s="42"/>
+      <c r="E106" s="42"/>
       <c r="F106" s="33"/>
       <c r="G106" s="33"/>
       <c r="H106" s="25"/>
@@ -6902,8 +5801,8 @@
       <c r="A107" s="25"/>
       <c r="B107" s="25"/>
       <c r="C107" s="33"/>
-      <c r="D107" s="36"/>
-      <c r="E107" s="36"/>
+      <c r="D107" s="42"/>
+      <c r="E107" s="42"/>
       <c r="F107" s="33"/>
       <c r="G107" s="33"/>
       <c r="H107" s="25"/>
@@ -6917,8 +5816,8 @@
       <c r="A108" s="25"/>
       <c r="B108" s="25"/>
       <c r="C108" s="33"/>
-      <c r="D108" s="36"/>
-      <c r="E108" s="36"/>
+      <c r="D108" s="42"/>
+      <c r="E108" s="42"/>
       <c r="F108" s="33"/>
       <c r="G108" s="33"/>
       <c r="H108" s="25"/>
@@ -6932,8 +5831,8 @@
       <c r="A109" s="25"/>
       <c r="B109" s="25"/>
       <c r="C109" s="33"/>
-      <c r="D109" s="36"/>
-      <c r="E109" s="36"/>
+      <c r="D109" s="42"/>
+      <c r="E109" s="42"/>
       <c r="F109" s="33"/>
       <c r="G109" s="33"/>
       <c r="H109" s="25"/>
@@ -6947,8 +5846,8 @@
       <c r="A110" s="25"/>
       <c r="B110" s="25"/>
       <c r="C110" s="33"/>
-      <c r="D110" s="36"/>
-      <c r="E110" s="36"/>
+      <c r="D110" s="42"/>
+      <c r="E110" s="42"/>
       <c r="F110" s="33"/>
       <c r="G110" s="33"/>
       <c r="H110" s="25"/>
@@ -6962,8 +5861,8 @@
       <c r="A111" s="27"/>
       <c r="B111" s="27"/>
       <c r="C111" s="34"/>
-      <c r="D111" s="37"/>
-      <c r="E111" s="37"/>
+      <c r="D111" s="43"/>
+      <c r="E111" s="43"/>
       <c r="F111" s="34"/>
       <c r="G111" s="34"/>
       <c r="H111" s="27"/>
@@ -7720,10 +6619,10 @@
         <v>233</v>
       </c>
       <c r="P12" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="Q12" s="2" t="s">
         <v>826</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">

--- a/hydrofia/hydrofia_ph_template.xlsx
+++ b/hydrofia/hydrofia_ph_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mw\git\hydrofia\hydrofia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89A0025-D37E-4ACB-A73C-E48C200C9CA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AFFFE7-6472-45BB-9DC1-95DF68E2B603}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="165" windowWidth="15600" windowHeight="11610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nilsson Madeleine:</t>
         </r>
@@ -64,7 +64,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 plats för kommentar</t>
@@ -2732,14 +2732,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2956,15 +2956,6 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2985,6 +2976,15 @@
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3420,14 +3420,14 @@
   <dimension ref="A1:EK112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="D14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="11" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="11" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" style="11" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" style="11" customWidth="1"/>
     <col min="6" max="6" width="5.7109375" style="11" customWidth="1"/>
@@ -3443,12 +3443,12 @@
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="D1" s="35"/>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="41" t="s">
         <v>827</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
       <c r="K1" s="36" t="s">
         <v>833</v>
       </c>
@@ -3579,10 +3579,10 @@
     </row>
     <row r="2" spans="1:141" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="35"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
       <c r="K2" s="36" t="s">
         <v>2</v>
       </c>
@@ -3717,10 +3717,10 @@
       </c>
       <c r="B3" s="14"/>
       <c r="D3" s="35"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
       <c r="J3" s="37"/>
       <c r="K3" s="37"/>
       <c r="L3" s="37"/>
@@ -3982,27 +3982,27 @@
       <c r="EK4" s="13"/>
     </row>
     <row r="5" spans="1:141" s="4" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="39"/>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48" t="s">
+      <c r="G5" s="45"/>
+      <c r="H5" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48" t="s">
+      <c r="I5" s="45"/>
+      <c r="J5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
       <c r="N5" s="15"/>
       <c r="S5" s="16"/>
       <c r="T5" s="16"/>
@@ -4129,19 +4129,19 @@
       <c r="EK5" s="16"/>
     </row>
     <row r="6" spans="1:141" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="31"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
       <c r="N6" s="17"/>
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
@@ -4268,34 +4268,34 @@
       <c r="EK6" s="13"/>
     </row>
     <row r="7" spans="1:141" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="31"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
     </row>
     <row r="8" spans="1:141" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="31"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
     </row>
     <row r="9" spans="1:141" s="13" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
@@ -4313,17 +4313,17 @@
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="1:141" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="42" t="s">
         <v>416</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="45" t="s">
+      <c r="B10" s="46"/>
+      <c r="C10" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="45"/>
+      <c r="E10" s="42"/>
       <c r="F10" s="30" t="s">
         <v>0</v>
       </c>
@@ -4343,16 +4343,16 @@
         <v>830</v>
       </c>
       <c r="L10" s="22"/>
-      <c r="M10" s="45" t="s">
+      <c r="M10" s="42" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:141" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="23" t="s">
         <v>5</v>
       </c>
@@ -4370,14 +4370,14 @@
       </c>
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
-      <c r="M11" s="46"/>
+      <c r="M11" s="43"/>
     </row>
     <row r="12" spans="1:141" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
@@ -4391,8 +4391,8 @@
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
@@ -4406,8 +4406,8 @@
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
@@ -4421,8 +4421,8 @@
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
       <c r="H15" s="32"/>
@@ -4436,8 +4436,8 @@
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
       <c r="H16" s="32"/>
@@ -4451,8 +4451,8 @@
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
@@ -4466,8 +4466,8 @@
       <c r="A18" s="32"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
@@ -4481,8 +4481,8 @@
       <c r="A19" s="32"/>
       <c r="B19" s="32"/>
       <c r="C19" s="32"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
       <c r="H19" s="32"/>
@@ -4496,8 +4496,8 @@
       <c r="A20" s="32"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
       <c r="H20" s="32"/>
@@ -4511,8 +4511,8 @@
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
       <c r="H21" s="32"/>
@@ -4526,8 +4526,8 @@
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
@@ -4541,8 +4541,8 @@
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
       <c r="H23" s="32"/>
@@ -4556,8 +4556,8 @@
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
@@ -4571,8 +4571,8 @@
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
       <c r="H25" s="32"/>
@@ -4586,8 +4586,8 @@
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
@@ -4601,8 +4601,8 @@
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
       <c r="H27" s="32"/>
@@ -4616,8 +4616,8 @@
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
@@ -4631,8 +4631,8 @@
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
       <c r="H29" s="32"/>
@@ -4646,8 +4646,8 @@
       <c r="A30" s="32"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
       <c r="F30" s="32"/>
       <c r="G30" s="32"/>
       <c r="H30" s="32"/>
@@ -4661,8 +4661,8 @@
       <c r="A31" s="32"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
       <c r="F31" s="32"/>
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
@@ -4676,8 +4676,8 @@
       <c r="A32" s="32"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
       <c r="F32" s="32"/>
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
@@ -4691,8 +4691,8 @@
       <c r="A33" s="32"/>
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
       <c r="F33" s="32"/>
       <c r="G33" s="32"/>
       <c r="H33" s="32"/>
@@ -4706,8 +4706,8 @@
       <c r="A34" s="32"/>
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
       <c r="F34" s="32"/>
       <c r="G34" s="32"/>
       <c r="H34" s="32"/>
@@ -4721,8 +4721,8 @@
       <c r="A35" s="32"/>
       <c r="B35" s="32"/>
       <c r="C35" s="32"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
       <c r="F35" s="32"/>
       <c r="G35" s="32"/>
       <c r="H35" s="32"/>
@@ -4736,8 +4736,8 @@
       <c r="A36" s="32"/>
       <c r="B36" s="32"/>
       <c r="C36" s="32"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
       <c r="F36" s="32"/>
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
@@ -4751,8 +4751,8 @@
       <c r="A37" s="32"/>
       <c r="B37" s="32"/>
       <c r="C37" s="32"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
       <c r="F37" s="32"/>
       <c r="G37" s="32"/>
       <c r="H37" s="32"/>
@@ -4766,8 +4766,8 @@
       <c r="A38" s="32"/>
       <c r="B38" s="32"/>
       <c r="C38" s="32"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
       <c r="H38" s="32"/>
@@ -4781,8 +4781,8 @@
       <c r="A39" s="32"/>
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
       <c r="H39" s="32"/>
@@ -4796,8 +4796,8 @@
       <c r="A40" s="32"/>
       <c r="B40" s="32"/>
       <c r="C40" s="32"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
       <c r="F40" s="32"/>
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
@@ -4811,8 +4811,8 @@
       <c r="A41" s="32"/>
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
       <c r="F41" s="32"/>
       <c r="G41" s="32"/>
       <c r="H41" s="32"/>
@@ -4826,8 +4826,8 @@
       <c r="A42" s="32"/>
       <c r="B42" s="32"/>
       <c r="C42" s="32"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
       <c r="F42" s="32"/>
       <c r="G42" s="32"/>
       <c r="H42" s="32"/>
@@ -4841,8 +4841,8 @@
       <c r="A43" s="32"/>
       <c r="B43" s="32"/>
       <c r="C43" s="32"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
@@ -4856,8 +4856,8 @@
       <c r="A44" s="32"/>
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
       <c r="F44" s="32"/>
       <c r="G44" s="32"/>
       <c r="H44" s="32"/>
@@ -4871,8 +4871,8 @@
       <c r="A45" s="32"/>
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
       <c r="F45" s="32"/>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
@@ -4886,8 +4886,8 @@
       <c r="A46" s="32"/>
       <c r="B46" s="32"/>
       <c r="C46" s="32"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
       <c r="F46" s="32"/>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
@@ -4901,8 +4901,8 @@
       <c r="A47" s="32"/>
       <c r="B47" s="32"/>
       <c r="C47" s="32"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
       <c r="F47" s="32"/>
       <c r="G47" s="32"/>
       <c r="H47" s="32"/>
@@ -4916,8 +4916,8 @@
       <c r="A48" s="32"/>
       <c r="B48" s="32"/>
       <c r="C48" s="32"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
       <c r="F48" s="32"/>
       <c r="G48" s="32"/>
       <c r="H48" s="32"/>
@@ -4931,8 +4931,8 @@
       <c r="A49" s="32"/>
       <c r="B49" s="32"/>
       <c r="C49" s="32"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
       <c r="F49" s="32"/>
       <c r="G49" s="32"/>
       <c r="H49" s="32"/>
@@ -4946,8 +4946,8 @@
       <c r="A50" s="32"/>
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
       <c r="F50" s="32"/>
       <c r="G50" s="32"/>
       <c r="H50" s="32"/>
@@ -4961,8 +4961,8 @@
       <c r="A51" s="32"/>
       <c r="B51" s="32"/>
       <c r="C51" s="32"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
       <c r="F51" s="32"/>
       <c r="G51" s="32"/>
       <c r="H51" s="32"/>
@@ -4976,8 +4976,8 @@
       <c r="A52" s="32"/>
       <c r="B52" s="32"/>
       <c r="C52" s="32"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
       <c r="F52" s="32"/>
       <c r="G52" s="32"/>
       <c r="H52" s="32"/>
@@ -4991,8 +4991,8 @@
       <c r="A53" s="32"/>
       <c r="B53" s="32"/>
       <c r="C53" s="32"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
       <c r="F53" s="32"/>
       <c r="G53" s="32"/>
       <c r="H53" s="32"/>
@@ -5006,8 +5006,8 @@
       <c r="A54" s="32"/>
       <c r="B54" s="32"/>
       <c r="C54" s="32"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
       <c r="F54" s="32"/>
       <c r="G54" s="32"/>
       <c r="H54" s="32"/>
@@ -5021,8 +5021,8 @@
       <c r="A55" s="32"/>
       <c r="B55" s="32"/>
       <c r="C55" s="32"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
       <c r="F55" s="32"/>
       <c r="G55" s="32"/>
       <c r="H55" s="32"/>
@@ -5036,8 +5036,8 @@
       <c r="A56" s="32"/>
       <c r="B56" s="32"/>
       <c r="C56" s="32"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
       <c r="F56" s="32"/>
       <c r="G56" s="32"/>
       <c r="H56" s="32"/>
@@ -5051,8 +5051,8 @@
       <c r="A57" s="32"/>
       <c r="B57" s="32"/>
       <c r="C57" s="32"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
       <c r="F57" s="32"/>
       <c r="G57" s="32"/>
       <c r="H57" s="32"/>
@@ -5066,8 +5066,8 @@
       <c r="A58" s="32"/>
       <c r="B58" s="32"/>
       <c r="C58" s="32"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
       <c r="F58" s="32"/>
       <c r="G58" s="32"/>
       <c r="H58" s="32"/>
@@ -5081,8 +5081,8 @@
       <c r="A59" s="32"/>
       <c r="B59" s="32"/>
       <c r="C59" s="32"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="48"/>
       <c r="F59" s="32"/>
       <c r="G59" s="32"/>
       <c r="H59" s="32"/>
@@ -5096,8 +5096,8 @@
       <c r="A60" s="32"/>
       <c r="B60" s="32"/>
       <c r="C60" s="32"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="48"/>
       <c r="F60" s="32"/>
       <c r="G60" s="32"/>
       <c r="H60" s="32"/>
@@ -5111,8 +5111,8 @@
       <c r="A61" s="32"/>
       <c r="B61" s="32"/>
       <c r="C61" s="32"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
       <c r="F61" s="32"/>
       <c r="G61" s="32"/>
       <c r="H61" s="32"/>
@@ -5126,8 +5126,8 @@
       <c r="A62" s="32"/>
       <c r="B62" s="32"/>
       <c r="C62" s="32"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="41"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="48"/>
       <c r="F62" s="32"/>
       <c r="G62" s="32"/>
       <c r="H62" s="32"/>
@@ -5141,8 +5141,8 @@
       <c r="A63" s="32"/>
       <c r="B63" s="32"/>
       <c r="C63" s="32"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
       <c r="F63" s="32"/>
       <c r="G63" s="32"/>
       <c r="H63" s="32"/>
@@ -5156,8 +5156,8 @@
       <c r="A64" s="32"/>
       <c r="B64" s="32"/>
       <c r="C64" s="32"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="48"/>
       <c r="F64" s="32"/>
       <c r="G64" s="32"/>
       <c r="H64" s="32"/>
@@ -5171,8 +5171,8 @@
       <c r="A65" s="32"/>
       <c r="B65" s="32"/>
       <c r="C65" s="32"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="41"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48"/>
       <c r="F65" s="32"/>
       <c r="G65" s="32"/>
       <c r="H65" s="32"/>
@@ -5186,8 +5186,8 @@
       <c r="A66" s="32"/>
       <c r="B66" s="32"/>
       <c r="C66" s="32"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="48"/>
       <c r="F66" s="32"/>
       <c r="G66" s="32"/>
       <c r="H66" s="32"/>
@@ -5201,8 +5201,8 @@
       <c r="A67" s="32"/>
       <c r="B67" s="32"/>
       <c r="C67" s="32"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="41"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48"/>
       <c r="F67" s="32"/>
       <c r="G67" s="32"/>
       <c r="H67" s="32"/>
@@ -5216,8 +5216,8 @@
       <c r="A68" s="32"/>
       <c r="B68" s="32"/>
       <c r="C68" s="32"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="41"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
       <c r="F68" s="32"/>
       <c r="G68" s="32"/>
       <c r="H68" s="32"/>
@@ -5231,8 +5231,8 @@
       <c r="A69" s="32"/>
       <c r="B69" s="32"/>
       <c r="C69" s="32"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="41"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="48"/>
       <c r="F69" s="32"/>
       <c r="G69" s="32"/>
       <c r="H69" s="32"/>
@@ -5246,8 +5246,8 @@
       <c r="A70" s="32"/>
       <c r="B70" s="32"/>
       <c r="C70" s="32"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="41"/>
+      <c r="D70" s="48"/>
+      <c r="E70" s="48"/>
       <c r="F70" s="32"/>
       <c r="G70" s="32"/>
       <c r="H70" s="32"/>
@@ -5261,8 +5261,8 @@
       <c r="A71" s="32"/>
       <c r="B71" s="32"/>
       <c r="C71" s="32"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="48"/>
       <c r="F71" s="32"/>
       <c r="G71" s="32"/>
       <c r="H71" s="32"/>
@@ -5276,8 +5276,8 @@
       <c r="A72" s="32"/>
       <c r="B72" s="32"/>
       <c r="C72" s="32"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="41"/>
+      <c r="D72" s="48"/>
+      <c r="E72" s="48"/>
       <c r="F72" s="32"/>
       <c r="G72" s="32"/>
       <c r="H72" s="32"/>
@@ -5291,8 +5291,8 @@
       <c r="A73" s="32"/>
       <c r="B73" s="32"/>
       <c r="C73" s="32"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="41"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="48"/>
       <c r="F73" s="32"/>
       <c r="G73" s="32"/>
       <c r="H73" s="32"/>
@@ -5306,8 +5306,8 @@
       <c r="A74" s="32"/>
       <c r="B74" s="32"/>
       <c r="C74" s="32"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="41"/>
+      <c r="D74" s="48"/>
+      <c r="E74" s="48"/>
       <c r="F74" s="32"/>
       <c r="G74" s="32"/>
       <c r="H74" s="32"/>
@@ -5321,8 +5321,8 @@
       <c r="A75" s="32"/>
       <c r="B75" s="32"/>
       <c r="C75" s="32"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="41"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
       <c r="F75" s="32"/>
       <c r="G75" s="32"/>
       <c r="H75" s="32"/>
@@ -5336,8 +5336,8 @@
       <c r="A76" s="32"/>
       <c r="B76" s="32"/>
       <c r="C76" s="32"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="41"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="48"/>
       <c r="F76" s="32"/>
       <c r="G76" s="32"/>
       <c r="H76" s="32"/>
@@ -5351,8 +5351,8 @@
       <c r="A77" s="32"/>
       <c r="B77" s="32"/>
       <c r="C77" s="32"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
+      <c r="D77" s="48"/>
+      <c r="E77" s="48"/>
       <c r="F77" s="32"/>
       <c r="G77" s="32"/>
       <c r="H77" s="32"/>
@@ -5366,8 +5366,8 @@
       <c r="A78" s="32"/>
       <c r="B78" s="32"/>
       <c r="C78" s="32"/>
-      <c r="D78" s="41"/>
-      <c r="E78" s="41"/>
+      <c r="D78" s="48"/>
+      <c r="E78" s="48"/>
       <c r="F78" s="32"/>
       <c r="G78" s="32"/>
       <c r="H78" s="32"/>
@@ -5381,8 +5381,8 @@
       <c r="A79" s="32"/>
       <c r="B79" s="32"/>
       <c r="C79" s="32"/>
-      <c r="D79" s="41"/>
-      <c r="E79" s="41"/>
+      <c r="D79" s="48"/>
+      <c r="E79" s="48"/>
       <c r="F79" s="32"/>
       <c r="G79" s="32"/>
       <c r="H79" s="32"/>
@@ -5396,8 +5396,8 @@
       <c r="A80" s="32"/>
       <c r="B80" s="32"/>
       <c r="C80" s="32"/>
-      <c r="D80" s="41"/>
-      <c r="E80" s="41"/>
+      <c r="D80" s="48"/>
+      <c r="E80" s="48"/>
       <c r="F80" s="32"/>
       <c r="G80" s="32"/>
       <c r="H80" s="32"/>
@@ -5411,8 +5411,8 @@
       <c r="A81" s="25"/>
       <c r="B81" s="25"/>
       <c r="C81" s="33"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="42"/>
+      <c r="D81" s="49"/>
+      <c r="E81" s="49"/>
       <c r="F81" s="33"/>
       <c r="G81" s="33"/>
       <c r="H81" s="25"/>
@@ -5426,8 +5426,8 @@
       <c r="A82" s="25"/>
       <c r="B82" s="25"/>
       <c r="C82" s="33"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="42"/>
+      <c r="D82" s="49"/>
+      <c r="E82" s="49"/>
       <c r="F82" s="33"/>
       <c r="G82" s="33"/>
       <c r="H82" s="25"/>
@@ -5441,8 +5441,8 @@
       <c r="A83" s="25"/>
       <c r="B83" s="25"/>
       <c r="C83" s="33"/>
-      <c r="D83" s="42"/>
-      <c r="E83" s="42"/>
+      <c r="D83" s="49"/>
+      <c r="E83" s="49"/>
       <c r="F83" s="33"/>
       <c r="G83" s="33"/>
       <c r="H83" s="25"/>
@@ -5456,8 +5456,8 @@
       <c r="A84" s="25"/>
       <c r="B84" s="25"/>
       <c r="C84" s="33"/>
-      <c r="D84" s="42"/>
-      <c r="E84" s="42"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="49"/>
       <c r="F84" s="33"/>
       <c r="G84" s="33"/>
       <c r="H84" s="25"/>
@@ -5471,8 +5471,8 @@
       <c r="A85" s="25"/>
       <c r="B85" s="25"/>
       <c r="C85" s="33"/>
-      <c r="D85" s="42"/>
-      <c r="E85" s="42"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="49"/>
       <c r="F85" s="33"/>
       <c r="G85" s="33"/>
       <c r="H85" s="25"/>
@@ -5486,8 +5486,8 @@
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="C86" s="33"/>
-      <c r="D86" s="42"/>
-      <c r="E86" s="42"/>
+      <c r="D86" s="49"/>
+      <c r="E86" s="49"/>
       <c r="F86" s="33"/>
       <c r="G86" s="33"/>
       <c r="H86" s="25"/>
@@ -5501,8 +5501,8 @@
       <c r="A87" s="25"/>
       <c r="B87" s="25"/>
       <c r="C87" s="33"/>
-      <c r="D87" s="42"/>
-      <c r="E87" s="42"/>
+      <c r="D87" s="49"/>
+      <c r="E87" s="49"/>
       <c r="F87" s="33"/>
       <c r="G87" s="33"/>
       <c r="H87" s="25"/>
@@ -5516,8 +5516,8 @@
       <c r="A88" s="25"/>
       <c r="B88" s="25"/>
       <c r="C88" s="33"/>
-      <c r="D88" s="42"/>
-      <c r="E88" s="42"/>
+      <c r="D88" s="49"/>
+      <c r="E88" s="49"/>
       <c r="F88" s="33"/>
       <c r="G88" s="33"/>
       <c r="H88" s="25"/>
@@ -5531,8 +5531,8 @@
       <c r="A89" s="25"/>
       <c r="B89" s="25"/>
       <c r="C89" s="33"/>
-      <c r="D89" s="42"/>
-      <c r="E89" s="42"/>
+      <c r="D89" s="49"/>
+      <c r="E89" s="49"/>
       <c r="F89" s="33"/>
       <c r="G89" s="33"/>
       <c r="H89" s="25"/>
@@ -5546,8 +5546,8 @@
       <c r="A90" s="25"/>
       <c r="B90" s="25"/>
       <c r="C90" s="33"/>
-      <c r="D90" s="42"/>
-      <c r="E90" s="42"/>
+      <c r="D90" s="49"/>
+      <c r="E90" s="49"/>
       <c r="F90" s="33"/>
       <c r="G90" s="33"/>
       <c r="H90" s="25"/>
@@ -5561,8 +5561,8 @@
       <c r="A91" s="25"/>
       <c r="B91" s="25"/>
       <c r="C91" s="33"/>
-      <c r="D91" s="42"/>
-      <c r="E91" s="42"/>
+      <c r="D91" s="49"/>
+      <c r="E91" s="49"/>
       <c r="F91" s="33"/>
       <c r="G91" s="33"/>
       <c r="H91" s="25"/>
@@ -5576,8 +5576,8 @@
       <c r="A92" s="25"/>
       <c r="B92" s="25"/>
       <c r="C92" s="33"/>
-      <c r="D92" s="42"/>
-      <c r="E92" s="42"/>
+      <c r="D92" s="49"/>
+      <c r="E92" s="49"/>
       <c r="F92" s="33"/>
       <c r="G92" s="33"/>
       <c r="H92" s="25"/>
@@ -5591,8 +5591,8 @@
       <c r="A93" s="25"/>
       <c r="B93" s="25"/>
       <c r="C93" s="33"/>
-      <c r="D93" s="42"/>
-      <c r="E93" s="42"/>
+      <c r="D93" s="49"/>
+      <c r="E93" s="49"/>
       <c r="F93" s="33"/>
       <c r="G93" s="33"/>
       <c r="H93" s="25"/>
@@ -5606,8 +5606,8 @@
       <c r="A94" s="25"/>
       <c r="B94" s="25"/>
       <c r="C94" s="33"/>
-      <c r="D94" s="42"/>
-      <c r="E94" s="42"/>
+      <c r="D94" s="49"/>
+      <c r="E94" s="49"/>
       <c r="F94" s="33"/>
       <c r="G94" s="33"/>
       <c r="H94" s="25"/>
@@ -5621,8 +5621,8 @@
       <c r="A95" s="25"/>
       <c r="B95" s="25"/>
       <c r="C95" s="33"/>
-      <c r="D95" s="42"/>
-      <c r="E95" s="42"/>
+      <c r="D95" s="49"/>
+      <c r="E95" s="49"/>
       <c r="F95" s="33"/>
       <c r="G95" s="33"/>
       <c r="H95" s="25"/>
@@ -5636,8 +5636,8 @@
       <c r="A96" s="25"/>
       <c r="B96" s="25"/>
       <c r="C96" s="33"/>
-      <c r="D96" s="42"/>
-      <c r="E96" s="42"/>
+      <c r="D96" s="49"/>
+      <c r="E96" s="49"/>
       <c r="F96" s="33"/>
       <c r="G96" s="33"/>
       <c r="H96" s="25"/>
@@ -5651,8 +5651,8 @@
       <c r="A97" s="25"/>
       <c r="B97" s="25"/>
       <c r="C97" s="33"/>
-      <c r="D97" s="42"/>
-      <c r="E97" s="42"/>
+      <c r="D97" s="49"/>
+      <c r="E97" s="49"/>
       <c r="F97" s="33"/>
       <c r="G97" s="33"/>
       <c r="H97" s="25"/>
@@ -5666,8 +5666,8 @@
       <c r="A98" s="25"/>
       <c r="B98" s="25"/>
       <c r="C98" s="33"/>
-      <c r="D98" s="42"/>
-      <c r="E98" s="42"/>
+      <c r="D98" s="49"/>
+      <c r="E98" s="49"/>
       <c r="F98" s="33"/>
       <c r="G98" s="33"/>
       <c r="H98" s="25"/>
@@ -5681,8 +5681,8 @@
       <c r="A99" s="25"/>
       <c r="B99" s="25"/>
       <c r="C99" s="33"/>
-      <c r="D99" s="42"/>
-      <c r="E99" s="42"/>
+      <c r="D99" s="49"/>
+      <c r="E99" s="49"/>
       <c r="F99" s="33"/>
       <c r="G99" s="33"/>
       <c r="H99" s="25"/>
@@ -5696,8 +5696,8 @@
       <c r="A100" s="25"/>
       <c r="B100" s="25"/>
       <c r="C100" s="33"/>
-      <c r="D100" s="42"/>
-      <c r="E100" s="42"/>
+      <c r="D100" s="49"/>
+      <c r="E100" s="49"/>
       <c r="F100" s="33"/>
       <c r="G100" s="33"/>
       <c r="H100" s="25"/>
@@ -5711,8 +5711,8 @@
       <c r="A101" s="25"/>
       <c r="B101" s="25"/>
       <c r="C101" s="33"/>
-      <c r="D101" s="42"/>
-      <c r="E101" s="42"/>
+      <c r="D101" s="49"/>
+      <c r="E101" s="49"/>
       <c r="F101" s="33"/>
       <c r="G101" s="33"/>
       <c r="H101" s="25"/>
@@ -5726,8 +5726,8 @@
       <c r="A102" s="25"/>
       <c r="B102" s="25"/>
       <c r="C102" s="33"/>
-      <c r="D102" s="42"/>
-      <c r="E102" s="42"/>
+      <c r="D102" s="49"/>
+      <c r="E102" s="49"/>
       <c r="F102" s="33"/>
       <c r="G102" s="33"/>
       <c r="H102" s="25"/>
@@ -5741,8 +5741,8 @@
       <c r="A103" s="25"/>
       <c r="B103" s="25"/>
       <c r="C103" s="33"/>
-      <c r="D103" s="42"/>
-      <c r="E103" s="42"/>
+      <c r="D103" s="49"/>
+      <c r="E103" s="49"/>
       <c r="F103" s="33"/>
       <c r="G103" s="33"/>
       <c r="H103" s="25"/>
@@ -5756,8 +5756,8 @@
       <c r="A104" s="25"/>
       <c r="B104" s="25"/>
       <c r="C104" s="33"/>
-      <c r="D104" s="42"/>
-      <c r="E104" s="42"/>
+      <c r="D104" s="49"/>
+      <c r="E104" s="49"/>
       <c r="F104" s="33"/>
       <c r="G104" s="33"/>
       <c r="H104" s="25"/>
@@ -5771,8 +5771,8 @@
       <c r="A105" s="25"/>
       <c r="B105" s="25"/>
       <c r="C105" s="33"/>
-      <c r="D105" s="42"/>
-      <c r="E105" s="42"/>
+      <c r="D105" s="49"/>
+      <c r="E105" s="49"/>
       <c r="F105" s="33"/>
       <c r="G105" s="33"/>
       <c r="H105" s="25"/>
@@ -5786,8 +5786,8 @@
       <c r="A106" s="25"/>
       <c r="B106" s="25"/>
       <c r="C106" s="33"/>
-      <c r="D106" s="42"/>
-      <c r="E106" s="42"/>
+      <c r="D106" s="49"/>
+      <c r="E106" s="49"/>
       <c r="F106" s="33"/>
       <c r="G106" s="33"/>
       <c r="H106" s="25"/>
@@ -5801,8 +5801,8 @@
       <c r="A107" s="25"/>
       <c r="B107" s="25"/>
       <c r="C107" s="33"/>
-      <c r="D107" s="42"/>
-      <c r="E107" s="42"/>
+      <c r="D107" s="49"/>
+      <c r="E107" s="49"/>
       <c r="F107" s="33"/>
       <c r="G107" s="33"/>
       <c r="H107" s="25"/>
@@ -5816,8 +5816,8 @@
       <c r="A108" s="25"/>
       <c r="B108" s="25"/>
       <c r="C108" s="33"/>
-      <c r="D108" s="42"/>
-      <c r="E108" s="42"/>
+      <c r="D108" s="49"/>
+      <c r="E108" s="49"/>
       <c r="F108" s="33"/>
       <c r="G108" s="33"/>
       <c r="H108" s="25"/>
@@ -5831,8 +5831,8 @@
       <c r="A109" s="25"/>
       <c r="B109" s="25"/>
       <c r="C109" s="33"/>
-      <c r="D109" s="42"/>
-      <c r="E109" s="42"/>
+      <c r="D109" s="49"/>
+      <c r="E109" s="49"/>
       <c r="F109" s="33"/>
       <c r="G109" s="33"/>
       <c r="H109" s="25"/>
@@ -5846,8 +5846,8 @@
       <c r="A110" s="25"/>
       <c r="B110" s="25"/>
       <c r="C110" s="33"/>
-      <c r="D110" s="42"/>
-      <c r="E110" s="42"/>
+      <c r="D110" s="49"/>
+      <c r="E110" s="49"/>
       <c r="F110" s="33"/>
       <c r="G110" s="33"/>
       <c r="H110" s="25"/>
@@ -5861,8 +5861,8 @@
       <c r="A111" s="27"/>
       <c r="B111" s="27"/>
       <c r="C111" s="34"/>
-      <c r="D111" s="43"/>
-      <c r="E111" s="43"/>
+      <c r="D111" s="50"/>
+      <c r="E111" s="50"/>
       <c r="F111" s="34"/>
       <c r="G111" s="34"/>
       <c r="H111" s="27"/>
@@ -5877,38 +5877,72 @@
     </row>
   </sheetData>
   <mergeCells count="122">
-    <mergeCell ref="E1:H3"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
@@ -5933,72 +5967,38 @@
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="E1:H3"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <conditionalFormatting sqref="J12:K111">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">

--- a/hydrofia/hydrofia_ph_template.xlsx
+++ b/hydrofia/hydrofia_ph_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mw\git\hydrofia\hydrofia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AFFFE7-6472-45BB-9DC1-95DF68E2B603}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C73932-D4CC-4ECE-9D39-1678A84A0324}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="165" windowWidth="15600" windowHeight="11610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
     <author>Nilsson Madeleine</author>
   </authors>
   <commentList>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M10" authorId="1" shapeId="0" xr:uid="{21853188-1459-4735-90C6-F9F3174E1258}">
+    <comment ref="J10" authorId="1" shapeId="0" xr:uid="{21853188-1459-4735-90C6-F9F3174E1258}">
       <text>
         <r>
           <rPr>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="832">
   <si>
     <t>Djup</t>
   </si>
@@ -1348,15 +1348,6 @@
     <t>Skapat verifieringsdata-flik</t>
   </si>
   <si>
-    <t>Sign</t>
-  </si>
-  <si>
-    <t>ml</t>
-  </si>
-  <si>
-    <t>ml/l</t>
-  </si>
-  <si>
     <t>Lagt till kolumn för Sign</t>
   </si>
   <si>
@@ -2590,16 +2581,19 @@
     <t>Temp</t>
   </si>
   <si>
-    <t>pH</t>
-  </si>
-  <si>
     <t>Djup (ref)</t>
   </si>
   <si>
-    <t>pH (in-situ)</t>
-  </si>
-  <si>
     <t>Datum</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>insitu</t>
+  </si>
+  <si>
+    <t>pH-TOT</t>
   </si>
 </sst>
 </file>
@@ -2779,7 +2773,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2826,13 +2820,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2956,8 +2976,17 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2965,17 +2994,11 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2986,21 +3009,19 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3023,8 +3044,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>260874</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>432324</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>169500</xdr:rowOff>
     </xdr:to>
@@ -3417,42 +3438,42 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:EK112"/>
+  <dimension ref="A1:EJ111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E14"/>
+      <selection activeCell="G6" sqref="G6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="10" style="11" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" style="11" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" style="11" customWidth="1"/>
-    <col min="14" max="22" width="10.7109375" style="11" customWidth="1"/>
-    <col min="23" max="16384" width="28.7109375" style="11"/>
+    <col min="1" max="1" width="6.7109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10" style="11" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="11" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" style="11" customWidth="1"/>
+    <col min="13" max="21" width="10.7109375" style="11" customWidth="1"/>
+    <col min="22" max="16384" width="28.7109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:141" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:140" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="41" t="s">
-        <v>827</v>
-      </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="K1" s="36" t="s">
-        <v>833</v>
-      </c>
-      <c r="M1" s="12"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="42" t="s">
+        <v>824</v>
+      </c>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="J1" s="36" t="s">
+        <v>828</v>
+      </c>
+      <c r="L1" s="12"/>
+      <c r="R1" s="13"/>
       <c r="S1" s="13"/>
       <c r="T1" s="13"/>
       <c r="U1" s="13"/>
@@ -3575,18 +3596,18 @@
       <c r="EH1" s="13"/>
       <c r="EI1" s="13"/>
       <c r="EJ1" s="13"/>
-      <c r="EK1" s="13"/>
-    </row>
-    <row r="2" spans="1:141" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="35"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="K2" s="36" t="s">
+    </row>
+    <row r="2" spans="1:140" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="35"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="J2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="R2" s="13"/>
       <c r="S2" s="13"/>
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
@@ -3709,22 +3730,21 @@
       <c r="EH2" s="13"/>
       <c r="EI2" s="13"/>
       <c r="EJ2" s="13"/>
-      <c r="EK2" s="13"/>
-    </row>
-    <row r="3" spans="1:141" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:140" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="I3" s="37"/>
       <c r="J3" s="37"/>
       <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="R3" s="13"/>
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
       <c r="U3" s="13"/>
@@ -3847,16 +3867,16 @@
       <c r="EH3" s="13"/>
       <c r="EI3" s="13"/>
       <c r="EJ3" s="13"/>
-      <c r="EK3" s="13"/>
-    </row>
-    <row r="4" spans="1:141" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="35"/>
+    </row>
+    <row r="4" spans="1:140" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="35"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="38"/>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="I4" s="36"/>
       <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
+      <c r="R4" s="13"/>
       <c r="S4" s="13"/>
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
@@ -3979,31 +3999,30 @@
       <c r="EH4" s="13"/>
       <c r="EI4" s="13"/>
       <c r="EJ4" s="13"/>
-      <c r="EK4" s="13"/>
-    </row>
-    <row r="5" spans="1:141" s="4" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" t="s">
+    </row>
+    <row r="5" spans="1:140" s="4" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="45" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45" t="s">
+      <c r="F5" s="53"/>
+      <c r="G5" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45" t="s">
+      <c r="H5" s="53"/>
+      <c r="I5" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="15"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="15"/>
+      <c r="R5" s="16"/>
       <c r="S5" s="16"/>
       <c r="T5" s="16"/>
       <c r="U5" s="16"/>
@@ -4126,23 +4145,22 @@
       <c r="EH5" s="16"/>
       <c r="EI5" s="16"/>
       <c r="EJ5" s="16"/>
-      <c r="EK5" s="16"/>
-    </row>
-    <row r="6" spans="1:141" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="17"/>
+    </row>
+    <row r="6" spans="1:140" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="17"/>
+      <c r="R6" s="13"/>
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
@@ -4265,119 +4283,105 @@
       <c r="EH6" s="13"/>
       <c r="EI6" s="13"/>
       <c r="EJ6" s="13"/>
-      <c r="EK6" s="13"/>
-    </row>
-    <row r="7" spans="1:141" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-    </row>
-    <row r="8" spans="1:141" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-    </row>
-    <row r="9" spans="1:141" s="13" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:140" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+    </row>
+    <row r="8" spans="1:140" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+    </row>
+    <row r="9" spans="1:140" s="13" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="19"/>
-    </row>
-    <row r="10" spans="1:141" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
-        <v>416</v>
-      </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="42" t="s">
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" spans="1:140" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="B10" s="47"/>
+      <c r="C10" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="30" t="s">
+      <c r="D10" s="45"/>
+      <c r="E10" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="F10" s="22" t="s">
+        <v>827</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>825</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>826</v>
+      </c>
+      <c r="I10" s="21" t="s">
         <v>831</v>
       </c>
-      <c r="H10" s="21" t="s">
-        <v>828</v>
-      </c>
-      <c r="I10" s="21" t="s">
+      <c r="J10" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="22"/>
+    </row>
+    <row r="11" spans="1:140" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="46"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="40" t="s">
         <v>829</v>
       </c>
-      <c r="J10" s="21" t="s">
-        <v>832</v>
-      </c>
-      <c r="K10" s="21" t="s">
+      <c r="I11" s="24" t="s">
         <v>830</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:141" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="I11" s="40" t="s">
-        <v>417</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>418</v>
-      </c>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="43"/>
-    </row>
-    <row r="12" spans="1:141" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="46"/>
+      <c r="K11" s="41"/>
+    </row>
+    <row r="12" spans="1:140" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
@@ -4385,14 +4389,13 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-    </row>
-    <row r="13" spans="1:141" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:140" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
@@ -4400,14 +4403,13 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-    </row>
-    <row r="14" spans="1:141" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:140" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="32"/>
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
@@ -4415,14 +4417,13 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
       <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-    </row>
-    <row r="15" spans="1:141" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:140" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="32"/>
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
       <c r="H15" s="32"/>
@@ -4430,14 +4431,13 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
       <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-    </row>
-    <row r="16" spans="1:141" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:140" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="32"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
       <c r="H16" s="32"/>
@@ -4445,14 +4445,13 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-    </row>
-    <row r="17" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
@@ -4460,14 +4459,13 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
       <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-    </row>
-    <row r="18" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32"/>
       <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="32"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
@@ -4475,14 +4473,13 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
       <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-    </row>
-    <row r="19" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
       <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
       <c r="H19" s="32"/>
@@ -4490,14 +4487,13 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
       <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-    </row>
-    <row r="20" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
       <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="32"/>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
       <c r="H20" s="32"/>
@@ -4505,14 +4501,13 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
       <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-    </row>
-    <row r="21" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="32"/>
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
       <c r="H21" s="32"/>
@@ -4520,14 +4515,13 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
       <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-    </row>
-    <row r="22" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
@@ -4535,14 +4529,13 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
       <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-    </row>
-    <row r="23" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="32"/>
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
       <c r="H23" s="32"/>
@@ -4550,14 +4543,13 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
       <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-    </row>
-    <row r="24" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="32"/>
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
@@ -4565,14 +4557,13 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
       <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-    </row>
-    <row r="25" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="32"/>
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
       <c r="H25" s="32"/>
@@ -4580,14 +4571,13 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-    </row>
-    <row r="26" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="32"/>
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
@@ -4595,14 +4585,13 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-    </row>
-    <row r="27" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="32"/>
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
       <c r="H27" s="32"/>
@@ -4610,14 +4599,13 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-    </row>
-    <row r="28" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="32"/>
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
@@ -4625,14 +4613,13 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-    </row>
-    <row r="29" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="32"/>
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
       <c r="H29" s="32"/>
@@ -4640,14 +4627,13 @@
       <c r="J29" s="32"/>
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-    </row>
-    <row r="30" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="32"/>
       <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="32"/>
       <c r="F30" s="32"/>
       <c r="G30" s="32"/>
       <c r="H30" s="32"/>
@@ -4655,14 +4641,13 @@
       <c r="J30" s="32"/>
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-    </row>
-    <row r="31" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="32"/>
       <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="32"/>
       <c r="F31" s="32"/>
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
@@ -4670,14 +4655,13 @@
       <c r="J31" s="32"/>
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-    </row>
-    <row r="32" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="32"/>
       <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="32"/>
       <c r="F32" s="32"/>
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
@@ -4685,14 +4669,13 @@
       <c r="J32" s="32"/>
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-    </row>
-    <row r="33" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="32"/>
       <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="32"/>
       <c r="F33" s="32"/>
       <c r="G33" s="32"/>
       <c r="H33" s="32"/>
@@ -4700,14 +4683,13 @@
       <c r="J33" s="32"/>
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-    </row>
-    <row r="34" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="32"/>
       <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="32"/>
       <c r="F34" s="32"/>
       <c r="G34" s="32"/>
       <c r="H34" s="32"/>
@@ -4715,14 +4697,13 @@
       <c r="J34" s="32"/>
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-    </row>
-    <row r="35" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="32"/>
       <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="32"/>
       <c r="F35" s="32"/>
       <c r="G35" s="32"/>
       <c r="H35" s="32"/>
@@ -4730,14 +4711,13 @@
       <c r="J35" s="32"/>
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-    </row>
-    <row r="36" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="32"/>
       <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="32"/>
       <c r="F36" s="32"/>
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
@@ -4745,14 +4725,13 @@
       <c r="J36" s="32"/>
       <c r="K36" s="32"/>
       <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-    </row>
-    <row r="37" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="32"/>
       <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="32"/>
       <c r="F37" s="32"/>
       <c r="G37" s="32"/>
       <c r="H37" s="32"/>
@@ -4760,14 +4739,13 @@
       <c r="J37" s="32"/>
       <c r="K37" s="32"/>
       <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-    </row>
-    <row r="38" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="32"/>
       <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="32"/>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
       <c r="H38" s="32"/>
@@ -4775,14 +4753,13 @@
       <c r="J38" s="32"/>
       <c r="K38" s="32"/>
       <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-    </row>
-    <row r="39" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="32"/>
       <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="32"/>
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
       <c r="H39" s="32"/>
@@ -4790,14 +4767,13 @@
       <c r="J39" s="32"/>
       <c r="K39" s="32"/>
       <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-    </row>
-    <row r="40" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="32"/>
       <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="32"/>
       <c r="F40" s="32"/>
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
@@ -4805,14 +4781,13 @@
       <c r="J40" s="32"/>
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
-    </row>
-    <row r="41" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="32"/>
       <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="32"/>
       <c r="F41" s="32"/>
       <c r="G41" s="32"/>
       <c r="H41" s="32"/>
@@ -4820,14 +4795,13 @@
       <c r="J41" s="32"/>
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-    </row>
-    <row r="42" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="32"/>
       <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="32"/>
       <c r="F42" s="32"/>
       <c r="G42" s="32"/>
       <c r="H42" s="32"/>
@@ -4835,14 +4809,13 @@
       <c r="J42" s="32"/>
       <c r="K42" s="32"/>
       <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
-    </row>
-    <row r="43" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="32"/>
       <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
@@ -4850,14 +4823,13 @@
       <c r="J43" s="32"/>
       <c r="K43" s="32"/>
       <c r="L43" s="32"/>
-      <c r="M43" s="32"/>
-    </row>
-    <row r="44" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="32"/>
       <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="32"/>
       <c r="F44" s="32"/>
       <c r="G44" s="32"/>
       <c r="H44" s="32"/>
@@ -4865,14 +4837,13 @@
       <c r="J44" s="32"/>
       <c r="K44" s="32"/>
       <c r="L44" s="32"/>
-      <c r="M44" s="32"/>
-    </row>
-    <row r="45" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="32"/>
       <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="32"/>
       <c r="F45" s="32"/>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
@@ -4880,14 +4851,13 @@
       <c r="J45" s="32"/>
       <c r="K45" s="32"/>
       <c r="L45" s="32"/>
-      <c r="M45" s="32"/>
-    </row>
-    <row r="46" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="32"/>
       <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="32"/>
       <c r="F46" s="32"/>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
@@ -4895,14 +4865,13 @@
       <c r="J46" s="32"/>
       <c r="K46" s="32"/>
       <c r="L46" s="32"/>
-      <c r="M46" s="32"/>
-    </row>
-    <row r="47" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="32"/>
       <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="32"/>
       <c r="F47" s="32"/>
       <c r="G47" s="32"/>
       <c r="H47" s="32"/>
@@ -4910,14 +4879,13 @@
       <c r="J47" s="32"/>
       <c r="K47" s="32"/>
       <c r="L47" s="32"/>
-      <c r="M47" s="32"/>
-    </row>
-    <row r="48" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="32"/>
       <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="32"/>
       <c r="F48" s="32"/>
       <c r="G48" s="32"/>
       <c r="H48" s="32"/>
@@ -4925,14 +4893,13 @@
       <c r="J48" s="32"/>
       <c r="K48" s="32"/>
       <c r="L48" s="32"/>
-      <c r="M48" s="32"/>
-    </row>
-    <row r="49" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="32"/>
       <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="32"/>
       <c r="F49" s="32"/>
       <c r="G49" s="32"/>
       <c r="H49" s="32"/>
@@ -4940,14 +4907,13 @@
       <c r="J49" s="32"/>
       <c r="K49" s="32"/>
       <c r="L49" s="32"/>
-      <c r="M49" s="32"/>
-    </row>
-    <row r="50" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="32"/>
       <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="32"/>
       <c r="F50" s="32"/>
       <c r="G50" s="32"/>
       <c r="H50" s="32"/>
@@ -4955,14 +4921,13 @@
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-    </row>
-    <row r="51" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="32"/>
       <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="32"/>
       <c r="F51" s="32"/>
       <c r="G51" s="32"/>
       <c r="H51" s="32"/>
@@ -4970,14 +4935,13 @@
       <c r="J51" s="32"/>
       <c r="K51" s="32"/>
       <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
-    </row>
-    <row r="52" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="32"/>
       <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="32"/>
       <c r="F52" s="32"/>
       <c r="G52" s="32"/>
       <c r="H52" s="32"/>
@@ -4985,14 +4949,13 @@
       <c r="J52" s="32"/>
       <c r="K52" s="32"/>
       <c r="L52" s="32"/>
-      <c r="M52" s="32"/>
-    </row>
-    <row r="53" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="32"/>
       <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="32"/>
       <c r="F53" s="32"/>
       <c r="G53" s="32"/>
       <c r="H53" s="32"/>
@@ -5000,14 +4963,13 @@
       <c r="J53" s="32"/>
       <c r="K53" s="32"/>
       <c r="L53" s="32"/>
-      <c r="M53" s="32"/>
-    </row>
-    <row r="54" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32"/>
       <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="48"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="32"/>
       <c r="F54" s="32"/>
       <c r="G54" s="32"/>
       <c r="H54" s="32"/>
@@ -5015,14 +4977,13 @@
       <c r="J54" s="32"/>
       <c r="K54" s="32"/>
       <c r="L54" s="32"/>
-      <c r="M54" s="32"/>
-    </row>
-    <row r="55" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32"/>
       <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="32"/>
       <c r="F55" s="32"/>
       <c r="G55" s="32"/>
       <c r="H55" s="32"/>
@@ -5030,14 +4991,13 @@
       <c r="J55" s="32"/>
       <c r="K55" s="32"/>
       <c r="L55" s="32"/>
-      <c r="M55" s="32"/>
-    </row>
-    <row r="56" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="32"/>
       <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="48"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="32"/>
       <c r="F56" s="32"/>
       <c r="G56" s="32"/>
       <c r="H56" s="32"/>
@@ -5045,14 +5005,13 @@
       <c r="J56" s="32"/>
       <c r="K56" s="32"/>
       <c r="L56" s="32"/>
-      <c r="M56" s="32"/>
-    </row>
-    <row r="57" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="32"/>
       <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="32"/>
       <c r="F57" s="32"/>
       <c r="G57" s="32"/>
       <c r="H57" s="32"/>
@@ -5060,14 +5019,13 @@
       <c r="J57" s="32"/>
       <c r="K57" s="32"/>
       <c r="L57" s="32"/>
-      <c r="M57" s="32"/>
-    </row>
-    <row r="58" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="32"/>
       <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="48"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="32"/>
       <c r="F58" s="32"/>
       <c r="G58" s="32"/>
       <c r="H58" s="32"/>
@@ -5075,14 +5033,13 @@
       <c r="J58" s="32"/>
       <c r="K58" s="32"/>
       <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
-    </row>
-    <row r="59" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="32"/>
       <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="32"/>
       <c r="F59" s="32"/>
       <c r="G59" s="32"/>
       <c r="H59" s="32"/>
@@ -5090,14 +5047,13 @@
       <c r="J59" s="32"/>
       <c r="K59" s="32"/>
       <c r="L59" s="32"/>
-      <c r="M59" s="32"/>
-    </row>
-    <row r="60" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="32"/>
       <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="48"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="32"/>
       <c r="F60" s="32"/>
       <c r="G60" s="32"/>
       <c r="H60" s="32"/>
@@ -5105,14 +5061,13 @@
       <c r="J60" s="32"/>
       <c r="K60" s="32"/>
       <c r="L60" s="32"/>
-      <c r="M60" s="32"/>
-    </row>
-    <row r="61" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="32"/>
       <c r="B61" s="32"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="32"/>
       <c r="F61" s="32"/>
       <c r="G61" s="32"/>
       <c r="H61" s="32"/>
@@ -5120,14 +5075,13 @@
       <c r="J61" s="32"/>
       <c r="K61" s="32"/>
       <c r="L61" s="32"/>
-      <c r="M61" s="32"/>
-    </row>
-    <row r="62" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="32"/>
       <c r="B62" s="32"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="48"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="32"/>
       <c r="F62" s="32"/>
       <c r="G62" s="32"/>
       <c r="H62" s="32"/>
@@ -5135,14 +5089,13 @@
       <c r="J62" s="32"/>
       <c r="K62" s="32"/>
       <c r="L62" s="32"/>
-      <c r="M62" s="32"/>
-    </row>
-    <row r="63" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="32"/>
       <c r="B63" s="32"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="48"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="32"/>
       <c r="F63" s="32"/>
       <c r="G63" s="32"/>
       <c r="H63" s="32"/>
@@ -5150,14 +5103,13 @@
       <c r="J63" s="32"/>
       <c r="K63" s="32"/>
       <c r="L63" s="32"/>
-      <c r="M63" s="32"/>
-    </row>
-    <row r="64" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="32"/>
       <c r="B64" s="32"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="48"/>
+      <c r="C64" s="49"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="32"/>
       <c r="F64" s="32"/>
       <c r="G64" s="32"/>
       <c r="H64" s="32"/>
@@ -5165,14 +5117,13 @@
       <c r="J64" s="32"/>
       <c r="K64" s="32"/>
       <c r="L64" s="32"/>
-      <c r="M64" s="32"/>
-    </row>
-    <row r="65" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="32"/>
       <c r="B65" s="32"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="48"/>
-      <c r="E65" s="48"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="32"/>
       <c r="F65" s="32"/>
       <c r="G65" s="32"/>
       <c r="H65" s="32"/>
@@ -5180,14 +5131,13 @@
       <c r="J65" s="32"/>
       <c r="K65" s="32"/>
       <c r="L65" s="32"/>
-      <c r="M65" s="32"/>
-    </row>
-    <row r="66" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="32"/>
       <c r="B66" s="32"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="32"/>
       <c r="F66" s="32"/>
       <c r="G66" s="32"/>
       <c r="H66" s="32"/>
@@ -5195,14 +5145,13 @@
       <c r="J66" s="32"/>
       <c r="K66" s="32"/>
       <c r="L66" s="32"/>
-      <c r="M66" s="32"/>
-    </row>
-    <row r="67" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="32"/>
       <c r="B67" s="32"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="48"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="32"/>
       <c r="F67" s="32"/>
       <c r="G67" s="32"/>
       <c r="H67" s="32"/>
@@ -5210,14 +5159,13 @@
       <c r="J67" s="32"/>
       <c r="K67" s="32"/>
       <c r="L67" s="32"/>
-      <c r="M67" s="32"/>
-    </row>
-    <row r="68" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="32"/>
       <c r="B68" s="32"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="32"/>
       <c r="F68" s="32"/>
       <c r="G68" s="32"/>
       <c r="H68" s="32"/>
@@ -5225,14 +5173,13 @@
       <c r="J68" s="32"/>
       <c r="K68" s="32"/>
       <c r="L68" s="32"/>
-      <c r="M68" s="32"/>
-    </row>
-    <row r="69" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="32"/>
       <c r="B69" s="32"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="48"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="32"/>
       <c r="F69" s="32"/>
       <c r="G69" s="32"/>
       <c r="H69" s="32"/>
@@ -5240,14 +5187,13 @@
       <c r="J69" s="32"/>
       <c r="K69" s="32"/>
       <c r="L69" s="32"/>
-      <c r="M69" s="32"/>
-    </row>
-    <row r="70" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="32"/>
       <c r="B70" s="32"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="48"/>
-      <c r="E70" s="48"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="32"/>
       <c r="F70" s="32"/>
       <c r="G70" s="32"/>
       <c r="H70" s="32"/>
@@ -5255,14 +5201,13 @@
       <c r="J70" s="32"/>
       <c r="K70" s="32"/>
       <c r="L70" s="32"/>
-      <c r="M70" s="32"/>
-    </row>
-    <row r="71" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="32"/>
       <c r="B71" s="32"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="48"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="32"/>
       <c r="F71" s="32"/>
       <c r="G71" s="32"/>
       <c r="H71" s="32"/>
@@ -5270,14 +5215,13 @@
       <c r="J71" s="32"/>
       <c r="K71" s="32"/>
       <c r="L71" s="32"/>
-      <c r="M71" s="32"/>
-    </row>
-    <row r="72" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="32"/>
       <c r="B72" s="32"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="48"/>
-      <c r="E72" s="48"/>
+      <c r="C72" s="49"/>
+      <c r="D72" s="49"/>
+      <c r="E72" s="32"/>
       <c r="F72" s="32"/>
       <c r="G72" s="32"/>
       <c r="H72" s="32"/>
@@ -5285,14 +5229,13 @@
       <c r="J72" s="32"/>
       <c r="K72" s="32"/>
       <c r="L72" s="32"/>
-      <c r="M72" s="32"/>
-    </row>
-    <row r="73" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="32"/>
       <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="48"/>
-      <c r="E73" s="48"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="49"/>
+      <c r="E73" s="32"/>
       <c r="F73" s="32"/>
       <c r="G73" s="32"/>
       <c r="H73" s="32"/>
@@ -5300,14 +5243,13 @@
       <c r="J73" s="32"/>
       <c r="K73" s="32"/>
       <c r="L73" s="32"/>
-      <c r="M73" s="32"/>
-    </row>
-    <row r="74" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="32"/>
       <c r="B74" s="32"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="48"/>
-      <c r="E74" s="48"/>
+      <c r="C74" s="49"/>
+      <c r="D74" s="49"/>
+      <c r="E74" s="32"/>
       <c r="F74" s="32"/>
       <c r="G74" s="32"/>
       <c r="H74" s="32"/>
@@ -5315,14 +5257,13 @@
       <c r="J74" s="32"/>
       <c r="K74" s="32"/>
       <c r="L74" s="32"/>
-      <c r="M74" s="32"/>
-    </row>
-    <row r="75" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="32"/>
       <c r="B75" s="32"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="32"/>
       <c r="F75" s="32"/>
       <c r="G75" s="32"/>
       <c r="H75" s="32"/>
@@ -5330,14 +5271,13 @@
       <c r="J75" s="32"/>
       <c r="K75" s="32"/>
       <c r="L75" s="32"/>
-      <c r="M75" s="32"/>
-    </row>
-    <row r="76" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="32"/>
       <c r="B76" s="32"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="48"/>
-      <c r="E76" s="48"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="32"/>
       <c r="F76" s="32"/>
       <c r="G76" s="32"/>
       <c r="H76" s="32"/>
@@ -5345,14 +5285,13 @@
       <c r="J76" s="32"/>
       <c r="K76" s="32"/>
       <c r="L76" s="32"/>
-      <c r="M76" s="32"/>
-    </row>
-    <row r="77" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="32"/>
       <c r="B77" s="32"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="48"/>
-      <c r="E77" s="48"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="32"/>
       <c r="F77" s="32"/>
       <c r="G77" s="32"/>
       <c r="H77" s="32"/>
@@ -5360,14 +5299,13 @@
       <c r="J77" s="32"/>
       <c r="K77" s="32"/>
       <c r="L77" s="32"/>
-      <c r="M77" s="32"/>
-    </row>
-    <row r="78" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="32"/>
       <c r="B78" s="32"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="48"/>
-      <c r="E78" s="48"/>
+      <c r="C78" s="49"/>
+      <c r="D78" s="49"/>
+      <c r="E78" s="32"/>
       <c r="F78" s="32"/>
       <c r="G78" s="32"/>
       <c r="H78" s="32"/>
@@ -5375,14 +5313,13 @@
       <c r="J78" s="32"/>
       <c r="K78" s="32"/>
       <c r="L78" s="32"/>
-      <c r="M78" s="32"/>
-    </row>
-    <row r="79" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="32"/>
       <c r="B79" s="32"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="48"/>
-      <c r="E79" s="48"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="49"/>
+      <c r="E79" s="32"/>
       <c r="F79" s="32"/>
       <c r="G79" s="32"/>
       <c r="H79" s="32"/>
@@ -5390,14 +5327,13 @@
       <c r="J79" s="32"/>
       <c r="K79" s="32"/>
       <c r="L79" s="32"/>
-      <c r="M79" s="32"/>
-    </row>
-    <row r="80" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="32"/>
       <c r="B80" s="32"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="48"/>
-      <c r="E80" s="48"/>
+      <c r="C80" s="49"/>
+      <c r="D80" s="49"/>
+      <c r="E80" s="32"/>
       <c r="F80" s="32"/>
       <c r="G80" s="32"/>
       <c r="H80" s="32"/>
@@ -5405,606 +5341,565 @@
       <c r="J80" s="32"/>
       <c r="K80" s="32"/>
       <c r="L80" s="32"/>
-      <c r="M80" s="32"/>
-    </row>
-    <row r="81" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="25"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="49"/>
-      <c r="E81" s="49"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="50"/>
+      <c r="D81" s="50"/>
+      <c r="E81" s="33"/>
       <c r="F81" s="33"/>
-      <c r="G81" s="33"/>
-      <c r="H81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="33"/>
       <c r="I81" s="33"/>
       <c r="J81" s="33"/>
       <c r="K81" s="33"/>
-      <c r="L81" s="33"/>
-      <c r="M81" s="25"/>
-    </row>
-    <row r="82" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L81" s="25"/>
+    </row>
+    <row r="82" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="25"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="33"/>
-      <c r="D82" s="49"/>
-      <c r="E82" s="49"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="50"/>
+      <c r="D82" s="50"/>
+      <c r="E82" s="33"/>
       <c r="F82" s="33"/>
-      <c r="G82" s="33"/>
-      <c r="H82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="33"/>
       <c r="I82" s="33"/>
       <c r="J82" s="33"/>
       <c r="K82" s="33"/>
-      <c r="L82" s="33"/>
-      <c r="M82" s="25"/>
-    </row>
-    <row r="83" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L82" s="25"/>
+    </row>
+    <row r="83" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="25"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="49"/>
-      <c r="E83" s="49"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="50"/>
+      <c r="D83" s="50"/>
+      <c r="E83" s="33"/>
       <c r="F83" s="33"/>
-      <c r="G83" s="33"/>
-      <c r="H83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="33"/>
       <c r="I83" s="33"/>
       <c r="J83" s="33"/>
       <c r="K83" s="33"/>
-      <c r="L83" s="33"/>
-      <c r="M83" s="25"/>
-    </row>
-    <row r="84" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L83" s="25"/>
+    </row>
+    <row r="84" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="25"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="49"/>
-      <c r="E84" s="49"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="50"/>
+      <c r="D84" s="50"/>
+      <c r="E84" s="33"/>
       <c r="F84" s="33"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="33"/>
       <c r="I84" s="33"/>
       <c r="J84" s="33"/>
       <c r="K84" s="33"/>
-      <c r="L84" s="33"/>
-      <c r="M84" s="25"/>
-    </row>
-    <row r="85" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L84" s="25"/>
+    </row>
+    <row r="85" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="25"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="49"/>
-      <c r="E85" s="49"/>
+      <c r="B85" s="33"/>
+      <c r="C85" s="50"/>
+      <c r="D85" s="50"/>
+      <c r="E85" s="33"/>
       <c r="F85" s="33"/>
-      <c r="G85" s="33"/>
-      <c r="H85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="33"/>
       <c r="I85" s="33"/>
       <c r="J85" s="33"/>
       <c r="K85" s="33"/>
-      <c r="L85" s="33"/>
-      <c r="M85" s="25"/>
-    </row>
-    <row r="86" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L85" s="25"/>
+    </row>
+    <row r="86" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="25"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="49"/>
-      <c r="E86" s="49"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="50"/>
+      <c r="D86" s="50"/>
+      <c r="E86" s="33"/>
       <c r="F86" s="33"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="33"/>
       <c r="I86" s="33"/>
       <c r="J86" s="33"/>
       <c r="K86" s="33"/>
-      <c r="L86" s="33"/>
-      <c r="M86" s="25"/>
-    </row>
-    <row r="87" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L86" s="25"/>
+    </row>
+    <row r="87" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="25"/>
-      <c r="B87" s="25"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="49"/>
-      <c r="E87" s="49"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="50"/>
+      <c r="D87" s="50"/>
+      <c r="E87" s="33"/>
       <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="33"/>
       <c r="I87" s="33"/>
       <c r="J87" s="33"/>
       <c r="K87" s="33"/>
-      <c r="L87" s="33"/>
-      <c r="M87" s="25"/>
-    </row>
-    <row r="88" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L87" s="25"/>
+    </row>
+    <row r="88" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="25"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="49"/>
-      <c r="E88" s="49"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="50"/>
+      <c r="D88" s="50"/>
+      <c r="E88" s="33"/>
       <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="33"/>
       <c r="I88" s="33"/>
       <c r="J88" s="33"/>
       <c r="K88" s="33"/>
-      <c r="L88" s="33"/>
-      <c r="M88" s="25"/>
-    </row>
-    <row r="89" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L88" s="25"/>
+    </row>
+    <row r="89" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="25"/>
-      <c r="B89" s="25"/>
-      <c r="C89" s="33"/>
-      <c r="D89" s="49"/>
-      <c r="E89" s="49"/>
+      <c r="B89" s="33"/>
+      <c r="C89" s="50"/>
+      <c r="D89" s="50"/>
+      <c r="E89" s="33"/>
       <c r="F89" s="33"/>
-      <c r="G89" s="33"/>
-      <c r="H89" s="25"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="33"/>
       <c r="I89" s="33"/>
       <c r="J89" s="33"/>
       <c r="K89" s="33"/>
-      <c r="L89" s="33"/>
-      <c r="M89" s="25"/>
-    </row>
-    <row r="90" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L89" s="25"/>
+    </row>
+    <row r="90" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="25"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="33"/>
-      <c r="D90" s="49"/>
-      <c r="E90" s="49"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="50"/>
+      <c r="E90" s="33"/>
       <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="25"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="33"/>
       <c r="I90" s="33"/>
       <c r="J90" s="33"/>
       <c r="K90" s="33"/>
-      <c r="L90" s="33"/>
-      <c r="M90" s="25"/>
-    </row>
-    <row r="91" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L90" s="25"/>
+    </row>
+    <row r="91" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="25"/>
-      <c r="B91" s="25"/>
-      <c r="C91" s="33"/>
-      <c r="D91" s="49"/>
-      <c r="E91" s="49"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="50"/>
+      <c r="D91" s="50"/>
+      <c r="E91" s="33"/>
       <c r="F91" s="33"/>
-      <c r="G91" s="33"/>
-      <c r="H91" s="25"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="33"/>
       <c r="I91" s="33"/>
       <c r="J91" s="33"/>
       <c r="K91" s="33"/>
-      <c r="L91" s="33"/>
-      <c r="M91" s="25"/>
-    </row>
-    <row r="92" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L91" s="25"/>
+    </row>
+    <row r="92" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="25"/>
-      <c r="B92" s="25"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="49"/>
-      <c r="E92" s="49"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="50"/>
+      <c r="D92" s="50"/>
+      <c r="E92" s="33"/>
       <c r="F92" s="33"/>
-      <c r="G92" s="33"/>
-      <c r="H92" s="25"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="33"/>
       <c r="I92" s="33"/>
       <c r="J92" s="33"/>
       <c r="K92" s="33"/>
-      <c r="L92" s="33"/>
-      <c r="M92" s="25"/>
-    </row>
-    <row r="93" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L92" s="25"/>
+    </row>
+    <row r="93" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="25"/>
-      <c r="B93" s="25"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="49"/>
-      <c r="E93" s="49"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="50"/>
+      <c r="D93" s="50"/>
+      <c r="E93" s="33"/>
       <c r="F93" s="33"/>
-      <c r="G93" s="33"/>
-      <c r="H93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="33"/>
       <c r="I93" s="33"/>
       <c r="J93" s="33"/>
       <c r="K93" s="33"/>
-      <c r="L93" s="33"/>
-      <c r="M93" s="25"/>
-    </row>
-    <row r="94" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L93" s="25"/>
+    </row>
+    <row r="94" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="25"/>
-      <c r="B94" s="25"/>
-      <c r="C94" s="33"/>
-      <c r="D94" s="49"/>
-      <c r="E94" s="49"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="50"/>
+      <c r="D94" s="50"/>
+      <c r="E94" s="33"/>
       <c r="F94" s="33"/>
-      <c r="G94" s="33"/>
-      <c r="H94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="33"/>
       <c r="I94" s="33"/>
       <c r="J94" s="33"/>
       <c r="K94" s="33"/>
-      <c r="L94" s="33"/>
-      <c r="M94" s="25"/>
-    </row>
-    <row r="95" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L94" s="25"/>
+    </row>
+    <row r="95" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="25"/>
-      <c r="B95" s="25"/>
-      <c r="C95" s="33"/>
-      <c r="D95" s="49"/>
-      <c r="E95" s="49"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="50"/>
+      <c r="D95" s="50"/>
+      <c r="E95" s="33"/>
       <c r="F95" s="33"/>
-      <c r="G95" s="33"/>
-      <c r="H95" s="25"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="33"/>
       <c r="I95" s="33"/>
       <c r="J95" s="33"/>
       <c r="K95" s="33"/>
-      <c r="L95" s="33"/>
-      <c r="M95" s="25"/>
-    </row>
-    <row r="96" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L95" s="25"/>
+    </row>
+    <row r="96" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="25"/>
-      <c r="B96" s="25"/>
-      <c r="C96" s="33"/>
-      <c r="D96" s="49"/>
-      <c r="E96" s="49"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="50"/>
+      <c r="D96" s="50"/>
+      <c r="E96" s="33"/>
       <c r="F96" s="33"/>
-      <c r="G96" s="33"/>
-      <c r="H96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="33"/>
       <c r="I96" s="33"/>
       <c r="J96" s="33"/>
       <c r="K96" s="33"/>
-      <c r="L96" s="33"/>
-      <c r="M96" s="25"/>
-    </row>
-    <row r="97" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L96" s="25"/>
+    </row>
+    <row r="97" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="25"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="33"/>
-      <c r="D97" s="49"/>
-      <c r="E97" s="49"/>
+      <c r="B97" s="33"/>
+      <c r="C97" s="50"/>
+      <c r="D97" s="50"/>
+      <c r="E97" s="33"/>
       <c r="F97" s="33"/>
-      <c r="G97" s="33"/>
-      <c r="H97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="33"/>
       <c r="I97" s="33"/>
       <c r="J97" s="33"/>
       <c r="K97" s="33"/>
-      <c r="L97" s="33"/>
-      <c r="M97" s="25"/>
-    </row>
-    <row r="98" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L97" s="25"/>
+    </row>
+    <row r="98" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="25"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="33"/>
-      <c r="D98" s="49"/>
-      <c r="E98" s="49"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="50"/>
+      <c r="D98" s="50"/>
+      <c r="E98" s="33"/>
       <c r="F98" s="33"/>
-      <c r="G98" s="33"/>
-      <c r="H98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="33"/>
       <c r="I98" s="33"/>
       <c r="J98" s="33"/>
       <c r="K98" s="33"/>
-      <c r="L98" s="33"/>
-      <c r="M98" s="25"/>
-    </row>
-    <row r="99" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L98" s="25"/>
+    </row>
+    <row r="99" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="25"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="33"/>
-      <c r="D99" s="49"/>
-      <c r="E99" s="49"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="50"/>
+      <c r="D99" s="50"/>
+      <c r="E99" s="33"/>
       <c r="F99" s="33"/>
-      <c r="G99" s="33"/>
-      <c r="H99" s="25"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="33"/>
       <c r="I99" s="33"/>
       <c r="J99" s="33"/>
       <c r="K99" s="33"/>
-      <c r="L99" s="33"/>
-      <c r="M99" s="25"/>
-    </row>
-    <row r="100" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L99" s="25"/>
+    </row>
+    <row r="100" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="25"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="33"/>
-      <c r="D100" s="49"/>
-      <c r="E100" s="49"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="50"/>
+      <c r="D100" s="50"/>
+      <c r="E100" s="33"/>
       <c r="F100" s="33"/>
-      <c r="G100" s="33"/>
-      <c r="H100" s="25"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="33"/>
       <c r="I100" s="33"/>
       <c r="J100" s="33"/>
       <c r="K100" s="33"/>
-      <c r="L100" s="33"/>
-      <c r="M100" s="25"/>
-    </row>
-    <row r="101" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L100" s="25"/>
+    </row>
+    <row r="101" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="25"/>
-      <c r="B101" s="25"/>
-      <c r="C101" s="33"/>
-      <c r="D101" s="49"/>
-      <c r="E101" s="49"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="50"/>
+      <c r="D101" s="50"/>
+      <c r="E101" s="33"/>
       <c r="F101" s="33"/>
-      <c r="G101" s="33"/>
-      <c r="H101" s="25"/>
+      <c r="G101" s="25"/>
+      <c r="H101" s="33"/>
       <c r="I101" s="33"/>
       <c r="J101" s="33"/>
       <c r="K101" s="33"/>
-      <c r="L101" s="33"/>
-      <c r="M101" s="25"/>
-    </row>
-    <row r="102" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L101" s="25"/>
+    </row>
+    <row r="102" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="25"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="33"/>
-      <c r="D102" s="49"/>
-      <c r="E102" s="49"/>
+      <c r="B102" s="33"/>
+      <c r="C102" s="50"/>
+      <c r="D102" s="50"/>
+      <c r="E102" s="33"/>
       <c r="F102" s="33"/>
-      <c r="G102" s="33"/>
-      <c r="H102" s="25"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="33"/>
       <c r="I102" s="33"/>
       <c r="J102" s="33"/>
       <c r="K102" s="33"/>
-      <c r="L102" s="33"/>
-      <c r="M102" s="25"/>
-    </row>
-    <row r="103" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L102" s="25"/>
+    </row>
+    <row r="103" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="25"/>
-      <c r="B103" s="25"/>
-      <c r="C103" s="33"/>
-      <c r="D103" s="49"/>
-      <c r="E103" s="49"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="50"/>
+      <c r="D103" s="50"/>
+      <c r="E103" s="33"/>
       <c r="F103" s="33"/>
-      <c r="G103" s="33"/>
-      <c r="H103" s="25"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="33"/>
       <c r="I103" s="33"/>
       <c r="J103" s="33"/>
       <c r="K103" s="33"/>
-      <c r="L103" s="33"/>
-      <c r="M103" s="25"/>
-    </row>
-    <row r="104" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L103" s="25"/>
+    </row>
+    <row r="104" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="25"/>
-      <c r="B104" s="25"/>
-      <c r="C104" s="33"/>
-      <c r="D104" s="49"/>
-      <c r="E104" s="49"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="50"/>
+      <c r="D104" s="50"/>
+      <c r="E104" s="33"/>
       <c r="F104" s="33"/>
-      <c r="G104" s="33"/>
-      <c r="H104" s="25"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="33"/>
       <c r="I104" s="33"/>
       <c r="J104" s="33"/>
       <c r="K104" s="33"/>
-      <c r="L104" s="33"/>
-      <c r="M104" s="25"/>
-    </row>
-    <row r="105" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L104" s="25"/>
+    </row>
+    <row r="105" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="25"/>
-      <c r="B105" s="25"/>
-      <c r="C105" s="33"/>
-      <c r="D105" s="49"/>
-      <c r="E105" s="49"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="50"/>
+      <c r="D105" s="50"/>
+      <c r="E105" s="33"/>
       <c r="F105" s="33"/>
-      <c r="G105" s="33"/>
-      <c r="H105" s="25"/>
+      <c r="G105" s="25"/>
+      <c r="H105" s="33"/>
       <c r="I105" s="33"/>
       <c r="J105" s="33"/>
       <c r="K105" s="33"/>
-      <c r="L105" s="33"/>
-      <c r="M105" s="25"/>
-    </row>
-    <row r="106" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L105" s="25"/>
+    </row>
+    <row r="106" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="25"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="33"/>
-      <c r="D106" s="49"/>
-      <c r="E106" s="49"/>
+      <c r="B106" s="33"/>
+      <c r="C106" s="50"/>
+      <c r="D106" s="50"/>
+      <c r="E106" s="33"/>
       <c r="F106" s="33"/>
-      <c r="G106" s="33"/>
-      <c r="H106" s="25"/>
+      <c r="G106" s="25"/>
+      <c r="H106" s="33"/>
       <c r="I106" s="33"/>
       <c r="J106" s="33"/>
       <c r="K106" s="33"/>
-      <c r="L106" s="33"/>
-      <c r="M106" s="25"/>
-    </row>
-    <row r="107" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L106" s="25"/>
+    </row>
+    <row r="107" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="25"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="49"/>
-      <c r="E107" s="49"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="50"/>
+      <c r="D107" s="50"/>
+      <c r="E107" s="33"/>
       <c r="F107" s="33"/>
-      <c r="G107" s="33"/>
-      <c r="H107" s="25"/>
+      <c r="G107" s="25"/>
+      <c r="H107" s="33"/>
       <c r="I107" s="33"/>
       <c r="J107" s="33"/>
       <c r="K107" s="33"/>
-      <c r="L107" s="33"/>
-      <c r="M107" s="25"/>
-    </row>
-    <row r="108" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L107" s="25"/>
+    </row>
+    <row r="108" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="25"/>
-      <c r="B108" s="25"/>
-      <c r="C108" s="33"/>
-      <c r="D108" s="49"/>
-      <c r="E108" s="49"/>
+      <c r="B108" s="33"/>
+      <c r="C108" s="50"/>
+      <c r="D108" s="50"/>
+      <c r="E108" s="33"/>
       <c r="F108" s="33"/>
-      <c r="G108" s="33"/>
-      <c r="H108" s="25"/>
+      <c r="G108" s="25"/>
+      <c r="H108" s="33"/>
       <c r="I108" s="33"/>
       <c r="J108" s="33"/>
       <c r="K108" s="33"/>
-      <c r="L108" s="33"/>
-      <c r="M108" s="25"/>
-    </row>
-    <row r="109" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L108" s="25"/>
+    </row>
+    <row r="109" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="25"/>
-      <c r="B109" s="25"/>
-      <c r="C109" s="33"/>
-      <c r="D109" s="49"/>
-      <c r="E109" s="49"/>
+      <c r="B109" s="33"/>
+      <c r="C109" s="50"/>
+      <c r="D109" s="50"/>
+      <c r="E109" s="33"/>
       <c r="F109" s="33"/>
-      <c r="G109" s="33"/>
-      <c r="H109" s="25"/>
+      <c r="G109" s="25"/>
+      <c r="H109" s="33"/>
       <c r="I109" s="33"/>
       <c r="J109" s="33"/>
       <c r="K109" s="33"/>
-      <c r="L109" s="33"/>
-      <c r="M109" s="25"/>
-    </row>
-    <row r="110" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L109" s="25"/>
+    </row>
+    <row r="110" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="25"/>
-      <c r="B110" s="25"/>
-      <c r="C110" s="33"/>
-      <c r="D110" s="49"/>
-      <c r="E110" s="49"/>
+      <c r="B110" s="33"/>
+      <c r="C110" s="50"/>
+      <c r="D110" s="50"/>
+      <c r="E110" s="33"/>
       <c r="F110" s="33"/>
-      <c r="G110" s="33"/>
-      <c r="H110" s="25"/>
+      <c r="G110" s="25"/>
+      <c r="H110" s="33"/>
       <c r="I110" s="33"/>
       <c r="J110" s="33"/>
       <c r="K110" s="33"/>
-      <c r="L110" s="33"/>
-      <c r="M110" s="25"/>
-    </row>
-    <row r="111" spans="1:13" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L110" s="25"/>
+    </row>
+    <row r="111" spans="1:12" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="27"/>
-      <c r="B111" s="27"/>
-      <c r="C111" s="34"/>
-      <c r="D111" s="50"/>
-      <c r="E111" s="50"/>
+      <c r="B111" s="34"/>
+      <c r="C111" s="51"/>
+      <c r="D111" s="51"/>
+      <c r="E111" s="34"/>
       <c r="F111" s="34"/>
-      <c r="G111" s="34"/>
-      <c r="H111" s="27"/>
+      <c r="G111" s="27"/>
+      <c r="H111" s="34"/>
       <c r="I111" s="34"/>
       <c r="J111" s="34"/>
       <c r="K111" s="34"/>
-      <c r="L111" s="34"/>
-      <c r="M111" s="27"/>
-    </row>
-    <row r="112" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="25"/>
+      <c r="L111" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="E1:H3"/>
+  <mergeCells count="121">
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="D1:G3"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="C10:D11"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="B10:B11"/>
   </mergeCells>
-  <conditionalFormatting sqref="J12:K111">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(J12))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -6053,10 +5948,10 @@
         <v>99</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E1" s="3">
         <v>1</v>
@@ -6080,10 +5975,10 @@
         <v>0.01</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>211</v>
@@ -6101,10 +5996,10 @@
         <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E2" s="3">
         <v>2</v>
@@ -6128,10 +6023,10 @@
         <v>0.02</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>213</v>
@@ -6149,10 +6044,10 @@
         <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E3" s="3">
         <v>3</v>
@@ -6176,10 +6071,10 @@
         <v>0.03</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>215</v>
@@ -6197,10 +6092,10 @@
         <v>96</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -6224,10 +6119,10 @@
         <v>0.04</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>217</v>
@@ -6243,10 +6138,10 @@
         <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E5" s="3">
         <v>5</v>
@@ -6270,10 +6165,10 @@
         <v>0.05</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>219</v>
@@ -6291,10 +6186,10 @@
         <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E6" s="3">
         <v>6</v>
@@ -6318,17 +6213,17 @@
         <v>0.06</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="N6" s="8" t="s">
         <v>221</v>
       </c>
       <c r="O6" s="8"/>
       <c r="P6" s="9" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -6339,10 +6234,10 @@
         <v>93</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E7" s="3">
         <v>7</v>
@@ -6366,17 +6261,17 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>223</v>
       </c>
       <c r="O7" s="8"/>
       <c r="P7" s="8" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -6387,10 +6282,10 @@
         <v>92</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E8" s="3">
         <v>8</v>
@@ -6414,10 +6309,10 @@
         <v>0.08</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="N8" s="8" t="s">
         <v>225</v>
@@ -6433,10 +6328,10 @@
         <v>91</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E9" s="3">
         <v>9</v>
@@ -6460,10 +6355,10 @@
         <v>0.09</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>227</v>
@@ -6483,10 +6378,10 @@
         <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E10" s="3">
         <v>10</v>
@@ -6510,19 +6405,19 @@
         <v>0.1</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>229</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -6533,10 +6428,10 @@
         <v>89</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="E11" s="3">
         <v>11</v>
@@ -6560,19 +6455,19 @@
         <v>0.11</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N11" s="8" t="s">
         <v>231</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -6583,10 +6478,10 @@
         <v>88</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="E12" s="3">
         <v>12</v>
@@ -6610,19 +6505,19 @@
         <v>0.12</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="N12" s="8" t="s">
         <v>233</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -6633,10 +6528,10 @@
         <v>87</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E13" s="3">
         <v>13</v>
@@ -6660,10 +6555,10 @@
         <v>0.13</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>235</v>
@@ -6677,10 +6572,10 @@
         <v>86</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E14" s="3">
         <v>14</v>
@@ -6704,10 +6599,10 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="N14" s="8" t="s">
         <v>237</v>
@@ -6721,10 +6616,10 @@
         <v>85</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E15" s="3">
         <v>15</v>
@@ -6748,10 +6643,10 @@
         <v>0.15</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N15" s="8" t="s">
         <v>239</v>
@@ -6765,10 +6660,10 @@
         <v>84</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E16" s="3">
         <v>16</v>
@@ -6792,10 +6687,10 @@
         <v>0.16</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="N16" s="8" t="s">
         <v>241</v>
@@ -6809,10 +6704,10 @@
         <v>83</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="E17" s="3">
         <v>17</v>
@@ -6836,10 +6731,10 @@
         <v>0.17</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="N17" s="8" t="s">
         <v>243</v>
@@ -6853,10 +6748,10 @@
         <v>82</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E18" s="3">
         <v>18</v>
@@ -6880,10 +6775,10 @@
         <v>0.18</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="N18" s="8" t="s">
         <v>245</v>
@@ -6897,10 +6792,10 @@
         <v>81</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E19" s="3">
         <v>19</v>
@@ -6924,10 +6819,10 @@
         <v>0.19</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="N19" s="8" t="s">
         <v>247</v>
@@ -6941,10 +6836,10 @@
         <v>80</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E20" s="3">
         <v>20</v>
@@ -6968,10 +6863,10 @@
         <v>0.2</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="N20" s="8" t="s">
         <v>249</v>
@@ -6985,10 +6880,10 @@
         <v>79</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E21" s="3">
         <v>21</v>
@@ -7012,10 +6907,10 @@
         <v>0.21</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="N21" s="8" t="s">
         <v>251</v>
@@ -7029,10 +6924,10 @@
         <v>78</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E22" s="3">
         <v>22</v>
@@ -7056,10 +6951,10 @@
         <v>0.22</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>253</v>
@@ -7073,10 +6968,10 @@
         <v>77</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E23" s="3">
         <v>23</v>
@@ -7100,10 +6995,10 @@
         <v>0.23</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="N23" s="8" t="s">
         <v>255</v>
@@ -7117,10 +7012,10 @@
         <v>76</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="E24" s="3">
         <v>24</v>
@@ -7144,10 +7039,10 @@
         <v>0.24</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="N24" s="8" t="s">
         <v>257</v>
@@ -7161,10 +7056,10 @@
         <v>75</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E25" s="3">
         <v>25</v>
@@ -7188,10 +7083,10 @@
         <v>0.25</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="N25" s="8" t="s">
         <v>259</v>
@@ -7205,10 +7100,10 @@
         <v>74</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E26" s="3">
         <v>26</v>
@@ -7232,10 +7127,10 @@
         <v>0.26</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="N26" s="8" t="s">
         <v>261</v>
@@ -7249,10 +7144,10 @@
         <v>73</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="E27" s="3">
         <v>27</v>
@@ -7276,10 +7171,10 @@
         <v>0.27</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="N27" s="8" t="s">
         <v>263</v>
@@ -7293,10 +7188,10 @@
         <v>72</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E28" s="3">
         <v>28</v>
@@ -7320,10 +7215,10 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="N28" s="8" t="s">
         <v>265</v>
@@ -7337,10 +7232,10 @@
         <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E29" s="3">
         <v>29</v>
@@ -7364,10 +7259,10 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="N29" s="8" t="s">
         <v>267</v>
@@ -7381,10 +7276,10 @@
         <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E30" s="3">
         <v>30</v>
@@ -7408,10 +7303,10 @@
         <v>0.3</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="N30" s="8" t="s">
         <v>269</v>
@@ -7425,10 +7320,10 @@
         <v>69</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E31" s="3">
         <v>31</v>
@@ -7452,10 +7347,10 @@
         <v>0.31</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="N31" s="8" t="s">
         <v>271</v>
@@ -7469,10 +7364,10 @@
         <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E32" s="3">
         <v>32</v>
@@ -7496,10 +7391,10 @@
         <v>0.32</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="N32" s="8" t="s">
         <v>273</v>
@@ -7513,10 +7408,10 @@
         <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="E33" s="3">
         <v>33</v>
@@ -7540,10 +7435,10 @@
         <v>0.33</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="N33" s="8" t="s">
         <v>275</v>
@@ -7557,10 +7452,10 @@
         <v>66</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E34" s="3">
         <v>34</v>
@@ -7584,10 +7479,10 @@
         <v>0.34</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="N34" s="8" t="s">
         <v>277</v>
@@ -7601,10 +7496,10 @@
         <v>65</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="E35" s="3">
         <v>35</v>
@@ -7628,10 +7523,10 @@
         <v>0.35</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N35" s="8" t="s">
         <v>279</v>
@@ -7645,10 +7540,10 @@
         <v>64</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="E36" s="3">
         <v>36</v>
@@ -7672,10 +7567,10 @@
         <v>0.36</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="N36" s="8" t="s">
         <v>281</v>
@@ -7689,10 +7584,10 @@
         <v>63</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="E37" s="3">
         <v>37</v>
@@ -7716,10 +7611,10 @@
         <v>0.37</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="N37" s="8" t="s">
         <v>283</v>
@@ -7733,10 +7628,10 @@
         <v>62</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E38" s="3">
         <v>38</v>
@@ -7760,10 +7655,10 @@
         <v>0.38</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="N38" s="8" t="s">
         <v>285</v>
@@ -7777,10 +7672,10 @@
         <v>61</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="E39" s="3">
         <v>39</v>
@@ -7804,10 +7699,10 @@
         <v>0.39</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="N39" s="8" t="s">
         <v>287</v>
@@ -7821,10 +7716,10 @@
         <v>60</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E40" s="3">
         <v>40</v>
@@ -7848,10 +7743,10 @@
         <v>0.4</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="N40" s="8" t="s">
         <v>289</v>
@@ -7865,10 +7760,10 @@
         <v>59</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="E41" s="3">
         <v>41</v>
@@ -7892,10 +7787,10 @@
         <v>0.41</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="N41" s="8" t="s">
         <v>291</v>
@@ -7909,10 +7804,10 @@
         <v>58</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E42" s="3">
         <v>42</v>
@@ -7936,10 +7831,10 @@
         <v>0.42</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="N42" s="8" t="s">
         <v>293</v>
@@ -7953,10 +7848,10 @@
         <v>57</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="E43" s="3">
         <v>43</v>
@@ -7980,10 +7875,10 @@
         <v>0.43</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="N43" s="8" t="s">
         <v>295</v>
@@ -7997,10 +7892,10 @@
         <v>56</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="E44" s="3">
         <v>44</v>
@@ -8024,10 +7919,10 @@
         <v>0.44</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="N44" s="8" t="s">
         <v>297</v>
@@ -8041,10 +7936,10 @@
         <v>55</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E45" s="3">
         <v>45</v>
@@ -8068,10 +7963,10 @@
         <v>0.45</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="N45" s="8" t="s">
         <v>299</v>
@@ -8085,10 +7980,10 @@
         <v>54</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E46" s="3">
         <v>46</v>
@@ -8112,10 +8007,10 @@
         <v>0.46</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="N46" s="8" t="s">
         <v>301</v>
@@ -8129,10 +8024,10 @@
         <v>53</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="E47" s="3">
         <v>47</v>
@@ -8156,10 +8051,10 @@
         <v>0.47</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="N47" s="8" t="s">
         <v>303</v>
@@ -8173,10 +8068,10 @@
         <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E48" s="3">
         <v>48</v>
@@ -8200,10 +8095,10 @@
         <v>0.48</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="N48" s="8" t="s">
         <v>305</v>
@@ -8217,10 +8112,10 @@
         <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="E49" s="3">
         <v>49</v>
@@ -8244,10 +8139,10 @@
         <v>0.49</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="N49" s="8" t="s">
         <v>307</v>
@@ -8261,10 +8156,10 @@
         <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="E50" s="3">
         <v>50</v>
@@ -8288,10 +8183,10 @@
         <v>0.5</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N50" s="8" t="s">
         <v>309</v>
@@ -8305,10 +8200,10 @@
         <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E51" s="3">
         <v>51</v>
@@ -8332,10 +8227,10 @@
         <v>0.51</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N51" s="8" t="s">
         <v>311</v>
@@ -8349,10 +8244,10 @@
         <v>48</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="E52" s="3">
         <v>52</v>
@@ -8376,10 +8271,10 @@
         <v>0.52</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="N52" s="8" t="s">
         <v>313</v>
@@ -8393,10 +8288,10 @@
         <v>47</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="E53" s="3">
         <v>53</v>
@@ -8420,10 +8315,10 @@
         <v>0.53</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="N53" s="8" t="s">
         <v>315</v>
@@ -8437,10 +8332,10 @@
         <v>46</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E54" s="3">
         <v>54</v>
@@ -8464,10 +8359,10 @@
         <v>0.54</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="N54" s="8" t="s">
         <v>317</v>
@@ -8481,10 +8376,10 @@
         <v>45</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="E55" s="3">
         <v>55</v>
@@ -8508,10 +8403,10 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="N55" s="8" t="s">
         <v>319</v>
@@ -8525,10 +8420,10 @@
         <v>44</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="E56" s="3">
         <v>56</v>
@@ -8552,10 +8447,10 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="N56" s="8" t="s">
         <v>321</v>
@@ -8569,10 +8464,10 @@
         <v>43</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="E57" s="3">
         <v>57</v>
@@ -8596,10 +8491,10 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="N57" s="8" t="s">
         <v>323</v>
@@ -8613,10 +8508,10 @@
         <v>42</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="E58" s="3">
         <v>58</v>
@@ -8640,10 +8535,10 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="N58" s="8" t="s">
         <v>325</v>
@@ -8657,10 +8552,10 @@
         <v>41</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="E59" s="3">
         <v>59</v>
@@ -8684,10 +8579,10 @@
         <v>0.59</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="N59" s="8" t="s">
         <v>327</v>
@@ -8701,10 +8596,10 @@
         <v>40</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="E60" s="3">
         <v>60</v>
@@ -8728,10 +8623,10 @@
         <v>0.6</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="N60" s="8" t="s">
         <v>329</v>
@@ -8745,10 +8640,10 @@
         <v>39</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="E61" s="3">
         <v>61</v>
@@ -8772,10 +8667,10 @@
         <v>0.61</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="N61" s="8" t="s">
         <v>331</v>
@@ -8789,10 +8684,10 @@
         <v>38</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E62" s="3">
         <v>62</v>
@@ -8816,10 +8711,10 @@
         <v>0.62</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="N62" s="8" t="s">
         <v>333</v>
@@ -8833,10 +8728,10 @@
         <v>37</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E63" s="3">
         <v>63</v>
@@ -8860,10 +8755,10 @@
         <v>0.63</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="N63" s="8" t="s">
         <v>335</v>
@@ -8877,10 +8772,10 @@
         <v>36</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="E64" s="3">
         <v>64</v>
@@ -8904,10 +8799,10 @@
         <v>0.64</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="N64" s="8" t="s">
         <v>337</v>
@@ -8921,10 +8816,10 @@
         <v>35</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="E65" s="3">
         <v>65</v>
@@ -8948,10 +8843,10 @@
         <v>0.65</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="N65" s="8" t="s">
         <v>339</v>
@@ -8965,10 +8860,10 @@
         <v>34</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="E66" s="3">
         <v>66</v>
@@ -8992,10 +8887,10 @@
         <v>0.66</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="N66" s="8" t="s">
         <v>341</v>
@@ -9009,10 +8904,10 @@
         <v>33</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="E67" s="3">
         <v>67</v>
@@ -9036,10 +8931,10 @@
         <v>0.67</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="N67" s="8" t="s">
         <v>343</v>
@@ -9053,10 +8948,10 @@
         <v>32</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="E68" s="3">
         <v>68</v>
@@ -9080,10 +8975,10 @@
         <v>0.68</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="N68" s="8" t="s">
         <v>345</v>
@@ -9097,10 +8992,10 @@
         <v>31</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E69" s="3">
         <v>69</v>
@@ -9124,10 +9019,10 @@
         <v>0.69</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="N69" s="8" t="s">
         <v>347</v>
@@ -9141,10 +9036,10 @@
         <v>30</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="E70" s="3">
         <v>70</v>
@@ -9168,10 +9063,10 @@
         <v>0.7</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="N70" s="8" t="s">
         <v>349</v>
@@ -9185,10 +9080,10 @@
         <v>29</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="E71" s="3">
         <v>71</v>
@@ -9212,10 +9107,10 @@
         <v>0.71</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="N71" s="8" t="s">
         <v>351</v>
@@ -9229,10 +9124,10 @@
         <v>28</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="E72" s="3">
         <v>72</v>
@@ -9256,10 +9151,10 @@
         <v>0.72</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="N72" s="8" t="s">
         <v>353</v>
@@ -9273,10 +9168,10 @@
         <v>27</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="E73" s="3">
         <v>73</v>
@@ -9300,10 +9195,10 @@
         <v>0.73</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="N73" s="8" t="s">
         <v>355</v>
@@ -9317,10 +9212,10 @@
         <v>26</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="E74" s="3">
         <v>74</v>
@@ -9344,10 +9239,10 @@
         <v>0.74</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="N74" s="8" t="s">
         <v>357</v>
@@ -9361,10 +9256,10 @@
         <v>25</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="E75" s="3">
         <v>75</v>
@@ -9388,10 +9283,10 @@
         <v>0.75</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="N75" s="8" t="s">
         <v>359</v>
@@ -9405,10 +9300,10 @@
         <v>24</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="E76" s="3">
         <v>76</v>
@@ -9432,10 +9327,10 @@
         <v>0.76</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="N76" s="8" t="s">
         <v>361</v>
@@ -9449,10 +9344,10 @@
         <v>23</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="E77" s="3">
         <v>77</v>
@@ -9476,10 +9371,10 @@
         <v>0.77</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="N77" s="8" t="s">
         <v>363</v>
@@ -9493,10 +9388,10 @@
         <v>22</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="E78" s="3">
         <v>78</v>
@@ -9520,10 +9415,10 @@
         <v>0.78</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="N78" s="8" t="s">
         <v>365</v>
@@ -9537,10 +9432,10 @@
         <v>21</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="E79" s="3">
         <v>79</v>
@@ -9564,10 +9459,10 @@
         <v>0.79</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N79" s="8" t="s">
         <v>367</v>
@@ -9581,10 +9476,10 @@
         <v>20</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="E80" s="3">
         <v>80</v>
@@ -9608,10 +9503,10 @@
         <v>0.8</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="N80" s="8" t="s">
         <v>369</v>
@@ -9625,10 +9520,10 @@
         <v>19</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="E81" s="3">
         <v>81</v>
@@ -9652,10 +9547,10 @@
         <v>0.81</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="N81" s="8" t="s">
         <v>371</v>
@@ -9669,10 +9564,10 @@
         <v>18</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E82" s="3">
         <v>82</v>
@@ -9696,10 +9591,10 @@
         <v>0.82</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="N82" s="8" t="s">
         <v>373</v>
@@ -9713,10 +9608,10 @@
         <v>17</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="E83" s="3">
         <v>83</v>
@@ -9740,10 +9635,10 @@
         <v>0.83</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="N83" s="8" t="s">
         <v>375</v>
@@ -9757,10 +9652,10 @@
         <v>16</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="E84" s="3">
         <v>84</v>
@@ -9784,10 +9679,10 @@
         <v>0.84</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="N84" s="8" t="s">
         <v>377</v>
@@ -9801,10 +9696,10 @@
         <v>15</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E85" s="3">
         <v>85</v>
@@ -9828,10 +9723,10 @@
         <v>0.85</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="N85" s="8" t="s">
         <v>379</v>
@@ -9845,10 +9740,10 @@
         <v>14</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="E86" s="3">
         <v>86</v>
@@ -9872,10 +9767,10 @@
         <v>0.86</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="N86" s="8" t="s">
         <v>381</v>
@@ -9889,10 +9784,10 @@
         <v>13</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E87" s="3">
         <v>87</v>
@@ -9916,10 +9811,10 @@
         <v>0.87</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="N87" s="8" t="s">
         <v>383</v>
@@ -9933,10 +9828,10 @@
         <v>12</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="E88" s="3">
         <v>88</v>
@@ -9960,10 +9855,10 @@
         <v>0.88</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="N88" s="8" t="s">
         <v>385</v>
@@ -9977,10 +9872,10 @@
         <v>11</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E89" s="3">
         <v>89</v>
@@ -10004,10 +9899,10 @@
         <v>0.89</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N89" s="8" t="s">
         <v>387</v>
@@ -10021,10 +9916,10 @@
         <v>10</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="E90" s="3">
         <v>90</v>
@@ -10048,10 +9943,10 @@
         <v>0.9</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="N90" s="8" t="s">
         <v>389</v>
@@ -10065,10 +9960,10 @@
         <v>9</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="E91" s="3">
         <v>91</v>
@@ -10092,10 +9987,10 @@
         <v>0.91</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="N91" s="8" t="s">
         <v>391</v>
@@ -10109,10 +10004,10 @@
         <v>8</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="E92" s="3">
         <v>92</v>
@@ -10136,10 +10031,10 @@
         <v>0.92</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="N92" s="8" t="s">
         <v>393</v>
@@ -10153,10 +10048,10 @@
         <v>7</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E93" s="3">
         <v>93</v>
@@ -10180,10 +10075,10 @@
         <v>0.93</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="N93" s="8" t="s">
         <v>395</v>
@@ -10197,10 +10092,10 @@
         <v>6</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="E94" s="3">
         <v>94</v>
@@ -10224,10 +10119,10 @@
         <v>0.94</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="N94" s="8" t="s">
         <v>397</v>
@@ -10241,10 +10136,10 @@
         <v>5</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E95" s="3">
         <v>95</v>
@@ -10268,10 +10163,10 @@
         <v>0.95</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N95" s="8" t="s">
         <v>399</v>
@@ -10285,10 +10180,10 @@
         <v>4</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="E96" s="3">
         <v>96</v>
@@ -10312,10 +10207,10 @@
         <v>0.96</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="N96" s="8" t="s">
         <v>401</v>
@@ -10329,10 +10224,10 @@
         <v>3</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="E97" s="3">
         <v>97</v>
@@ -10356,10 +10251,10 @@
         <v>0.97</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="N97" s="8" t="s">
         <v>403</v>
@@ -10373,10 +10268,10 @@
         <v>2</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="E98" s="3">
         <v>98</v>
@@ -10400,10 +10295,10 @@
         <v>0.98</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="N98" s="8" t="s">
         <v>405</v>
@@ -10417,10 +10312,10 @@
         <v>1</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="E99" s="3">
         <v>99</v>
@@ -10444,10 +10339,10 @@
         <v>0.99</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="N99" s="8" t="s">
         <v>407</v>
@@ -10461,10 +10356,10 @@
         <v>0</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
@@ -10488,10 +10383,10 @@
         <v>1</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="N100" s="8" t="s">
         <v>409</v>

--- a/hydrofia/hydrofia_ph_template.xlsx
+++ b/hydrofia/hydrofia_ph_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mw\git\hydrofia\hydrofia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C73932-D4CC-4ECE-9D39-1678A84A0324}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C81170-210D-492D-9861-A73E55F5A681}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="165" windowWidth="15600" windowHeight="11610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
     <author>Nilsson Madeleine</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J10" authorId="1" shapeId="0" xr:uid="{21853188-1459-4735-90C6-F9F3174E1258}">
+    <comment ref="H10" authorId="1" shapeId="0" xr:uid="{21853188-1459-4735-90C6-F9F3174E1258}">
       <text>
         <r>
           <rPr>
@@ -2605,7 +2605,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="[$-41D]General"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2661,13 +2661,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="30"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2850,9 +2843,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2872,13 +2865,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2923,22 +2916,22 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2947,7 +2940,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2956,36 +2949,48 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2994,25 +2999,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3044,8 +3034,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>432324</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>879999</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>169500</xdr:rowOff>
     </xdr:to>
@@ -3438,41 +3428,40 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:EJ111"/>
+  <dimension ref="A1:EH111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:H6"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10" style="11" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" style="11" customWidth="1"/>
-    <col min="13" max="21" width="10.7109375" style="11" customWidth="1"/>
-    <col min="22" max="16384" width="28.7109375" style="11"/>
+    <col min="1" max="1" width="20.85546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10" style="11" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="11" customWidth="1"/>
+    <col min="11" max="19" width="10.7109375" style="11" customWidth="1"/>
+    <col min="20" max="16384" width="28.7109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:140" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:138" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="42" t="s">
+      <c r="B1" s="46" t="s">
         <v>824</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="J1" s="36" t="s">
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="H1" s="35" t="s">
         <v>828</v>
       </c>
-      <c r="L1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
       <c r="R1" s="13"/>
       <c r="S1" s="13"/>
       <c r="T1" s="13"/>
@@ -3594,19 +3583,18 @@
       <c r="EF1" s="13"/>
       <c r="EG1" s="13"/>
       <c r="EH1" s="13"/>
-      <c r="EI1" s="13"/>
-      <c r="EJ1" s="13"/>
-    </row>
-    <row r="2" spans="1:140" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="35"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="J2" s="36" t="s">
+    </row>
+    <row r="2" spans="1:138" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="H2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
       <c r="T2" s="13"/>
@@ -3728,22 +3716,21 @@
       <c r="EF2" s="13"/>
       <c r="EG2" s="13"/>
       <c r="EH2" s="13"/>
-      <c r="EI2" s="13"/>
-      <c r="EJ2" s="13"/>
-    </row>
-    <row r="3" spans="1:140" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:138" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="12"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="12"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
@@ -3865,17 +3852,16 @@
       <c r="EF3" s="13"/>
       <c r="EG3" s="13"/>
       <c r="EH3" s="13"/>
-      <c r="EI3" s="13"/>
-      <c r="EJ3" s="13"/>
-    </row>
-    <row r="4" spans="1:140" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="35"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
+    </row>
+    <row r="4" spans="1:138" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
       <c r="S4" s="13"/>
       <c r="T4" s="13"/>
@@ -3997,31 +3983,29 @@
       <c r="EF4" s="13"/>
       <c r="EG4" s="13"/>
       <c r="EH4" s="13"/>
-      <c r="EI4" s="13"/>
-      <c r="EJ4" s="13"/>
-    </row>
-    <row r="5" spans="1:140" s="4" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="44" t="s">
+    </row>
+    <row r="5" spans="1:138" s="4" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="52" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="52" t="s">
+      <c r="D5" s="52"/>
+      <c r="E5" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="44" t="s">
+      <c r="F5" s="52"/>
+      <c r="G5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="15"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="15"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
       <c r="S5" s="16"/>
       <c r="T5" s="16"/>
@@ -4143,23 +4127,21 @@
       <c r="EF5" s="16"/>
       <c r="EG5" s="16"/>
       <c r="EH5" s="16"/>
-      <c r="EI5" s="16"/>
-      <c r="EJ5" s="16"/>
-    </row>
-    <row r="6" spans="1:140" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="17"/>
+    </row>
+    <row r="6" spans="1:138" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="41"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="17"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
       <c r="R6" s="13"/>
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
@@ -4281,1623 +4263,1306 @@
       <c r="EF6" s="13"/>
       <c r="EG6" s="13"/>
       <c r="EH6" s="13"/>
-      <c r="EI6" s="13"/>
-      <c r="EJ6" s="13"/>
-    </row>
-    <row r="7" spans="1:140" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-    </row>
-    <row r="8" spans="1:140" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-    </row>
-    <row r="9" spans="1:140" s="13" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:138" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="41"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+    </row>
+    <row r="8" spans="1:138" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+    </row>
+    <row r="9" spans="1:138" s="13" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
       <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="19"/>
-    </row>
-    <row r="10" spans="1:140" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:138" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="45" t="s">
+      <c r="B10" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="30" t="s">
+      <c r="C10" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="D10" s="22" t="s">
         <v>827</v>
       </c>
+      <c r="E10" s="21" t="s">
+        <v>825</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>826</v>
+      </c>
       <c r="G10" s="21" t="s">
-        <v>825</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>826</v>
-      </c>
-      <c r="I10" s="21" t="s">
         <v>831</v>
       </c>
-      <c r="J10" s="45" t="s">
+      <c r="H10" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="22"/>
-    </row>
-    <row r="11" spans="1:140" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="23" t="s">
+      <c r="I10" s="22"/>
+    </row>
+    <row r="11" spans="1:138" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="D11" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="40" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="39" t="s">
         <v>829</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="G11" s="24" t="s">
         <v>830</v>
       </c>
-      <c r="J11" s="46"/>
-      <c r="K11" s="41"/>
-    </row>
-    <row r="12" spans="1:140" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="50"/>
+      <c r="I11" s="40"/>
+    </row>
+    <row r="12" spans="1:138" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
       <c r="I12" s="32"/>
       <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-    </row>
-    <row r="13" spans="1:140" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:138" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
       <c r="I13" s="32"/>
       <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-    </row>
-    <row r="14" spans="1:140" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:138" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="32"/>
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
       <c r="I14" s="32"/>
       <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-    </row>
-    <row r="15" spans="1:140" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:138" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
       <c r="H15" s="32"/>
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-    </row>
-    <row r="16" spans="1:140" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:138" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
       <c r="E16" s="32"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
       <c r="H16" s="32"/>
       <c r="I16" s="32"/>
       <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-    </row>
-    <row r="17" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
       <c r="I17" s="32"/>
       <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-    </row>
-    <row r="18" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
       <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-    </row>
-    <row r="19" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
       <c r="H19" s="32"/>
       <c r="I19" s="32"/>
       <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-    </row>
-    <row r="20" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
       <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-    </row>
-    <row r="21" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
       <c r="E21" s="32"/>
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
       <c r="H21" s="32"/>
       <c r="I21" s="32"/>
       <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-    </row>
-    <row r="22" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="32"/>
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
       <c r="I22" s="32"/>
       <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-    </row>
-    <row r="23" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
       <c r="H23" s="32"/>
       <c r="I23" s="32"/>
       <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-    </row>
-    <row r="24" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
       <c r="E24" s="32"/>
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
       <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-    </row>
-    <row r="25" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
       <c r="H25" s="32"/>
       <c r="I25" s="32"/>
       <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-    </row>
-    <row r="26" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
       <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-    </row>
-    <row r="27" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="32"/>
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
       <c r="H27" s="32"/>
       <c r="I27" s="32"/>
       <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-    </row>
-    <row r="28" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="32"/>
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
       <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-    </row>
-    <row r="29" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
       <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-    </row>
-    <row r="30" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
       <c r="E30" s="32"/>
       <c r="F30" s="32"/>
       <c r="G30" s="32"/>
       <c r="H30" s="32"/>
       <c r="I30" s="32"/>
       <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-    </row>
-    <row r="31" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
       <c r="E31" s="32"/>
       <c r="F31" s="32"/>
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
       <c r="I31" s="32"/>
       <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-    </row>
-    <row r="32" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
       <c r="E32" s="32"/>
       <c r="F32" s="32"/>
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
       <c r="I32" s="32"/>
       <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-    </row>
-    <row r="33" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
       <c r="E33" s="32"/>
       <c r="F33" s="32"/>
       <c r="G33" s="32"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
       <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-    </row>
-    <row r="34" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="32"/>
       <c r="F34" s="32"/>
       <c r="G34" s="32"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
       <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-    </row>
-    <row r="35" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
       <c r="E35" s="32"/>
       <c r="F35" s="32"/>
       <c r="G35" s="32"/>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
       <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-    </row>
-    <row r="36" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="32"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
       <c r="E36" s="32"/>
       <c r="F36" s="32"/>
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
       <c r="I36" s="32"/>
       <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-    </row>
-    <row r="37" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="32"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
       <c r="E37" s="32"/>
       <c r="F37" s="32"/>
       <c r="G37" s="32"/>
       <c r="H37" s="32"/>
       <c r="I37" s="32"/>
       <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-    </row>
-    <row r="38" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="32"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
       <c r="E38" s="32"/>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
       <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-    </row>
-    <row r="39" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="32"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
       <c r="E39" s="32"/>
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
       <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-    </row>
-    <row r="40" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="32"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
       <c r="E40" s="32"/>
       <c r="F40" s="32"/>
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
       <c r="I40" s="32"/>
       <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
-    </row>
-    <row r="41" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="32"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
       <c r="E41" s="32"/>
       <c r="F41" s="32"/>
       <c r="G41" s="32"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
       <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-    </row>
-    <row r="42" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="32"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
       <c r="E42" s="32"/>
       <c r="F42" s="32"/>
       <c r="G42" s="32"/>
       <c r="H42" s="32"/>
       <c r="I42" s="32"/>
       <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-    </row>
-    <row r="43" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="32"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32"/>
-    </row>
-    <row r="44" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="32"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
       <c r="E44" s="32"/>
       <c r="F44" s="32"/>
       <c r="G44" s="32"/>
       <c r="H44" s="32"/>
       <c r="I44" s="32"/>
       <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-    </row>
-    <row r="45" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="32"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
       <c r="E45" s="32"/>
       <c r="F45" s="32"/>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
       <c r="I45" s="32"/>
       <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="32"/>
-    </row>
-    <row r="46" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="32"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
       <c r="E46" s="32"/>
       <c r="F46" s="32"/>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
       <c r="I46" s="32"/>
       <c r="J46" s="32"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="32"/>
-    </row>
-    <row r="47" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="32"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
       <c r="E47" s="32"/>
       <c r="F47" s="32"/>
       <c r="G47" s="32"/>
       <c r="H47" s="32"/>
       <c r="I47" s="32"/>
       <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="32"/>
-    </row>
-    <row r="48" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="32"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
       <c r="E48" s="32"/>
       <c r="F48" s="32"/>
       <c r="G48" s="32"/>
       <c r="H48" s="32"/>
       <c r="I48" s="32"/>
       <c r="J48" s="32"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="32"/>
-    </row>
-    <row r="49" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="32"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
       <c r="E49" s="32"/>
       <c r="F49" s="32"/>
       <c r="G49" s="32"/>
       <c r="H49" s="32"/>
       <c r="I49" s="32"/>
       <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32"/>
-    </row>
-    <row r="50" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="32"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
       <c r="E50" s="32"/>
       <c r="F50" s="32"/>
       <c r="G50" s="32"/>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-    </row>
-    <row r="51" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="32"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
       <c r="E51" s="32"/>
       <c r="F51" s="32"/>
       <c r="G51" s="32"/>
       <c r="H51" s="32"/>
       <c r="I51" s="32"/>
       <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="32"/>
-    </row>
-    <row r="52" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="32"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
       <c r="E52" s="32"/>
       <c r="F52" s="32"/>
       <c r="G52" s="32"/>
       <c r="H52" s="32"/>
       <c r="I52" s="32"/>
       <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="32"/>
-    </row>
-    <row r="53" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="32"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
       <c r="E53" s="32"/>
       <c r="F53" s="32"/>
       <c r="G53" s="32"/>
       <c r="H53" s="32"/>
       <c r="I53" s="32"/>
       <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32"/>
-    </row>
-    <row r="54" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
       <c r="E54" s="32"/>
       <c r="F54" s="32"/>
       <c r="G54" s="32"/>
       <c r="H54" s="32"/>
       <c r="I54" s="32"/>
       <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="32"/>
-    </row>
-    <row r="55" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
       <c r="E55" s="32"/>
       <c r="F55" s="32"/>
       <c r="G55" s="32"/>
       <c r="H55" s="32"/>
       <c r="I55" s="32"/>
       <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="32"/>
-    </row>
-    <row r="56" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="32"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
       <c r="E56" s="32"/>
       <c r="F56" s="32"/>
       <c r="G56" s="32"/>
       <c r="H56" s="32"/>
       <c r="I56" s="32"/>
       <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="32"/>
-    </row>
-    <row r="57" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="32"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
       <c r="E57" s="32"/>
       <c r="F57" s="32"/>
       <c r="G57" s="32"/>
       <c r="H57" s="32"/>
       <c r="I57" s="32"/>
       <c r="J57" s="32"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="32"/>
-    </row>
-    <row r="58" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="32"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
       <c r="E58" s="32"/>
       <c r="F58" s="32"/>
       <c r="G58" s="32"/>
       <c r="H58" s="32"/>
       <c r="I58" s="32"/>
       <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
-    </row>
-    <row r="59" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="32"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
       <c r="E59" s="32"/>
       <c r="F59" s="32"/>
       <c r="G59" s="32"/>
       <c r="H59" s="32"/>
       <c r="I59" s="32"/>
       <c r="J59" s="32"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="32"/>
-    </row>
-    <row r="60" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="32"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
       <c r="E60" s="32"/>
       <c r="F60" s="32"/>
       <c r="G60" s="32"/>
       <c r="H60" s="32"/>
       <c r="I60" s="32"/>
       <c r="J60" s="32"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="32"/>
-    </row>
-    <row r="61" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="32"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
       <c r="E61" s="32"/>
       <c r="F61" s="32"/>
       <c r="G61" s="32"/>
       <c r="H61" s="32"/>
       <c r="I61" s="32"/>
       <c r="J61" s="32"/>
-      <c r="K61" s="32"/>
-      <c r="L61" s="32"/>
-    </row>
-    <row r="62" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="32"/>
-      <c r="B62" s="32"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="49"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
       <c r="E62" s="32"/>
       <c r="F62" s="32"/>
       <c r="G62" s="32"/>
       <c r="H62" s="32"/>
       <c r="I62" s="32"/>
       <c r="J62" s="32"/>
-      <c r="K62" s="32"/>
-      <c r="L62" s="32"/>
-    </row>
-    <row r="63" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="32"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
       <c r="E63" s="32"/>
       <c r="F63" s="32"/>
       <c r="G63" s="32"/>
       <c r="H63" s="32"/>
       <c r="I63" s="32"/>
       <c r="J63" s="32"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="32"/>
-    </row>
-    <row r="64" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="32"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
       <c r="E64" s="32"/>
       <c r="F64" s="32"/>
       <c r="G64" s="32"/>
       <c r="H64" s="32"/>
       <c r="I64" s="32"/>
       <c r="J64" s="32"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="32"/>
-    </row>
-    <row r="65" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="32"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
       <c r="E65" s="32"/>
       <c r="F65" s="32"/>
       <c r="G65" s="32"/>
       <c r="H65" s="32"/>
       <c r="I65" s="32"/>
       <c r="J65" s="32"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="32"/>
-    </row>
-    <row r="66" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="32"/>
-      <c r="B66" s="32"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
       <c r="E66" s="32"/>
       <c r="F66" s="32"/>
       <c r="G66" s="32"/>
       <c r="H66" s="32"/>
       <c r="I66" s="32"/>
       <c r="J66" s="32"/>
-      <c r="K66" s="32"/>
-      <c r="L66" s="32"/>
-    </row>
-    <row r="67" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="32"/>
-      <c r="B67" s="32"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
       <c r="E67" s="32"/>
       <c r="F67" s="32"/>
       <c r="G67" s="32"/>
       <c r="H67" s="32"/>
       <c r="I67" s="32"/>
       <c r="J67" s="32"/>
-      <c r="K67" s="32"/>
-      <c r="L67" s="32"/>
-    </row>
-    <row r="68" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="32"/>
-      <c r="B68" s="32"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="49"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
       <c r="E68" s="32"/>
       <c r="F68" s="32"/>
       <c r="G68" s="32"/>
       <c r="H68" s="32"/>
       <c r="I68" s="32"/>
       <c r="J68" s="32"/>
-      <c r="K68" s="32"/>
-      <c r="L68" s="32"/>
-    </row>
-    <row r="69" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="32"/>
-      <c r="B69" s="32"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
       <c r="E69" s="32"/>
       <c r="F69" s="32"/>
       <c r="G69" s="32"/>
       <c r="H69" s="32"/>
       <c r="I69" s="32"/>
       <c r="J69" s="32"/>
-      <c r="K69" s="32"/>
-      <c r="L69" s="32"/>
-    </row>
-    <row r="70" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="32"/>
-      <c r="B70" s="32"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
       <c r="E70" s="32"/>
       <c r="F70" s="32"/>
       <c r="G70" s="32"/>
       <c r="H70" s="32"/>
       <c r="I70" s="32"/>
       <c r="J70" s="32"/>
-      <c r="K70" s="32"/>
-      <c r="L70" s="32"/>
-    </row>
-    <row r="71" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="32"/>
-      <c r="B71" s="32"/>
-      <c r="C71" s="49"/>
-      <c r="D71" s="49"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
       <c r="E71" s="32"/>
       <c r="F71" s="32"/>
       <c r="G71" s="32"/>
       <c r="H71" s="32"/>
       <c r="I71" s="32"/>
       <c r="J71" s="32"/>
-      <c r="K71" s="32"/>
-      <c r="L71" s="32"/>
-    </row>
-    <row r="72" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="32"/>
-      <c r="B72" s="32"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="49"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
       <c r="E72" s="32"/>
       <c r="F72" s="32"/>
       <c r="G72" s="32"/>
       <c r="H72" s="32"/>
       <c r="I72" s="32"/>
       <c r="J72" s="32"/>
-      <c r="K72" s="32"/>
-      <c r="L72" s="32"/>
-    </row>
-    <row r="73" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="32"/>
-      <c r="B73" s="32"/>
-      <c r="C73" s="49"/>
-      <c r="D73" s="49"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
       <c r="E73" s="32"/>
       <c r="F73" s="32"/>
       <c r="G73" s="32"/>
       <c r="H73" s="32"/>
       <c r="I73" s="32"/>
       <c r="J73" s="32"/>
-      <c r="K73" s="32"/>
-      <c r="L73" s="32"/>
-    </row>
-    <row r="74" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="32"/>
-      <c r="B74" s="32"/>
-      <c r="C74" s="49"/>
-      <c r="D74" s="49"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
       <c r="E74" s="32"/>
       <c r="F74" s="32"/>
       <c r="G74" s="32"/>
       <c r="H74" s="32"/>
       <c r="I74" s="32"/>
       <c r="J74" s="32"/>
-      <c r="K74" s="32"/>
-      <c r="L74" s="32"/>
-    </row>
-    <row r="75" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="32"/>
-      <c r="B75" s="32"/>
-      <c r="C75" s="49"/>
-      <c r="D75" s="49"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
       <c r="E75" s="32"/>
       <c r="F75" s="32"/>
       <c r="G75" s="32"/>
       <c r="H75" s="32"/>
       <c r="I75" s="32"/>
       <c r="J75" s="32"/>
-      <c r="K75" s="32"/>
-      <c r="L75" s="32"/>
-    </row>
-    <row r="76" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="32"/>
-      <c r="B76" s="32"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="49"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
       <c r="E76" s="32"/>
       <c r="F76" s="32"/>
       <c r="G76" s="32"/>
       <c r="H76" s="32"/>
       <c r="I76" s="32"/>
       <c r="J76" s="32"/>
-      <c r="K76" s="32"/>
-      <c r="L76" s="32"/>
-    </row>
-    <row r="77" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="32"/>
-      <c r="B77" s="32"/>
-      <c r="C77" s="49"/>
-      <c r="D77" s="49"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
       <c r="E77" s="32"/>
       <c r="F77" s="32"/>
       <c r="G77" s="32"/>
       <c r="H77" s="32"/>
       <c r="I77" s="32"/>
       <c r="J77" s="32"/>
-      <c r="K77" s="32"/>
-      <c r="L77" s="32"/>
-    </row>
-    <row r="78" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="32"/>
-      <c r="B78" s="32"/>
-      <c r="C78" s="49"/>
-      <c r="D78" s="49"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
       <c r="E78" s="32"/>
       <c r="F78" s="32"/>
       <c r="G78" s="32"/>
       <c r="H78" s="32"/>
       <c r="I78" s="32"/>
       <c r="J78" s="32"/>
-      <c r="K78" s="32"/>
-      <c r="L78" s="32"/>
-    </row>
-    <row r="79" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="32"/>
-      <c r="B79" s="32"/>
-      <c r="C79" s="49"/>
-      <c r="D79" s="49"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
       <c r="E79" s="32"/>
       <c r="F79" s="32"/>
       <c r="G79" s="32"/>
       <c r="H79" s="32"/>
       <c r="I79" s="32"/>
       <c r="J79" s="32"/>
-      <c r="K79" s="32"/>
-      <c r="L79" s="32"/>
-    </row>
-    <row r="80" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="32"/>
-      <c r="B80" s="32"/>
-      <c r="C80" s="49"/>
-      <c r="D80" s="49"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
       <c r="E80" s="32"/>
       <c r="F80" s="32"/>
       <c r="G80" s="32"/>
       <c r="H80" s="32"/>
       <c r="I80" s="32"/>
       <c r="J80" s="32"/>
-      <c r="K80" s="32"/>
-      <c r="L80" s="32"/>
-    </row>
-    <row r="81" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="25"/>
-      <c r="B81" s="33"/>
-      <c r="C81" s="50"/>
-      <c r="D81" s="50"/>
-      <c r="E81" s="33"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="25"/>
       <c r="F81" s="33"/>
-      <c r="G81" s="25"/>
+      <c r="G81" s="33"/>
       <c r="H81" s="33"/>
       <c r="I81" s="33"/>
-      <c r="J81" s="33"/>
-      <c r="K81" s="33"/>
-      <c r="L81" s="25"/>
-    </row>
-    <row r="82" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J81" s="25"/>
+    </row>
+    <row r="82" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="25"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="50"/>
-      <c r="D82" s="50"/>
-      <c r="E82" s="33"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="25"/>
       <c r="F82" s="33"/>
-      <c r="G82" s="25"/>
+      <c r="G82" s="33"/>
       <c r="H82" s="33"/>
       <c r="I82" s="33"/>
-      <c r="J82" s="33"/>
-      <c r="K82" s="33"/>
-      <c r="L82" s="25"/>
-    </row>
-    <row r="83" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J82" s="25"/>
+    </row>
+    <row r="83" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="25"/>
-      <c r="B83" s="33"/>
-      <c r="C83" s="50"/>
-      <c r="D83" s="50"/>
-      <c r="E83" s="33"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="25"/>
       <c r="F83" s="33"/>
-      <c r="G83" s="25"/>
+      <c r="G83" s="33"/>
       <c r="H83" s="33"/>
       <c r="I83" s="33"/>
-      <c r="J83" s="33"/>
-      <c r="K83" s="33"/>
-      <c r="L83" s="25"/>
-    </row>
-    <row r="84" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J83" s="25"/>
+    </row>
+    <row r="84" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="25"/>
-      <c r="B84" s="33"/>
-      <c r="C84" s="50"/>
-      <c r="D84" s="50"/>
-      <c r="E84" s="33"/>
+      <c r="B84" s="44"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="25"/>
       <c r="F84" s="33"/>
-      <c r="G84" s="25"/>
+      <c r="G84" s="33"/>
       <c r="H84" s="33"/>
       <c r="I84" s="33"/>
-      <c r="J84" s="33"/>
-      <c r="K84" s="33"/>
-      <c r="L84" s="25"/>
-    </row>
-    <row r="85" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J84" s="25"/>
+    </row>
+    <row r="85" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="25"/>
-      <c r="B85" s="33"/>
-      <c r="C85" s="50"/>
-      <c r="D85" s="50"/>
-      <c r="E85" s="33"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="25"/>
       <c r="F85" s="33"/>
-      <c r="G85" s="25"/>
+      <c r="G85" s="33"/>
       <c r="H85" s="33"/>
       <c r="I85" s="33"/>
-      <c r="J85" s="33"/>
-      <c r="K85" s="33"/>
-      <c r="L85" s="25"/>
-    </row>
-    <row r="86" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J85" s="25"/>
+    </row>
+    <row r="86" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="25"/>
-      <c r="B86" s="33"/>
-      <c r="C86" s="50"/>
-      <c r="D86" s="50"/>
-      <c r="E86" s="33"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="25"/>
       <c r="F86" s="33"/>
-      <c r="G86" s="25"/>
+      <c r="G86" s="33"/>
       <c r="H86" s="33"/>
       <c r="I86" s="33"/>
-      <c r="J86" s="33"/>
-      <c r="K86" s="33"/>
-      <c r="L86" s="25"/>
-    </row>
-    <row r="87" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J86" s="25"/>
+    </row>
+    <row r="87" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="25"/>
-      <c r="B87" s="33"/>
-      <c r="C87" s="50"/>
-      <c r="D87" s="50"/>
-      <c r="E87" s="33"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="25"/>
       <c r="F87" s="33"/>
-      <c r="G87" s="25"/>
+      <c r="G87" s="33"/>
       <c r="H87" s="33"/>
       <c r="I87" s="33"/>
-      <c r="J87" s="33"/>
-      <c r="K87" s="33"/>
-      <c r="L87" s="25"/>
-    </row>
-    <row r="88" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J87" s="25"/>
+    </row>
+    <row r="88" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="25"/>
-      <c r="B88" s="33"/>
-      <c r="C88" s="50"/>
-      <c r="D88" s="50"/>
-      <c r="E88" s="33"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="25"/>
       <c r="F88" s="33"/>
-      <c r="G88" s="25"/>
+      <c r="G88" s="33"/>
       <c r="H88" s="33"/>
       <c r="I88" s="33"/>
-      <c r="J88" s="33"/>
-      <c r="K88" s="33"/>
-      <c r="L88" s="25"/>
-    </row>
-    <row r="89" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J88" s="25"/>
+    </row>
+    <row r="89" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="25"/>
-      <c r="B89" s="33"/>
-      <c r="C89" s="50"/>
-      <c r="D89" s="50"/>
-      <c r="E89" s="33"/>
+      <c r="B89" s="44"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="25"/>
       <c r="F89" s="33"/>
-      <c r="G89" s="25"/>
+      <c r="G89" s="33"/>
       <c r="H89" s="33"/>
       <c r="I89" s="33"/>
-      <c r="J89" s="33"/>
-      <c r="K89" s="33"/>
-      <c r="L89" s="25"/>
-    </row>
-    <row r="90" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J89" s="25"/>
+    </row>
+    <row r="90" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="25"/>
-      <c r="B90" s="33"/>
-      <c r="C90" s="50"/>
-      <c r="D90" s="50"/>
-      <c r="E90" s="33"/>
+      <c r="B90" s="44"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="25"/>
       <c r="F90" s="33"/>
-      <c r="G90" s="25"/>
+      <c r="G90" s="33"/>
       <c r="H90" s="33"/>
       <c r="I90" s="33"/>
-      <c r="J90" s="33"/>
-      <c r="K90" s="33"/>
-      <c r="L90" s="25"/>
-    </row>
-    <row r="91" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J90" s="25"/>
+    </row>
+    <row r="91" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="25"/>
-      <c r="B91" s="33"/>
-      <c r="C91" s="50"/>
-      <c r="D91" s="50"/>
-      <c r="E91" s="33"/>
+      <c r="B91" s="44"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="25"/>
       <c r="F91" s="33"/>
-      <c r="G91" s="25"/>
+      <c r="G91" s="33"/>
       <c r="H91" s="33"/>
       <c r="I91" s="33"/>
-      <c r="J91" s="33"/>
-      <c r="K91" s="33"/>
-      <c r="L91" s="25"/>
-    </row>
-    <row r="92" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J91" s="25"/>
+    </row>
+    <row r="92" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="25"/>
-      <c r="B92" s="33"/>
-      <c r="C92" s="50"/>
-      <c r="D92" s="50"/>
-      <c r="E92" s="33"/>
+      <c r="B92" s="44"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="25"/>
       <c r="F92" s="33"/>
-      <c r="G92" s="25"/>
+      <c r="G92" s="33"/>
       <c r="H92" s="33"/>
       <c r="I92" s="33"/>
-      <c r="J92" s="33"/>
-      <c r="K92" s="33"/>
-      <c r="L92" s="25"/>
-    </row>
-    <row r="93" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J92" s="25"/>
+    </row>
+    <row r="93" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="25"/>
-      <c r="B93" s="33"/>
-      <c r="C93" s="50"/>
-      <c r="D93" s="50"/>
-      <c r="E93" s="33"/>
+      <c r="B93" s="44"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="25"/>
       <c r="F93" s="33"/>
-      <c r="G93" s="25"/>
+      <c r="G93" s="33"/>
       <c r="H93" s="33"/>
       <c r="I93" s="33"/>
-      <c r="J93" s="33"/>
-      <c r="K93" s="33"/>
-      <c r="L93" s="25"/>
-    </row>
-    <row r="94" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J93" s="25"/>
+    </row>
+    <row r="94" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="25"/>
-      <c r="B94" s="33"/>
-      <c r="C94" s="50"/>
-      <c r="D94" s="50"/>
-      <c r="E94" s="33"/>
+      <c r="B94" s="44"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="25"/>
       <c r="F94" s="33"/>
-      <c r="G94" s="25"/>
+      <c r="G94" s="33"/>
       <c r="H94" s="33"/>
       <c r="I94" s="33"/>
-      <c r="J94" s="33"/>
-      <c r="K94" s="33"/>
-      <c r="L94" s="25"/>
-    </row>
-    <row r="95" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J94" s="25"/>
+    </row>
+    <row r="95" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="25"/>
-      <c r="B95" s="33"/>
-      <c r="C95" s="50"/>
-      <c r="D95" s="50"/>
-      <c r="E95" s="33"/>
+      <c r="B95" s="44"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="25"/>
       <c r="F95" s="33"/>
-      <c r="G95" s="25"/>
+      <c r="G95" s="33"/>
       <c r="H95" s="33"/>
       <c r="I95" s="33"/>
-      <c r="J95" s="33"/>
-      <c r="K95" s="33"/>
-      <c r="L95" s="25"/>
-    </row>
-    <row r="96" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J95" s="25"/>
+    </row>
+    <row r="96" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="25"/>
-      <c r="B96" s="33"/>
-      <c r="C96" s="50"/>
-      <c r="D96" s="50"/>
-      <c r="E96" s="33"/>
+      <c r="B96" s="44"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="25"/>
       <c r="F96" s="33"/>
-      <c r="G96" s="25"/>
+      <c r="G96" s="33"/>
       <c r="H96" s="33"/>
       <c r="I96" s="33"/>
-      <c r="J96" s="33"/>
-      <c r="K96" s="33"/>
-      <c r="L96" s="25"/>
-    </row>
-    <row r="97" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J96" s="25"/>
+    </row>
+    <row r="97" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="25"/>
-      <c r="B97" s="33"/>
-      <c r="C97" s="50"/>
-      <c r="D97" s="50"/>
-      <c r="E97" s="33"/>
+      <c r="B97" s="44"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="25"/>
       <c r="F97" s="33"/>
-      <c r="G97" s="25"/>
+      <c r="G97" s="33"/>
       <c r="H97" s="33"/>
       <c r="I97" s="33"/>
-      <c r="J97" s="33"/>
-      <c r="K97" s="33"/>
-      <c r="L97" s="25"/>
-    </row>
-    <row r="98" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J97" s="25"/>
+    </row>
+    <row r="98" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="25"/>
-      <c r="B98" s="33"/>
-      <c r="C98" s="50"/>
-      <c r="D98" s="50"/>
-      <c r="E98" s="33"/>
+      <c r="B98" s="44"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="25"/>
       <c r="F98" s="33"/>
-      <c r="G98" s="25"/>
+      <c r="G98" s="33"/>
       <c r="H98" s="33"/>
       <c r="I98" s="33"/>
-      <c r="J98" s="33"/>
-      <c r="K98" s="33"/>
-      <c r="L98" s="25"/>
-    </row>
-    <row r="99" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J98" s="25"/>
+    </row>
+    <row r="99" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="25"/>
-      <c r="B99" s="33"/>
-      <c r="C99" s="50"/>
-      <c r="D99" s="50"/>
-      <c r="E99" s="33"/>
+      <c r="B99" s="44"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="25"/>
       <c r="F99" s="33"/>
-      <c r="G99" s="25"/>
+      <c r="G99" s="33"/>
       <c r="H99" s="33"/>
       <c r="I99" s="33"/>
-      <c r="J99" s="33"/>
-      <c r="K99" s="33"/>
-      <c r="L99" s="25"/>
-    </row>
-    <row r="100" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J99" s="25"/>
+    </row>
+    <row r="100" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="25"/>
-      <c r="B100" s="33"/>
-      <c r="C100" s="50"/>
-      <c r="D100" s="50"/>
-      <c r="E100" s="33"/>
+      <c r="B100" s="44"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="25"/>
       <c r="F100" s="33"/>
-      <c r="G100" s="25"/>
+      <c r="G100" s="33"/>
       <c r="H100" s="33"/>
       <c r="I100" s="33"/>
-      <c r="J100" s="33"/>
-      <c r="K100" s="33"/>
-      <c r="L100" s="25"/>
-    </row>
-    <row r="101" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J100" s="25"/>
+    </row>
+    <row r="101" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="25"/>
-      <c r="B101" s="33"/>
-      <c r="C101" s="50"/>
-      <c r="D101" s="50"/>
-      <c r="E101" s="33"/>
+      <c r="B101" s="44"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="25"/>
       <c r="F101" s="33"/>
-      <c r="G101" s="25"/>
+      <c r="G101" s="33"/>
       <c r="H101" s="33"/>
       <c r="I101" s="33"/>
-      <c r="J101" s="33"/>
-      <c r="K101" s="33"/>
-      <c r="L101" s="25"/>
-    </row>
-    <row r="102" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J101" s="25"/>
+    </row>
+    <row r="102" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="25"/>
-      <c r="B102" s="33"/>
-      <c r="C102" s="50"/>
-      <c r="D102" s="50"/>
-      <c r="E102" s="33"/>
+      <c r="B102" s="44"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
+      <c r="E102" s="25"/>
       <c r="F102" s="33"/>
-      <c r="G102" s="25"/>
+      <c r="G102" s="33"/>
       <c r="H102" s="33"/>
       <c r="I102" s="33"/>
-      <c r="J102" s="33"/>
-      <c r="K102" s="33"/>
-      <c r="L102" s="25"/>
-    </row>
-    <row r="103" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J102" s="25"/>
+    </row>
+    <row r="103" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="25"/>
-      <c r="B103" s="33"/>
-      <c r="C103" s="50"/>
-      <c r="D103" s="50"/>
-      <c r="E103" s="33"/>
+      <c r="B103" s="44"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
+      <c r="E103" s="25"/>
       <c r="F103" s="33"/>
-      <c r="G103" s="25"/>
+      <c r="G103" s="33"/>
       <c r="H103" s="33"/>
       <c r="I103" s="33"/>
-      <c r="J103" s="33"/>
-      <c r="K103" s="33"/>
-      <c r="L103" s="25"/>
-    </row>
-    <row r="104" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J103" s="25"/>
+    </row>
+    <row r="104" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="25"/>
-      <c r="B104" s="33"/>
-      <c r="C104" s="50"/>
-      <c r="D104" s="50"/>
-      <c r="E104" s="33"/>
+      <c r="B104" s="44"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="33"/>
+      <c r="E104" s="25"/>
       <c r="F104" s="33"/>
-      <c r="G104" s="25"/>
+      <c r="G104" s="33"/>
       <c r="H104" s="33"/>
       <c r="I104" s="33"/>
-      <c r="J104" s="33"/>
-      <c r="K104" s="33"/>
-      <c r="L104" s="25"/>
-    </row>
-    <row r="105" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J104" s="25"/>
+    </row>
+    <row r="105" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="25"/>
-      <c r="B105" s="33"/>
-      <c r="C105" s="50"/>
-      <c r="D105" s="50"/>
-      <c r="E105" s="33"/>
+      <c r="B105" s="44"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
+      <c r="E105" s="25"/>
       <c r="F105" s="33"/>
-      <c r="G105" s="25"/>
+      <c r="G105" s="33"/>
       <c r="H105" s="33"/>
       <c r="I105" s="33"/>
-      <c r="J105" s="33"/>
-      <c r="K105" s="33"/>
-      <c r="L105" s="25"/>
-    </row>
-    <row r="106" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J105" s="25"/>
+    </row>
+    <row r="106" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="25"/>
-      <c r="B106" s="33"/>
-      <c r="C106" s="50"/>
-      <c r="D106" s="50"/>
-      <c r="E106" s="33"/>
+      <c r="B106" s="44"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="33"/>
+      <c r="E106" s="25"/>
       <c r="F106" s="33"/>
-      <c r="G106" s="25"/>
+      <c r="G106" s="33"/>
       <c r="H106" s="33"/>
       <c r="I106" s="33"/>
-      <c r="J106" s="33"/>
-      <c r="K106" s="33"/>
-      <c r="L106" s="25"/>
-    </row>
-    <row r="107" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J106" s="25"/>
+    </row>
+    <row r="107" spans="1:10" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="25"/>
-      <c r="B107" s="33"/>
-      <c r="C107" s="50"/>
-      <c r="D107" s="50"/>
-      <c r="E107" s="33"/>
+      <c r="B107" s="44"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="33"/>
+      <c r="E107" s="25"/>
       <c r="F107" s="33"/>
-      <c r="G107" s="25"/>
+      <c r="G107" s="33"/>
       <c r="H107" s="33"/>
       <c r="I107" s="33"/>
-      <c r="J107" s="33"/>
-      <c r="K107" s="33"/>
-      <c r="L107" s="25"/>
-    </row>
-    <row r="108" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J107" s="25"/>
+    </row>
+    <row r="108" spans="1:10" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="25"/>
-      <c r="B108" s="33"/>
-      <c r="C108" s="50"/>
-      <c r="D108" s="50"/>
-      <c r="E108" s="33"/>
+      <c r="B108" s="44"/>
+      <c r="C108" s="33"/>
+      <c r="D108" s="33"/>
+      <c r="E108" s="25"/>
       <c r="F108" s="33"/>
-      <c r="G108" s="25"/>
+      <c r="G108" s="33"/>
       <c r="H108" s="33"/>
       <c r="I108" s="33"/>
-      <c r="J108" s="33"/>
-      <c r="K108" s="33"/>
-      <c r="L108" s="25"/>
-    </row>
-    <row r="109" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J108" s="25"/>
+    </row>
+    <row r="109" spans="1:10" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="25"/>
-      <c r="B109" s="33"/>
-      <c r="C109" s="50"/>
-      <c r="D109" s="50"/>
-      <c r="E109" s="33"/>
+      <c r="B109" s="44"/>
+      <c r="C109" s="33"/>
+      <c r="D109" s="33"/>
+      <c r="E109" s="25"/>
       <c r="F109" s="33"/>
-      <c r="G109" s="25"/>
+      <c r="G109" s="33"/>
       <c r="H109" s="33"/>
       <c r="I109" s="33"/>
-      <c r="J109" s="33"/>
-      <c r="K109" s="33"/>
-      <c r="L109" s="25"/>
-    </row>
-    <row r="110" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J109" s="25"/>
+    </row>
+    <row r="110" spans="1:10" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="25"/>
-      <c r="B110" s="33"/>
-      <c r="C110" s="50"/>
-      <c r="D110" s="50"/>
-      <c r="E110" s="33"/>
+      <c r="B110" s="44"/>
+      <c r="C110" s="33"/>
+      <c r="D110" s="33"/>
+      <c r="E110" s="25"/>
       <c r="F110" s="33"/>
-      <c r="G110" s="25"/>
+      <c r="G110" s="33"/>
       <c r="H110" s="33"/>
       <c r="I110" s="33"/>
-      <c r="J110" s="33"/>
-      <c r="K110" s="33"/>
-      <c r="L110" s="25"/>
-    </row>
-    <row r="111" spans="1:12" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J110" s="25"/>
+    </row>
+    <row r="111" spans="1:10" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="27"/>
-      <c r="B111" s="34"/>
-      <c r="C111" s="51"/>
-      <c r="D111" s="51"/>
-      <c r="E111" s="34"/>
+      <c r="B111" s="45"/>
+      <c r="C111" s="34"/>
+      <c r="D111" s="34"/>
+      <c r="E111" s="27"/>
       <c r="F111" s="34"/>
-      <c r="G111" s="27"/>
+      <c r="G111" s="34"/>
       <c r="H111" s="34"/>
       <c r="I111" s="34"/>
-      <c r="J111" s="34"/>
-      <c r="K111" s="34"/>
-      <c r="L111" s="27"/>
+      <c r="J111" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="121">
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="D1:G3"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="C10:D11"/>
+  <mergeCells count="16">
+    <mergeCell ref="B1:E3"/>
+    <mergeCell ref="H10:H11"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G5:J5"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="B10:B11"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.19685039370078741"/>

--- a/hydrofia/hydrofia_ph_template.xlsx
+++ b/hydrofia/hydrofia_ph_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mw\git\hydrofia\hydrofia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AB210F-1FAE-45DD-A432-E471AC254D1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E44B11-F599-4B6D-9073-BA50B4295FA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="165" windowWidth="15600" windowHeight="11610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -925,7 +925,7 @@
   <dimension ref="A1:EH111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
